--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B18DF5C-B559-244C-B11E-71218237686C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1044F-E582-F945-9ADF-4943D950C5B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20300" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14700" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="149">
   <si>
     <t>Revenue</t>
   </si>
@@ -385,33 +385,18 @@
     <t>OE y/y</t>
   </si>
   <si>
-    <t>BADWILL</t>
-  </si>
-  <si>
     <t>http://www.worldgovernmentbonds.com/country/united-states/</t>
   </si>
   <si>
     <t>Microsoft Office</t>
   </si>
   <si>
-    <t>RORC</t>
-  </si>
-  <si>
-    <t>PRR</t>
-  </si>
-  <si>
     <t>Net present value on future net income (terminal value)</t>
   </si>
   <si>
     <t>Risk-free rate + market premium (opportunity cost)</t>
   </si>
   <si>
-    <t>Return on research capital</t>
-  </si>
-  <si>
-    <t>Price to R&amp;D ratio</t>
-  </si>
-  <si>
     <t>Productivity and office applications</t>
   </si>
   <si>
@@ -494,6 +479,12 @@
   </si>
   <si>
     <t>Incl. Game publisher Bethesda Softworks</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
   </si>
 </sst>
 </file>
@@ -601,7 +592,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -745,12 +736,6 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -776,6 +761,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" customBuiltin="1"/>
@@ -807,7 +801,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -855,14 +849,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>239184</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>239184</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -879,8 +873,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21463000" y="177800"/>
-          <a:ext cx="0" cy="8572500"/>
+          <a:off x="23120351" y="182033"/>
+          <a:ext cx="0" cy="8792634"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1170,13 +1164,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FR63"/>
+  <dimension ref="A1:IA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1199,16 +1193,16 @@
         <v>68</v>
       </c>
       <c r="C2" s="21">
-        <v>207.1</v>
-      </c>
-      <c r="D2" s="81">
-        <v>44101</v>
+        <v>242.2</v>
+      </c>
+      <c r="D2" s="79">
+        <v>44232</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="I2" s="3"/>
       <c r="L2" s="7"/>
@@ -1221,11 +1215,11 @@
         <v>23</v>
       </c>
       <c r="C3" s="4">
-        <f>Reports!Y22</f>
-        <v>7650</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>113</v>
+        <f>Reports!AA22</f>
+        <v>7616</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>148</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>35</v>
@@ -1247,7 +1241,7 @@
       </c>
       <c r="C4" s="19">
         <f>C2*C3</f>
-        <v>1584315</v>
+        <v>1844595.2</v>
       </c>
       <c r="D4" s="70"/>
       <c r="E4" s="6" t="s">
@@ -1258,11 +1252,11 @@
         <v>0.05</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I4" s="10"/>
       <c r="L4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -1271,21 +1265,21 @@
         <v>26</v>
       </c>
       <c r="C5" s="4">
-        <f>Reports!Y33</f>
-        <v>73200</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>113</v>
+        <f>Reports!AA33</f>
+        <v>71445</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>148</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="15">
-        <f>NPV(F4,H26:FR26)</f>
-        <v>2779057.6870495155</v>
+        <f>NPV(F4,H26:IA26)</f>
+        <v>3102766.525616121</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I5" s="10"/>
     </row>
@@ -1298,7 +1292,7 @@
       </c>
       <c r="C6" s="19">
         <f>C4-C5</f>
-        <v>1511115</v>
+        <v>1773150.2</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="14" t="s">
@@ -1306,7 +1300,7 @@
       </c>
       <c r="F6" s="23">
         <f>F5+C5</f>
-        <v>2852257.6870495155</v>
+        <v>3174211.525616121</v>
       </c>
       <c r="I6" s="10"/>
     </row>
@@ -1319,7 +1313,7 @@
       </c>
       <c r="C7" s="24">
         <f>C6/C3</f>
-        <v>197.53137254901961</v>
+        <v>232.81909138655462</v>
       </c>
       <c r="D7" s="70"/>
       <c r="E7" s="25" t="s">
@@ -1327,11 +1321,11 @@
       </c>
       <c r="F7" s="26">
         <f>F6/C3</f>
-        <v>372.84414209797586</v>
+        <v>416.78197552732684</v>
       </c>
       <c r="G7" s="72">
         <f>F7/C2-1</f>
-        <v>0.80030971558655661</v>
+        <v>0.72081740514998693</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -1452,24 +1446,24 @@
         <v>46398</v>
       </c>
       <c r="H10" s="3">
-        <f>G10*1.1</f>
-        <v>51037.8</v>
+        <f>SUM(Reports!Z3:AC3)</f>
+        <v>52691.25</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" ref="I10:L10" si="1">H10*1.1</f>
-        <v>56141.580000000009</v>
+        <f>H10*1.15</f>
+        <v>60594.937499999993</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>61755.738000000012</v>
+        <f t="shared" ref="J10:L10" si="1">I10*1.15</f>
+        <v>69684.178124999991</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>67931.311800000025</v>
+        <v>80136.804843749982</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v>74724.442980000036</v>
+        <v>92157.325570312474</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -1501,24 +1495,24 @@
         <v>48366</v>
       </c>
       <c r="H11" s="3">
-        <f>G11*1.25</f>
-        <v>60457.5</v>
+        <f>SUM(Reports!Z4:AC4)</f>
+        <v>58369.399999999994</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" ref="I11:L11" si="2">H11*1.25</f>
-        <v>75571.875</v>
+        <f>H11*1.2</f>
+        <v>70043.279999999984</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="2"/>
-        <v>94464.84375</v>
+        <f t="shared" ref="J11:L11" si="2">I11*1.2</f>
+        <v>84051.935999999972</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="2"/>
-        <v>118081.0546875</v>
+        <v>100862.32319999997</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="2"/>
-        <v>147601.318359375</v>
+        <v>121034.78783999996</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -1550,24 +1544,24 @@
         <v>48251</v>
       </c>
       <c r="H12" s="3">
-        <f>G12*0.95</f>
-        <v>45838.45</v>
+        <f>SUM(Reports!Z5:AC5)</f>
+        <v>53268.7</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" ref="I12:L12" si="3">H12*0.95</f>
-        <v>43546.527499999997</v>
+        <f>H12*0.98</f>
+        <v>52203.325999999994</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="3"/>
-        <v>41369.201124999992</v>
+        <f t="shared" ref="J12:L12" si="3">I12*0.98</f>
+        <v>51159.259479999993</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="3"/>
-        <v>39300.741068749994</v>
+        <v>50136.074290399993</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="3"/>
-        <v>37335.704015312491</v>
+        <v>49133.352804591988</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -1618,64 +1612,64 @@
         <v>143015</v>
       </c>
       <c r="H15" s="27">
-        <f t="shared" ref="H15:L15" si="5">SUM(H10:H13)</f>
-        <v>157333.75</v>
+        <f>SUM(H10:H13)</f>
+        <v>164329.34999999998</v>
       </c>
       <c r="I15" s="27">
-        <f t="shared" si="5"/>
-        <v>175259.98250000001</v>
+        <f t="shared" ref="I15:L15" si="5">SUM(I10:I13)</f>
+        <v>182841.54349999997</v>
       </c>
       <c r="J15" s="27">
         <f t="shared" si="5"/>
-        <v>197589.782875</v>
+        <v>204895.37360499997</v>
       </c>
       <c r="K15" s="27">
         <f t="shared" si="5"/>
-        <v>225313.10755625</v>
+        <v>231135.20233414994</v>
       </c>
       <c r="L15" s="27">
         <f t="shared" si="5"/>
-        <v>259661.46535468753</v>
+        <v>262325.46621490445</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" ref="M15:V15" si="6">L15*1.05</f>
-        <v>272644.53862242191</v>
+        <v>275441.7395256497</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="6"/>
-        <v>286276.76555354299</v>
+        <v>289213.82650193217</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" si="6"/>
-        <v>300590.60383122019</v>
+        <v>303674.51782702882</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="6"/>
-        <v>315620.13402278122</v>
+        <v>318858.24371838028</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="6"/>
-        <v>331401.14072392031</v>
+        <v>334801.15590429929</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="6"/>
-        <v>347971.19776011637</v>
+        <v>351541.21369951428</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="6"/>
-        <v>365369.75764812221</v>
+        <v>369118.27438448998</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="6"/>
-        <v>383638.24553052831</v>
+        <v>387574.18810371449</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="6"/>
-        <v>402820.15780705475</v>
+        <v>406952.89750890021</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="6"/>
-        <v>422961.1656974075</v>
+        <v>427300.54238434526</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -1708,66 +1702,66 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" ref="H16:Q16" si="7">H15-H17</f>
-        <v>50691.357777156241</v>
+        <v>52945.270001748053</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="7"/>
-        <v>56467.010269097649</v>
+        <v>58909.713256602437</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="7"/>
-        <v>63661.448206931091</v>
+        <v>66015.236338644114</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="7"/>
-        <v>72593.625633513177</v>
+        <v>74469.446233982162</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="7"/>
-        <v>83660.322348098387</v>
+        <v>84518.636732163519</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="7"/>
-        <v>87843.338465503301</v>
+        <v>88744.568568771705</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="7"/>
-        <v>92235.50538877846</v>
+        <v>93181.796997210273</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="7"/>
-        <v>96847.280658217409</v>
+        <v>97840.886847070797</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="7"/>
-        <v>101689.64469112828</v>
+        <v>102732.93118942436</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="7"/>
-        <v>106774.12692568472</v>
+        <v>107869.57774889556</v>
       </c>
       <c r="R16" s="3">
         <f t="shared" ref="R16:V16" si="8">R15-R17</f>
-        <v>112112.83327196896</v>
+        <v>113263.05663634036</v>
       </c>
       <c r="S16" s="3">
         <f t="shared" si="8"/>
-        <v>117718.47493556741</v>
+        <v>118926.20946815738</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="8"/>
-        <v>123604.39868234578</v>
+        <v>124872.51994156523</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="8"/>
-        <v>129784.61861646309</v>
+        <v>131116.14593864349</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" si="8"/>
-        <v>136273.84954728623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:174" x14ac:dyDescent="0.15">
+        <v>137671.9532355757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1797,66 +1791,66 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" ref="H17:V17" si="10">H15*G30</f>
-        <v>106642.39222284376</v>
+        <v>111384.07999825192</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="10"/>
-        <v>118792.97223090236</v>
+        <v>123931.83024339753</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="10"/>
-        <v>133928.33466806891</v>
+        <v>138880.13726635586</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="10"/>
-        <v>152719.48192273683</v>
+        <v>156665.75610016778</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="10"/>
-        <v>176001.14300658915</v>
+        <v>177806.82948274093</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="10"/>
-        <v>184801.20015691861</v>
+        <v>186697.17095687799</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="10"/>
-        <v>194041.26016476454</v>
+        <v>196032.0295047219</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="10"/>
-        <v>203743.32317300278</v>
+        <v>205833.63097995802</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="10"/>
-        <v>213930.48933165293</v>
+        <v>216125.31252895592</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="10"/>
-        <v>224627.0137982356</v>
+        <v>226931.57815540372</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="10"/>
-        <v>235858.3644881474</v>
+        <v>238278.15706317392</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="10"/>
-        <v>247651.28271255479</v>
+        <v>250192.0649163326</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="10"/>
-        <v>260033.84684818253</v>
+        <v>262701.66816214926</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="10"/>
-        <v>273035.53919059166</v>
+        <v>275836.75157025672</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="10"/>
-        <v>286687.31615012127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:174" x14ac:dyDescent="0.15">
+        <v>289628.58914876956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1939,7 @@
         <v>37828.952890769404</v>
       </c>
     </row>
-    <row r="19" spans="1:174" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2034,7 +2028,7 @@
         <v>20437.087559636406</v>
       </c>
     </row>
-    <row r="20" spans="1:174" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2123,7 +2117,7 @@
         <v>3774.826683620659</v>
       </c>
     </row>
-    <row r="21" spans="1:174" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -2212,7 +2206,7 @@
         <v>62040.86713402647</v>
       </c>
     </row>
-    <row r="22" spans="1:174" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2242,66 +2236,66 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" ref="H22:Q22" si="21">H17-H21</f>
-        <v>59859.812222843757</v>
+        <v>64601.499998251922</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="21"/>
-        <v>68962.082830902364</v>
+        <v>74100.940843397533</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="21"/>
-        <v>80783.728606068908</v>
+        <v>85735.531204355852</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="21"/>
-        <v>95972.023869476805</v>
+        <v>99918.298046907759</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="21"/>
-        <v>115335.72056226933</v>
+        <v>117141.40703842111</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="21"/>
-        <v>124107.76947388519</v>
+        <v>126003.74027384457</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="21"/>
-        <v>133295.55507403979</v>
+        <v>135286.32441399712</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="21"/>
-        <v>142921.06630231347</v>
+        <v>145011.37410926871</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="21"/>
-        <v>153007.3823989628</v>
+        <v>155202.20559626579</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="21"/>
-        <v>163578.72790079634</v>
+        <v>165883.29225796447</v>
       </c>
       <c r="R22" s="4">
         <f t="shared" ref="R22:V22" si="22">R17-R21</f>
-        <v>174660.53038318595</v>
+        <v>177080.32295821246</v>
       </c>
       <c r="S22" s="4">
         <f t="shared" si="22"/>
-        <v>186279.48108571218</v>
+        <v>188820.26328948999</v>
       </c>
       <c r="T22" s="4">
         <f t="shared" si="22"/>
-        <v>198463.59856581676</v>
+        <v>201131.4198797835</v>
       </c>
       <c r="U22" s="4">
         <f t="shared" si="22"/>
-        <v>211242.29553205203</v>
+        <v>214043.50791171708</v>
       </c>
       <c r="V22" s="4">
         <f t="shared" si="22"/>
-        <v>224646.44901609479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:174" x14ac:dyDescent="0.15">
+        <v>227587.72201474308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -2335,62 +2329,62 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="23"/>
-        <v>2383.2647477883438</v>
+        <v>2463.873439970283</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="23"/>
-        <v>3596.1356566260861</v>
+        <v>3765.4752827875359</v>
       </c>
       <c r="K23" s="3">
         <f>J40*$F$3</f>
-        <v>5030.5933490919006</v>
+        <v>5286.9923930689738</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="23"/>
-        <v>6747.6378418075692</v>
+        <v>7075.4823305485779</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" si="23"/>
-        <v>8823.0549346768767</v>
+        <v>9187.1694498210636</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" si="23"/>
-        <v>11082.878949622433</v>
+        <v>11485.41491512338</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="23"/>
-        <v>13537.312328024691</v>
+        <v>13980.534483718428</v>
       </c>
       <c r="P23" s="3">
         <f t="shared" si="23"/>
-        <v>16197.104764740439</v>
+        <v>16683.396929799208</v>
       </c>
       <c r="Q23" s="3">
         <f t="shared" si="23"/>
-        <v>19073.581046523395</v>
+        <v>19605.452172742313</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" si="23"/>
-        <v>22178.670298627829</v>
+        <v>22758.760828064333</v>
       </c>
       <c r="S23" s="3">
         <f t="shared" si="23"/>
-        <v>25524.936710218666</v>
+        <v>26156.025252431034</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" si="23"/>
-        <v>29125.611812749492</v>
+        <v>29810.622157643695</v>
       </c>
       <c r="U23" s="3">
         <f t="shared" si="23"/>
-        <v>32994.62838918512</v>
+        <v>33736.63687227996</v>
       </c>
       <c r="V23" s="3">
         <f t="shared" si="23"/>
-        <v>37146.656095846149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:174" x14ac:dyDescent="0.15">
+        <v>37948.899333607907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -2420,66 +2414,66 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" ref="H24:Q24" si="25">H22+H23</f>
-        <v>61202.632222843757</v>
+        <v>65944.319998251929</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="25"/>
-        <v>71345.347578690707</v>
+        <v>76564.814283367814</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="25"/>
-        <v>84379.864262694988</v>
+        <v>89501.006487143386</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="25"/>
-        <v>101002.6172185687</v>
+        <v>105205.29043997673</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="25"/>
-        <v>122083.35840407689</v>
+        <v>124216.88936896969</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="25"/>
-        <v>132930.82440856207</v>
+        <v>135190.90972366562</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="25"/>
-        <v>144378.43402366221</v>
+        <v>146771.73932912049</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="25"/>
-        <v>156458.37863033815</v>
+        <v>158991.90859298714</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="25"/>
-        <v>169204.48716370325</v>
+        <v>171885.60252606499</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="25"/>
-        <v>182652.30894731975</v>
+        <v>185488.74443070678</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" ref="R24:V24" si="26">R22+R23</f>
-        <v>196839.20068181379</v>
+        <v>199839.08378627681</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="26"/>
-        <v>211804.41779593084</v>
+        <v>214976.28854192101</v>
       </c>
       <c r="T24" s="4">
         <f t="shared" si="26"/>
-        <v>227589.21037856626</v>
+        <v>230942.04203742719</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="26"/>
-        <v>244236.92392123715</v>
+        <v>247780.14478399704</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="26"/>
-        <v>261793.10511194094</v>
-      </c>
-    </row>
-    <row r="25" spans="1:174" x14ac:dyDescent="0.15">
+        <v>265536.62134835101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -2509,66 +2503,66 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" ref="H25:Q25" si="27">H24*0.15</f>
-        <v>9180.3948334265624</v>
+        <v>9891.6479997377883</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="27"/>
-        <v>10701.802136803606</v>
+        <v>11484.722142505172</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="27"/>
-        <v>12656.979639404248</v>
+        <v>13425.150973071508</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="27"/>
-        <v>15150.392582785305</v>
+        <v>15780.793565996508</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="27"/>
-        <v>18312.503760611533</v>
+        <v>18632.533405345454</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" si="27"/>
-        <v>19939.623661284309</v>
+        <v>20278.636458549841</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="27"/>
-        <v>21656.765103549329</v>
+        <v>22015.760899368073</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="27"/>
-        <v>23468.756794550722</v>
+        <v>23848.786288948071</v>
       </c>
       <c r="P25" s="3">
         <f t="shared" si="27"/>
-        <v>25380.673074555485</v>
+        <v>25782.840378909747</v>
       </c>
       <c r="Q25" s="3">
         <f t="shared" si="27"/>
-        <v>27397.846342097961</v>
+        <v>27823.311664606015</v>
       </c>
       <c r="R25" s="3">
         <f t="shared" ref="R25:V25" si="28">R24*0.15</f>
-        <v>29525.880102272065</v>
+        <v>29975.86256794152</v>
       </c>
       <c r="S25" s="3">
         <f t="shared" si="28"/>
-        <v>31770.662669389625</v>
+        <v>32246.44328128815</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="28"/>
-        <v>34138.381556784938</v>
+        <v>34641.306305614075</v>
       </c>
       <c r="U25" s="3">
         <f t="shared" si="28"/>
-        <v>36635.538588185569</v>
+        <v>37167.021717599557</v>
       </c>
       <c r="V25" s="3">
         <f t="shared" si="28"/>
-        <v>39268.965766791138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:174" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>39830.493202252648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:235" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
@@ -2597,764 +2591,1008 @@
         <v>44281</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="29"/>
-        <v>52022.237389417191</v>
+        <f>H24-H25</f>
+        <v>56052.671998514139</v>
       </c>
       <c r="I26" s="28">
         <f t="shared" si="29"/>
-        <v>60643.545441887101</v>
+        <v>65080.092140862645</v>
       </c>
       <c r="J26" s="28">
         <f t="shared" si="29"/>
-        <v>71722.884623290738</v>
+        <v>76075.855514071882</v>
       </c>
       <c r="K26" s="28">
         <f t="shared" si="29"/>
-        <v>85852.224635783394</v>
+        <v>89424.496873980213</v>
       </c>
       <c r="L26" s="28">
         <f t="shared" si="29"/>
-        <v>103770.85464346535</v>
+        <v>105584.35596362423</v>
       </c>
       <c r="M26" s="28">
         <f t="shared" si="29"/>
-        <v>112991.20074727776</v>
+        <v>114912.27326511579</v>
       </c>
       <c r="N26" s="28">
         <f t="shared" si="29"/>
-        <v>122721.66892011288</v>
+        <v>124755.97842975242</v>
       </c>
       <c r="O26" s="28">
         <f t="shared" si="29"/>
-        <v>132989.62183578743</v>
+        <v>135143.12230403908</v>
       </c>
       <c r="P26" s="28">
         <f t="shared" si="29"/>
-        <v>143823.81408914775</v>
+        <v>146102.76214715524</v>
       </c>
       <c r="Q26" s="28">
         <f t="shared" si="29"/>
-        <v>155254.46260522178</v>
+        <v>157665.43276610077</v>
       </c>
       <c r="R26" s="28">
         <f t="shared" ref="R26:V26" si="30">R24-R25</f>
-        <v>167313.32057954173</v>
+        <v>169863.2212183353</v>
       </c>
       <c r="S26" s="28">
         <f t="shared" si="30"/>
-        <v>180033.75512654122</v>
+        <v>182729.84526063286</v>
       </c>
       <c r="T26" s="28">
         <f t="shared" si="30"/>
-        <v>193450.82882178132</v>
+        <v>196300.73573181313</v>
       </c>
       <c r="U26" s="28">
         <f t="shared" si="30"/>
-        <v>207601.38533305158</v>
+        <v>210613.12306639747</v>
       </c>
       <c r="V26" s="28">
         <f t="shared" si="30"/>
-        <v>222524.1393451498</v>
+        <v>225706.12814609834</v>
       </c>
       <c r="W26" s="28">
         <f t="shared" ref="W26:CD26" si="31">V26*($F$2+1)</f>
-        <v>218073.65655824679</v>
+        <v>223449.06686463737</v>
       </c>
       <c r="X26" s="28">
         <f t="shared" si="31"/>
-        <v>213712.18342708185</v>
+        <v>221214.57619599099</v>
       </c>
       <c r="Y26" s="28">
         <f t="shared" si="31"/>
-        <v>209437.93975854022</v>
+        <v>219002.43043403106</v>
       </c>
       <c r="Z26" s="28">
         <f t="shared" si="31"/>
-        <v>205249.18096336941</v>
+        <v>216812.40612969076</v>
       </c>
       <c r="AA26" s="28">
         <f t="shared" si="31"/>
-        <v>201144.19734410202</v>
+        <v>214644.28206839386</v>
       </c>
       <c r="AB26" s="28">
         <f t="shared" si="31"/>
-        <v>197121.31339721999</v>
+        <v>212497.83924770993</v>
       </c>
       <c r="AC26" s="28">
         <f t="shared" si="31"/>
-        <v>193178.88712927559</v>
+        <v>210372.86085523284</v>
       </c>
       <c r="AD26" s="28">
         <f t="shared" si="31"/>
-        <v>189315.30938669009</v>
+        <v>208269.1322466805</v>
       </c>
       <c r="AE26" s="28">
         <f t="shared" si="31"/>
-        <v>185529.00319895628</v>
+        <v>206186.4409242137</v>
       </c>
       <c r="AF26" s="28">
         <f t="shared" si="31"/>
-        <v>181818.42313497714</v>
+        <v>204124.57651497156</v>
       </c>
       <c r="AG26" s="28">
         <f t="shared" si="31"/>
-        <v>178182.05467227759</v>
+        <v>202083.33074982185</v>
       </c>
       <c r="AH26" s="28">
         <f t="shared" si="31"/>
-        <v>174618.41357883203</v>
+        <v>200062.49744232363</v>
       </c>
       <c r="AI26" s="28">
         <f t="shared" si="31"/>
-        <v>171126.04530725538</v>
+        <v>198061.87246790039</v>
       </c>
       <c r="AJ26" s="28">
         <f t="shared" si="31"/>
-        <v>167703.52440111028</v>
+        <v>196081.2537432214</v>
       </c>
       <c r="AK26" s="28">
         <f t="shared" si="31"/>
-        <v>164349.45391308807</v>
+        <v>194120.44120578919</v>
       </c>
       <c r="AL26" s="28">
         <f t="shared" si="31"/>
-        <v>161062.4648348263</v>
+        <v>192179.23679373131</v>
       </c>
       <c r="AM26" s="28">
         <f t="shared" si="31"/>
-        <v>157841.21553812976</v>
+        <v>190257.444425794</v>
       </c>
       <c r="AN26" s="28">
         <f t="shared" si="31"/>
-        <v>154684.39122736716</v>
+        <v>188354.86998153606</v>
       </c>
       <c r="AO26" s="28">
         <f t="shared" si="31"/>
-        <v>151590.70340281981</v>
+        <v>186471.32128172071</v>
       </c>
       <c r="AP26" s="28">
         <f t="shared" si="31"/>
-        <v>148558.8893347634</v>
+        <v>184606.6080689035</v>
       </c>
       <c r="AQ26" s="28">
         <f t="shared" si="31"/>
-        <v>145587.71154806812</v>
+        <v>182760.54198821448</v>
       </c>
       <c r="AR26" s="28">
         <f t="shared" si="31"/>
-        <v>142675.95731710675</v>
+        <v>180932.93656833234</v>
       </c>
       <c r="AS26" s="28">
         <f t="shared" si="31"/>
-        <v>139822.4381707646</v>
+        <v>179123.60720264903</v>
       </c>
       <c r="AT26" s="28">
         <f t="shared" si="31"/>
-        <v>137025.98940734929</v>
+        <v>177332.37113062255</v>
       </c>
       <c r="AU26" s="28">
         <f t="shared" si="31"/>
-        <v>134285.46961920231</v>
+        <v>175559.04741931631</v>
       </c>
       <c r="AV26" s="28">
         <f t="shared" si="31"/>
-        <v>131599.76022681827</v>
+        <v>173803.45694512315</v>
       </c>
       <c r="AW26" s="28">
         <f t="shared" si="31"/>
-        <v>128967.76502228191</v>
+        <v>172065.42237567191</v>
       </c>
       <c r="AX26" s="28">
         <f t="shared" si="31"/>
-        <v>126388.40972183627</v>
+        <v>170344.7681519152</v>
       </c>
       <c r="AY26" s="28">
         <f t="shared" si="31"/>
-        <v>123860.64152739955</v>
+        <v>168641.32047039605</v>
       </c>
       <c r="AZ26" s="28">
         <f t="shared" si="31"/>
-        <v>121383.42869685155</v>
+        <v>166954.90726569208</v>
       </c>
       <c r="BA26" s="28">
         <f t="shared" si="31"/>
-        <v>118955.76012291452</v>
+        <v>165285.35819303515</v>
       </c>
       <c r="BB26" s="28">
         <f t="shared" si="31"/>
-        <v>116576.64492045622</v>
+        <v>163632.50461110478</v>
       </c>
       <c r="BC26" s="28">
         <f t="shared" si="31"/>
-        <v>114245.11202204709</v>
+        <v>161996.17956499374</v>
       </c>
       <c r="BD26" s="28">
         <f t="shared" si="31"/>
-        <v>111960.20978160614</v>
+        <v>160376.21776934381</v>
       </c>
       <c r="BE26" s="28">
         <f t="shared" si="31"/>
-        <v>109721.00558597402</v>
+        <v>158772.45559165036</v>
       </c>
       <c r="BF26" s="28">
         <f t="shared" si="31"/>
-        <v>107526.58547425455</v>
+        <v>157184.73103573386</v>
       </c>
       <c r="BG26" s="28">
         <f t="shared" si="31"/>
-        <v>105376.05376476946</v>
+        <v>155612.88372537651</v>
       </c>
       <c r="BH26" s="28">
         <f t="shared" si="31"/>
-        <v>103268.53268947407</v>
+        <v>154056.75488812276</v>
       </c>
       <c r="BI26" s="28">
         <f t="shared" si="31"/>
-        <v>101203.16203568458</v>
+        <v>152516.18733924153</v>
       </c>
       <c r="BJ26" s="28">
         <f t="shared" si="31"/>
-        <v>99179.098794970894</v>
+        <v>150991.02546584912</v>
       </c>
       <c r="BK26" s="28">
         <f t="shared" si="31"/>
-        <v>97195.516819071476</v>
+        <v>149481.11521119063</v>
       </c>
       <c r="BL26" s="28">
         <f t="shared" si="31"/>
-        <v>95251.60648269004</v>
+        <v>147986.30405907871</v>
       </c>
       <c r="BM26" s="28">
         <f t="shared" si="31"/>
-        <v>93346.574353036238</v>
+        <v>146506.44101848794</v>
       </c>
       <c r="BN26" s="28">
         <f t="shared" si="31"/>
-        <v>91479.642865975518</v>
+        <v>145041.37660830305</v>
       </c>
       <c r="BO26" s="28">
         <f t="shared" si="31"/>
-        <v>89650.050008656006</v>
+        <v>143590.96284222</v>
       </c>
       <c r="BP26" s="28">
         <f t="shared" si="31"/>
-        <v>87857.049008482878</v>
+        <v>142155.0532137978</v>
       </c>
       <c r="BQ26" s="28">
         <f t="shared" si="31"/>
-        <v>86099.908028313221</v>
+        <v>140733.50268165983</v>
       </c>
       <c r="BR26" s="28">
         <f t="shared" si="31"/>
-        <v>84377.909867746959</v>
+        <v>139326.16765484322</v>
       </c>
       <c r="BS26" s="28">
         <f t="shared" si="31"/>
-        <v>82690.351670392018</v>
+        <v>137932.90597829479</v>
       </c>
       <c r="BT26" s="28">
         <f t="shared" si="31"/>
-        <v>81036.544636984181</v>
+        <v>136553.57691851183</v>
       </c>
       <c r="BU26" s="28">
         <f t="shared" si="31"/>
-        <v>79415.8137442445</v>
+        <v>135188.04114932672</v>
       </c>
       <c r="BV26" s="28">
         <f t="shared" si="31"/>
-        <v>77827.497469359616</v>
+        <v>133836.16073783344</v>
       </c>
       <c r="BW26" s="28">
         <f t="shared" si="31"/>
-        <v>76270.947519972426</v>
+        <v>132497.7991304551</v>
       </c>
       <c r="BX26" s="28">
         <f t="shared" si="31"/>
-        <v>74745.528569572969</v>
+        <v>131172.82113915053</v>
       </c>
       <c r="BY26" s="28">
         <f t="shared" si="31"/>
-        <v>73250.617998181508</v>
+        <v>129861.09292775902</v>
       </c>
       <c r="BZ26" s="28">
         <f t="shared" si="31"/>
-        <v>71785.605638217879</v>
+        <v>128562.48199848142</v>
       </c>
       <c r="CA26" s="28">
         <f t="shared" si="31"/>
-        <v>70349.893525453517</v>
+        <v>127276.8571784966</v>
       </c>
       <c r="CB26" s="28">
         <f t="shared" si="31"/>
-        <v>68942.895654944441</v>
+        <v>126004.08860671164</v>
       </c>
       <c r="CC26" s="28">
         <f t="shared" si="31"/>
-        <v>67564.037741845546</v>
+        <v>124744.04772064452</v>
       </c>
       <c r="CD26" s="28">
         <f t="shared" si="31"/>
-        <v>66212.75698700863</v>
+        <v>123496.60724343808</v>
       </c>
       <c r="CE26" s="28">
         <f t="shared" ref="CE26:DR26" si="32">CD26*($F$2+1)</f>
-        <v>64888.501847268453</v>
+        <v>122261.64117100369</v>
       </c>
       <c r="CF26" s="28">
         <f t="shared" si="32"/>
-        <v>63590.731810323086</v>
+        <v>121039.02475929365</v>
       </c>
       <c r="CG26" s="28">
         <f t="shared" si="32"/>
-        <v>62318.917174116621</v>
+        <v>119828.63451170071</v>
       </c>
       <c r="CH26" s="28">
         <f t="shared" si="32"/>
-        <v>61072.538830634287</v>
+        <v>118630.3481665837</v>
       </c>
       <c r="CI26" s="28">
         <f t="shared" si="32"/>
-        <v>59851.088054021602</v>
+        <v>117444.04468491787</v>
       </c>
       <c r="CJ26" s="28">
         <f t="shared" si="32"/>
-        <v>58654.06629294117</v>
+        <v>116269.60423806868</v>
       </c>
       <c r="CK26" s="28">
         <f t="shared" si="32"/>
-        <v>57480.984967082346</v>
+        <v>115106.908195688</v>
       </c>
       <c r="CL26" s="28">
         <f t="shared" si="32"/>
-        <v>56331.365267740701</v>
+        <v>113955.83911373111</v>
       </c>
       <c r="CM26" s="28">
         <f t="shared" si="32"/>
-        <v>55204.737962385887</v>
+        <v>112816.2807225938</v>
       </c>
       <c r="CN26" s="28">
         <f t="shared" si="32"/>
-        <v>54100.64320313817</v>
+        <v>111688.11791536787</v>
       </c>
       <c r="CO26" s="28">
         <f t="shared" si="32"/>
-        <v>53018.630339075404</v>
+        <v>110571.23673621418</v>
       </c>
       <c r="CP26" s="28">
         <f t="shared" si="32"/>
-        <v>51958.257732293896</v>
+        <v>109465.52436885204</v>
       </c>
       <c r="CQ26" s="28">
         <f t="shared" si="32"/>
-        <v>50919.092577648014</v>
+        <v>108370.86912516352</v>
       </c>
       <c r="CR26" s="28">
         <f t="shared" si="32"/>
-        <v>49900.710726095051</v>
+        <v>107287.16043391188</v>
       </c>
       <c r="CS26" s="28">
         <f t="shared" si="32"/>
-        <v>48902.696511573151</v>
+        <v>106214.28882957276</v>
       </c>
       <c r="CT26" s="28">
         <f t="shared" si="32"/>
-        <v>47924.642581341686</v>
+        <v>105152.14594127703</v>
       </c>
       <c r="CU26" s="28">
         <f t="shared" si="32"/>
-        <v>46966.149729714853</v>
+        <v>104100.62448186426</v>
       </c>
       <c r="CV26" s="28">
         <f t="shared" si="32"/>
-        <v>46026.826735120558</v>
+        <v>103059.61823704562</v>
       </c>
       <c r="CW26" s="28">
         <f t="shared" si="32"/>
-        <v>45106.290200418145</v>
+        <v>102029.02205467517</v>
       </c>
       <c r="CX26" s="28">
         <f t="shared" si="32"/>
-        <v>44204.164396409782</v>
+        <v>101008.73183412841</v>
       </c>
       <c r="CY26" s="28">
         <f t="shared" si="32"/>
-        <v>43320.081108481587</v>
+        <v>99998.64451578712</v>
       </c>
       <c r="CZ26" s="28">
         <f t="shared" si="32"/>
-        <v>42453.679486311958</v>
+        <v>98998.658070629244</v>
       </c>
       <c r="DA26" s="28">
         <f t="shared" si="32"/>
-        <v>41604.605896585716</v>
+        <v>98008.671489922956</v>
       </c>
       <c r="DB26" s="28">
         <f t="shared" si="32"/>
-        <v>40772.513778654</v>
+        <v>97028.58477502373</v>
       </c>
       <c r="DC26" s="28">
         <f t="shared" si="32"/>
-        <v>39957.063503080921</v>
+        <v>96058.298927273485</v>
       </c>
       <c r="DD26" s="28">
         <f t="shared" si="32"/>
-        <v>39157.922233019301</v>
+        <v>95097.715938000751</v>
       </c>
       <c r="DE26" s="28">
         <f t="shared" si="32"/>
-        <v>38374.763788358912</v>
+        <v>94146.73877862074</v>
       </c>
       <c r="DF26" s="28">
         <f t="shared" si="32"/>
-        <v>37607.268512591734</v>
+        <v>93205.271390834532</v>
       </c>
       <c r="DG26" s="28">
         <f t="shared" si="32"/>
-        <v>36855.1231423399</v>
+        <v>92273.21867692619</v>
       </c>
       <c r="DH26" s="28">
         <f t="shared" si="32"/>
-        <v>36118.0206794931</v>
+        <v>91350.486490156924</v>
       </c>
       <c r="DI26" s="28">
         <f t="shared" si="32"/>
-        <v>35395.660265903236</v>
+        <v>90436.981625255357</v>
       </c>
       <c r="DJ26" s="28">
         <f t="shared" si="32"/>
-        <v>34687.74706058517</v>
+        <v>89532.611809002803</v>
       </c>
       <c r="DK26" s="28">
         <f t="shared" si="32"/>
-        <v>33993.99211937347</v>
+        <v>88637.285690912773</v>
       </c>
       <c r="DL26" s="28">
         <f t="shared" si="32"/>
-        <v>33314.112276986001</v>
+        <v>87750.91283400364</v>
       </c>
       <c r="DM26" s="28">
         <f t="shared" si="32"/>
-        <v>32647.830031446279</v>
+        <v>86873.403705663601</v>
       </c>
       <c r="DN26" s="28">
         <f t="shared" si="32"/>
-        <v>31994.873430817352</v>
+        <v>86004.669668606963</v>
       </c>
       <c r="DO26" s="28">
         <f t="shared" si="32"/>
-        <v>31354.975962201002</v>
+        <v>85144.622971920893</v>
       </c>
       <c r="DP26" s="28">
         <f t="shared" si="32"/>
-        <v>30727.876442956982</v>
+        <v>84293.176742201686</v>
       </c>
       <c r="DQ26" s="28">
         <f t="shared" si="32"/>
-        <v>30113.318914097843</v>
+        <v>83450.244974779664</v>
       </c>
       <c r="DR26" s="28">
         <f t="shared" si="32"/>
-        <v>29511.052535815885</v>
+        <v>82615.742525031863</v>
       </c>
       <c r="DS26" s="28">
         <f t="shared" ref="DS26" si="33">DR26*($F$2+1)</f>
-        <v>28920.831485099567</v>
+        <v>81789.585099781543</v>
       </c>
       <c r="DT26" s="28">
         <f t="shared" ref="DT26" si="34">DS26*($F$2+1)</f>
-        <v>28342.414855397576</v>
+        <v>80971.689248783732</v>
       </c>
       <c r="DU26" s="28">
         <f t="shared" ref="DU26" si="35">DT26*($F$2+1)</f>
-        <v>27775.566558289625</v>
+        <v>80161.972356295897</v>
       </c>
       <c r="DV26" s="28">
         <f t="shared" ref="DV26" si="36">DU26*($F$2+1)</f>
-        <v>27220.055227123834</v>
+        <v>79360.352632732931</v>
       </c>
       <c r="DW26" s="28">
         <f t="shared" ref="DW26" si="37">DV26*($F$2+1)</f>
-        <v>26675.654122581356</v>
+        <v>78566.749106405594</v>
       </c>
       <c r="DX26" s="28">
         <f t="shared" ref="DX26" si="38">DW26*($F$2+1)</f>
-        <v>26142.141040129729</v>
+        <v>77781.081615341536</v>
       </c>
       <c r="DY26" s="28">
         <f t="shared" ref="DY26" si="39">DX26*($F$2+1)</f>
-        <v>25619.298219327135</v>
+        <v>77003.270799188118</v>
       </c>
       <c r="DZ26" s="28">
         <f t="shared" ref="DZ26" si="40">DY26*($F$2+1)</f>
-        <v>25106.912254940591</v>
+        <v>76233.238091196239</v>
       </c>
       <c r="EA26" s="28">
         <f t="shared" ref="EA26" si="41">DZ26*($F$2+1)</f>
-        <v>24604.774009841778</v>
+        <v>75470.905710284278</v>
       </c>
       <c r="EB26" s="28">
         <f t="shared" ref="EB26" si="42">EA26*($F$2+1)</f>
-        <v>24112.678529644942</v>
+        <v>74716.19665318144</v>
       </c>
       <c r="EC26" s="28">
         <f t="shared" ref="EC26" si="43">EB26*($F$2+1)</f>
-        <v>23630.424959052041</v>
+        <v>73969.034686649626</v>
       </c>
       <c r="ED26" s="28">
         <f t="shared" ref="ED26" si="44">EC26*($F$2+1)</f>
-        <v>23157.816459870999</v>
+        <v>73229.344339783129</v>
       </c>
       <c r="EE26" s="28">
         <f t="shared" ref="EE26" si="45">ED26*($F$2+1)</f>
-        <v>22694.660130673579</v>
+        <v>72497.050896385292</v>
       </c>
       <c r="EF26" s="28">
         <f t="shared" ref="EF26" si="46">EE26*($F$2+1)</f>
-        <v>22240.766928060108</v>
+        <v>71772.080387421433</v>
       </c>
       <c r="EG26" s="28">
         <f t="shared" ref="EG26" si="47">EF26*($F$2+1)</f>
-        <v>21795.951589498905</v>
+        <v>71054.359583547222</v>
       </c>
       <c r="EH26" s="28">
         <f t="shared" ref="EH26" si="48">EG26*($F$2+1)</f>
-        <v>21360.032557708928</v>
+        <v>70343.815987711743</v>
       </c>
       <c r="EI26" s="28">
         <f t="shared" ref="EI26" si="49">EH26*($F$2+1)</f>
-        <v>20932.831906554748</v>
+        <v>69640.377827834629</v>
       </c>
       <c r="EJ26" s="28">
         <f t="shared" ref="EJ26" si="50">EI26*($F$2+1)</f>
-        <v>20514.175268423653</v>
+        <v>68943.974049556287</v>
       </c>
       <c r="EK26" s="28">
         <f t="shared" ref="EK26" si="51">EJ26*($F$2+1)</f>
-        <v>20103.89176305518</v>
+        <v>68254.53430906072</v>
       </c>
       <c r="EL26" s="28">
         <f t="shared" ref="EL26" si="52">EK26*($F$2+1)</f>
-        <v>19701.813927794075</v>
+        <v>67571.988965970115</v>
       </c>
       <c r="EM26" s="28">
         <f t="shared" ref="EM26" si="53">EL26*($F$2+1)</f>
-        <v>19307.777649238193</v>
+        <v>66896.269076310418</v>
       </c>
       <c r="EN26" s="28">
         <f t="shared" ref="EN26" si="54">EM26*($F$2+1)</f>
-        <v>18921.622096253428</v>
+        <v>66227.306385547316</v>
       </c>
       <c r="EO26" s="28">
         <f t="shared" ref="EO26" si="55">EN26*($F$2+1)</f>
-        <v>18543.189654328358</v>
+        <v>65565.033321691837</v>
       </c>
       <c r="EP26" s="28">
         <f t="shared" ref="EP26" si="56">EO26*($F$2+1)</f>
-        <v>18172.325861241792</v>
+        <v>64909.382988474921</v>
       </c>
       <c r="EQ26" s="28">
         <f t="shared" ref="EQ26" si="57">EP26*($F$2+1)</f>
-        <v>17808.879344016957</v>
+        <v>64260.289158590174</v>
       </c>
       <c r="ER26" s="28">
         <f t="shared" ref="ER26" si="58">EQ26*($F$2+1)</f>
-        <v>17452.70175713662</v>
+        <v>63617.686267004276</v>
       </c>
       <c r="ES26" s="28">
         <f t="shared" ref="ES26" si="59">ER26*($F$2+1)</f>
-        <v>17103.647721993886</v>
+        <v>62981.509404334232</v>
       </c>
       <c r="ET26" s="28">
         <f t="shared" ref="ET26" si="60">ES26*($F$2+1)</f>
-        <v>16761.574767554008</v>
+        <v>62351.694310290892</v>
       </c>
       <c r="EU26" s="28">
         <f t="shared" ref="EU26" si="61">ET26*($F$2+1)</f>
-        <v>16426.343272202928</v>
+        <v>61728.177367187986</v>
       </c>
       <c r="EV26" s="28">
         <f t="shared" ref="EV26" si="62">EU26*($F$2+1)</f>
-        <v>16097.81640675887</v>
+        <v>61110.895593516107</v>
       </c>
       <c r="EW26" s="28">
         <f t="shared" ref="EW26" si="63">EV26*($F$2+1)</f>
-        <v>15775.860078623691</v>
+        <v>60499.786637580946</v>
       </c>
       <c r="EX26" s="28">
         <f t="shared" ref="EX26" si="64">EW26*($F$2+1)</f>
-        <v>15460.342877051216</v>
+        <v>59894.788771205138</v>
       </c>
       <c r="EY26" s="28">
         <f t="shared" ref="EY26" si="65">EX26*($F$2+1)</f>
-        <v>15151.136019510192</v>
+        <v>59295.840883493089</v>
       </c>
       <c r="EZ26" s="28">
         <f t="shared" ref="EZ26" si="66">EY26*($F$2+1)</f>
-        <v>14848.113299119987</v>
+        <v>58702.882474658159</v>
       </c>
       <c r="FA26" s="28">
         <f t="shared" ref="FA26" si="67">EZ26*($F$2+1)</f>
-        <v>14551.151033137587</v>
+        <v>58115.85364991158</v>
       </c>
       <c r="FB26" s="28">
         <f t="shared" ref="FB26" si="68">FA26*($F$2+1)</f>
-        <v>14260.128012474835</v>
+        <v>57534.695113412461</v>
       </c>
       <c r="FC26" s="28">
         <f t="shared" ref="FC26" si="69">FB26*($F$2+1)</f>
-        <v>13974.925452225338</v>
+        <v>56959.348162278337</v>
       </c>
       <c r="FD26" s="28">
         <f t="shared" ref="FD26" si="70">FC26*($F$2+1)</f>
-        <v>13695.426943180832</v>
+        <v>56389.754680655555</v>
       </c>
       <c r="FE26" s="28">
         <f t="shared" ref="FE26" si="71">FD26*($F$2+1)</f>
-        <v>13421.518404317214</v>
+        <v>55825.857133849</v>
       </c>
       <c r="FF26" s="28">
         <f t="shared" ref="FF26" si="72">FE26*($F$2+1)</f>
-        <v>13153.088036230869</v>
+        <v>55267.59856251051</v>
       </c>
       <c r="FG26" s="28">
         <f t="shared" ref="FG26" si="73">FF26*($F$2+1)</f>
-        <v>12890.026275506252</v>
+        <v>54714.922576885401</v>
       </c>
       <c r="FH26" s="28">
         <f t="shared" ref="FH26" si="74">FG26*($F$2+1)</f>
-        <v>12632.225749996127</v>
+        <v>54167.77335111655</v>
       </c>
       <c r="FI26" s="28">
         <f t="shared" ref="FI26" si="75">FH26*($F$2+1)</f>
-        <v>12379.581234996203</v>
+        <v>53626.095617605381</v>
       </c>
       <c r="FJ26" s="28">
         <f t="shared" ref="FJ26" si="76">FI26*($F$2+1)</f>
-        <v>12131.989610296279</v>
+        <v>53089.834661429326</v>
       </c>
       <c r="FK26" s="28">
         <f t="shared" ref="FK26" si="77">FJ26*($F$2+1)</f>
-        <v>11889.349818090353</v>
+        <v>52558.93631481503</v>
       </c>
       <c r="FL26" s="28">
         <f t="shared" ref="FL26" si="78">FK26*($F$2+1)</f>
-        <v>11651.562821728547</v>
+        <v>52033.346951666877</v>
       </c>
       <c r="FM26" s="28">
         <f t="shared" ref="FM26" si="79">FL26*($F$2+1)</f>
-        <v>11418.531565293975</v>
+        <v>51513.013482150207</v>
       </c>
       <c r="FN26" s="28">
         <f t="shared" ref="FN26" si="80">FM26*($F$2+1)</f>
-        <v>11190.160933988096</v>
+        <v>50997.883347328701</v>
       </c>
       <c r="FO26" s="28">
         <f t="shared" ref="FO26" si="81">FN26*($F$2+1)</f>
-        <v>10966.357715308333</v>
+        <v>50487.904513855414</v>
       </c>
       <c r="FP26" s="28">
         <f t="shared" ref="FP26" si="82">FO26*($F$2+1)</f>
-        <v>10747.030561002166</v>
+        <v>49983.025468716856</v>
       </c>
       <c r="FQ26" s="28">
         <f t="shared" ref="FQ26" si="83">FP26*($F$2+1)</f>
-        <v>10532.089949782123</v>
+        <v>49483.195214029685</v>
       </c>
       <c r="FR26" s="28">
         <f t="shared" ref="FR26" si="84">FQ26*($F$2+1)</f>
-        <v>10321.44815078648</v>
-      </c>
-    </row>
-    <row r="27" spans="1:174" s="68" customFormat="1" x14ac:dyDescent="0.15">
+        <v>48988.36326188939</v>
+      </c>
+      <c r="FS26" s="28">
+        <f t="shared" ref="FS26" si="85">FR26*($F$2+1)</f>
+        <v>48498.479629270492</v>
+      </c>
+      <c r="FT26" s="28">
+        <f t="shared" ref="FT26" si="86">FS26*($F$2+1)</f>
+        <v>48013.494832977784</v>
+      </c>
+      <c r="FU26" s="28">
+        <f t="shared" ref="FU26" si="87">FT26*($F$2+1)</f>
+        <v>47533.359884648002</v>
+      </c>
+      <c r="FV26" s="28">
+        <f t="shared" ref="FV26" si="88">FU26*($F$2+1)</f>
+        <v>47058.026285801519</v>
+      </c>
+      <c r="FW26" s="28">
+        <f t="shared" ref="FW26" si="89">FV26*($F$2+1)</f>
+        <v>46587.446022943506</v>
+      </c>
+      <c r="FX26" s="28">
+        <f t="shared" ref="FX26" si="90">FW26*($F$2+1)</f>
+        <v>46121.571562714074</v>
+      </c>
+      <c r="FY26" s="28">
+        <f t="shared" ref="FY26" si="91">FX26*($F$2+1)</f>
+        <v>45660.355847086932</v>
+      </c>
+      <c r="FZ26" s="28">
+        <f t="shared" ref="FZ26" si="92">FY26*($F$2+1)</f>
+        <v>45203.752288616066</v>
+      </c>
+      <c r="GA26" s="28">
+        <f t="shared" ref="GA26" si="93">FZ26*($F$2+1)</f>
+        <v>44751.714765729907</v>
+      </c>
+      <c r="GB26" s="28">
+        <f t="shared" ref="GB26" si="94">GA26*($F$2+1)</f>
+        <v>44304.197618072605</v>
+      </c>
+      <c r="GC26" s="28">
+        <f t="shared" ref="GC26" si="95">GB26*($F$2+1)</f>
+        <v>43861.155641891877</v>
+      </c>
+      <c r="GD26" s="28">
+        <f t="shared" ref="GD26" si="96">GC26*($F$2+1)</f>
+        <v>43422.54408547296</v>
+      </c>
+      <c r="GE26" s="28">
+        <f t="shared" ref="GE26" si="97">GD26*($F$2+1)</f>
+        <v>42988.31864461823</v>
+      </c>
+      <c r="GF26" s="28">
+        <f t="shared" ref="GF26" si="98">GE26*($F$2+1)</f>
+        <v>42558.435458172047</v>
+      </c>
+      <c r="GG26" s="28">
+        <f t="shared" ref="GG26" si="99">GF26*($F$2+1)</f>
+        <v>42132.851103590328</v>
+      </c>
+      <c r="GH26" s="28">
+        <f t="shared" ref="GH26" si="100">GG26*($F$2+1)</f>
+        <v>41711.522592554422</v>
+      </c>
+      <c r="GI26" s="28">
+        <f t="shared" ref="GI26" si="101">GH26*($F$2+1)</f>
+        <v>41294.407366628875</v>
+      </c>
+      <c r="GJ26" s="28">
+        <f t="shared" ref="GJ26" si="102">GI26*($F$2+1)</f>
+        <v>40881.463292962588</v>
+      </c>
+      <c r="GK26" s="28">
+        <f t="shared" ref="GK26" si="103">GJ26*($F$2+1)</f>
+        <v>40472.648660032959</v>
+      </c>
+      <c r="GL26" s="28">
+        <f t="shared" ref="GL26" si="104">GK26*($F$2+1)</f>
+        <v>40067.922173432627</v>
+      </c>
+      <c r="GM26" s="28">
+        <f t="shared" ref="GM26" si="105">GL26*($F$2+1)</f>
+        <v>39667.242951698303</v>
+      </c>
+      <c r="GN26" s="28">
+        <f t="shared" ref="GN26" si="106">GM26*($F$2+1)</f>
+        <v>39270.570522181319</v>
+      </c>
+      <c r="GO26" s="28">
+        <f t="shared" ref="GO26" si="107">GN26*($F$2+1)</f>
+        <v>38877.864816959504</v>
+      </c>
+      <c r="GP26" s="28">
+        <f t="shared" ref="GP26" si="108">GO26*($F$2+1)</f>
+        <v>38489.086168789909</v>
+      </c>
+      <c r="GQ26" s="28">
+        <f t="shared" ref="GQ26" si="109">GP26*($F$2+1)</f>
+        <v>38104.195307102011</v>
+      </c>
+      <c r="GR26" s="28">
+        <f t="shared" ref="GR26" si="110">GQ26*($F$2+1)</f>
+        <v>37723.15335403099</v>
+      </c>
+      <c r="GS26" s="28">
+        <f t="shared" ref="GS26" si="111">GR26*($F$2+1)</f>
+        <v>37345.921820490679</v>
+      </c>
+      <c r="GT26" s="28">
+        <f t="shared" ref="GT26" si="112">GS26*($F$2+1)</f>
+        <v>36972.46260228577</v>
+      </c>
+      <c r="GU26" s="28">
+        <f t="shared" ref="GU26" si="113">GT26*($F$2+1)</f>
+        <v>36602.737976262913</v>
+      </c>
+      <c r="GV26" s="28">
+        <f t="shared" ref="GV26" si="114">GU26*($F$2+1)</f>
+        <v>36236.710596500285</v>
+      </c>
+      <c r="GW26" s="28">
+        <f t="shared" ref="GW26" si="115">GV26*($F$2+1)</f>
+        <v>35874.343490535284</v>
+      </c>
+      <c r="GX26" s="28">
+        <f t="shared" ref="GX26" si="116">GW26*($F$2+1)</f>
+        <v>35515.600055629933</v>
+      </c>
+      <c r="GY26" s="28">
+        <f t="shared" ref="GY26" si="117">GX26*($F$2+1)</f>
+        <v>35160.444055073633</v>
+      </c>
+      <c r="GZ26" s="28">
+        <f t="shared" ref="GZ26" si="118">GY26*($F$2+1)</f>
+        <v>34808.839614522898</v>
+      </c>
+      <c r="HA26" s="28">
+        <f t="shared" ref="HA26" si="119">GZ26*($F$2+1)</f>
+        <v>34460.751218377671</v>
+      </c>
+      <c r="HB26" s="28">
+        <f t="shared" ref="HB26" si="120">HA26*($F$2+1)</f>
+        <v>34116.143706193892</v>
+      </c>
+      <c r="HC26" s="28">
+        <f t="shared" ref="HC26" si="121">HB26*($F$2+1)</f>
+        <v>33774.98226913195</v>
+      </c>
+      <c r="HD26" s="28">
+        <f t="shared" ref="HD26" si="122">HC26*($F$2+1)</f>
+        <v>33437.232446440627</v>
+      </c>
+      <c r="HE26" s="28">
+        <f t="shared" ref="HE26" si="123">HD26*($F$2+1)</f>
+        <v>33102.86012197622</v>
+      </c>
+      <c r="HF26" s="28">
+        <f t="shared" ref="HF26" si="124">HE26*($F$2+1)</f>
+        <v>32771.831520756459</v>
+      </c>
+      <c r="HG26" s="28">
+        <f t="shared" ref="HG26" si="125">HF26*($F$2+1)</f>
+        <v>32444.113205548896</v>
+      </c>
+      <c r="HH26" s="28">
+        <f t="shared" ref="HH26" si="126">HG26*($F$2+1)</f>
+        <v>32119.672073493406</v>
+      </c>
+      <c r="HI26" s="28">
+        <f t="shared" ref="HI26" si="127">HH26*($F$2+1)</f>
+        <v>31798.475352758473</v>
+      </c>
+      <c r="HJ26" s="28">
+        <f t="shared" ref="HJ26" si="128">HI26*($F$2+1)</f>
+        <v>31480.490599230889</v>
+      </c>
+      <c r="HK26" s="28">
+        <f t="shared" ref="HK26" si="129">HJ26*($F$2+1)</f>
+        <v>31165.685693238578</v>
+      </c>
+      <c r="HL26" s="28">
+        <f t="shared" ref="HL26" si="130">HK26*($F$2+1)</f>
+        <v>30854.028836306192</v>
+      </c>
+      <c r="HM26" s="28">
+        <f t="shared" ref="HM26" si="131">HL26*($F$2+1)</f>
+        <v>30545.488547943129</v>
+      </c>
+      <c r="HN26" s="28">
+        <f t="shared" ref="HN26" si="132">HM26*($F$2+1)</f>
+        <v>30240.033662463698</v>
+      </c>
+      <c r="HO26" s="28">
+        <f t="shared" ref="HO26" si="133">HN26*($F$2+1)</f>
+        <v>29937.633325839062</v>
+      </c>
+      <c r="HP26" s="28">
+        <f t="shared" ref="HP26" si="134">HO26*($F$2+1)</f>
+        <v>29638.256992580671</v>
+      </c>
+      <c r="HQ26" s="28">
+        <f t="shared" ref="HQ26" si="135">HP26*($F$2+1)</f>
+        <v>29341.874422654862</v>
+      </c>
+      <c r="HR26" s="28">
+        <f t="shared" ref="HR26" si="136">HQ26*($F$2+1)</f>
+        <v>29048.455678428312</v>
+      </c>
+      <c r="HS26" s="28">
+        <f t="shared" ref="HS26" si="137">HR26*($F$2+1)</f>
+        <v>28757.97112164403</v>
+      </c>
+      <c r="HT26" s="28">
+        <f t="shared" ref="HT26" si="138">HS26*($F$2+1)</f>
+        <v>28470.39141042759</v>
+      </c>
+      <c r="HU26" s="28">
+        <f t="shared" ref="HU26" si="139">HT26*($F$2+1)</f>
+        <v>28185.687496323313</v>
+      </c>
+      <c r="HV26" s="28">
+        <f t="shared" ref="HV26" si="140">HU26*($F$2+1)</f>
+        <v>27903.830621360081</v>
+      </c>
+      <c r="HW26" s="28">
+        <f t="shared" ref="HW26" si="141">HV26*($F$2+1)</f>
+        <v>27624.792315146478</v>
+      </c>
+      <c r="HX26" s="28">
+        <f t="shared" ref="HX26" si="142">HW26*($F$2+1)</f>
+        <v>27348.544391995012</v>
+      </c>
+      <c r="HY26" s="28">
+        <f t="shared" ref="HY26" si="143">HX26*($F$2+1)</f>
+        <v>27075.05894807506</v>
+      </c>
+      <c r="HZ26" s="28">
+        <f t="shared" ref="HZ26" si="144">HY26*($F$2+1)</f>
+        <v>26804.30835859431</v>
+      </c>
+      <c r="IA26" s="28">
+        <f t="shared" ref="IA26" si="145">HZ26*($F$2+1)</f>
+        <v>26536.265275008365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:235" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="68" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="69">
-        <f t="shared" ref="B27:G27" si="85">B26/B28</f>
+        <f t="shared" ref="B27:G27" si="146">B26/B28</f>
         <v>2.7544969606748544</v>
       </c>
       <c r="C27" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="146"/>
         <v>2.2204565518980957</v>
       </c>
       <c r="D27" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="146"/>
         <v>3.2653087368690752</v>
       </c>
       <c r="E27" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="146"/>
         <v>3.9131861149952636</v>
       </c>
       <c r="F27" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="146"/>
         <v>5.0763260025873223</v>
       </c>
       <c r="G27" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="146"/>
         <v>19.946396396396395</v>
       </c>
       <c r="H27" s="21">
-        <f t="shared" ref="H27:Q27" si="86">H26/H28</f>
-        <v>23.43344026550324</v>
+        <f t="shared" ref="H27:Q27" si="147">H26/H28</f>
+        <v>25.248951350682045</v>
       </c>
       <c r="I27" s="21">
-        <f t="shared" si="86"/>
-        <v>27.316912361210406</v>
+        <f t="shared" si="147"/>
+        <v>29.3153568202084</v>
       </c>
       <c r="J27" s="21">
-        <f t="shared" si="86"/>
-        <v>32.307605686167001</v>
+        <f t="shared" si="147"/>
+        <v>34.268403384717061</v>
       </c>
       <c r="K27" s="21">
-        <f t="shared" si="86"/>
-        <v>38.672173259361891</v>
+        <f t="shared" si="147"/>
+        <v>40.281304898189283</v>
       </c>
       <c r="L27" s="21">
-        <f t="shared" si="86"/>
-        <v>46.743628217777186</v>
+        <f t="shared" si="147"/>
+        <v>47.560520704335239</v>
       </c>
       <c r="M27" s="21">
-        <f t="shared" si="86"/>
-        <v>50.896937273548545</v>
+        <f t="shared" si="147"/>
+        <v>51.762285254556659</v>
       </c>
       <c r="N27" s="21">
-        <f t="shared" si="86"/>
-        <v>55.280031045095889</v>
+        <f t="shared" si="147"/>
+        <v>56.196386680068656</v>
       </c>
       <c r="O27" s="21">
-        <f t="shared" si="86"/>
-        <v>59.905235061165513</v>
+        <f t="shared" si="147"/>
+        <v>60.875280317134717</v>
       </c>
       <c r="P27" s="21">
-        <f t="shared" si="86"/>
-        <v>64.78550184195845</v>
+        <f t="shared" si="147"/>
+        <v>65.812055021241093</v>
       </c>
       <c r="Q27" s="21">
-        <f t="shared" si="86"/>
-        <v>69.934442614964766</v>
+        <f t="shared" si="147"/>
+        <v>71.020465209955304</v>
       </c>
       <c r="R27" s="21">
-        <f t="shared" ref="R27:V27" si="87">R26/R28</f>
-        <v>75.366360621415197</v>
+        <f t="shared" ref="R27:V27" si="148">R26/R28</f>
+        <v>76.51496451276364</v>
       </c>
       <c r="S27" s="21">
-        <f t="shared" si="87"/>
-        <v>81.096286093036582</v>
+        <f t="shared" si="148"/>
+        <v>82.310741108393188</v>
       </c>
       <c r="T27" s="21">
-        <f t="shared" si="87"/>
-        <v>87.140012982784384</v>
+        <f t="shared" si="148"/>
+        <v>88.42375483415006</v>
       </c>
       <c r="U27" s="21">
-        <f t="shared" si="87"/>
-        <v>93.514137537410619</v>
+        <f t="shared" si="148"/>
+        <v>94.870776156034893</v>
       </c>
       <c r="V27" s="21">
-        <f t="shared" si="87"/>
-        <v>100.23609880412153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:174" x14ac:dyDescent="0.15">
+        <f t="shared" si="148"/>
+        <v>101.6694270928371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -3383,67 +3621,67 @@
         <v>2220</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28:V28" si="88">G28</f>
+        <f t="shared" ref="H28:V28" si="149">G28</f>
         <v>2220</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="149"/>
         <v>2220</v>
       </c>
     </row>
-    <row r="29" spans="1:174" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:235" x14ac:dyDescent="0.15">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -3466,270 +3704,270 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="1:174" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="11">
-        <f t="shared" ref="B30:Q30" si="89">B17/B15</f>
+        <f t="shared" ref="B30:Q30" si="150">B17/B15</f>
         <v>0.64695447745244705</v>
       </c>
       <c r="C30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.61579934364744493</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.64522475691460168</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.65247372236317502</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.65901957200638894</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="L30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="N30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="O30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="P30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="Q30" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="150"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="R30" s="11">
-        <f t="shared" ref="R30:V30" si="90">R17/R15</f>
+        <f t="shared" ref="R30:V30" si="151">R17/R15</f>
         <v>0.67781001992797962</v>
       </c>
       <c r="S30" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="151"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="T30" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="151"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="U30" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="151"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="V30" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="151"/>
         <v>0.67781001992797962</v>
       </c>
     </row>
-    <row r="31" spans="1:174" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="12">
-        <f t="shared" ref="B31:Q31" si="91">B22/B15</f>
+        <f t="shared" ref="B31:Q31" si="152">B22/B15</f>
         <v>0.30104723231459712</v>
       </c>
       <c r="C31" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="152"/>
         <v>0.24955461790904829</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="152"/>
         <v>0.30055606755651282</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="152"/>
         <v>0.31766944545125048</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="152"/>
         <v>0.3413698020549415</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="152"/>
         <v>0.37030381428521486</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="91"/>
-        <v>0.38046390061155827</v>
+        <f t="shared" si="152"/>
+        <v>0.39312210507892797</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="91"/>
-        <v>0.39348447858542013</v>
+        <f t="shared" si="152"/>
+        <v>0.40527409375866236</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="91"/>
-        <v>0.40884567729483573</v>
+        <f t="shared" si="152"/>
+        <v>0.41843566155689754</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="91"/>
-        <v>0.42594958149745965</v>
+        <f t="shared" si="152"/>
+        <v>0.43229372695231788</v>
       </c>
       <c r="L31" s="12">
-        <f t="shared" si="91"/>
-        <v>0.44417726906349075</v>
+        <f t="shared" si="152"/>
+        <v>0.44654988602004636</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="91"/>
-        <v>0.45519991011358091</v>
+        <f t="shared" si="152"/>
+        <v>0.45746058854711397</v>
       </c>
       <c r="N31" s="12">
-        <f t="shared" si="91"/>
-        <v>0.46561779058911862</v>
+        <f t="shared" si="152"/>
+        <v>0.46777267204095202</v>
       </c>
       <c r="O31" s="12">
-        <f t="shared" si="91"/>
-        <v>0.47546751122853725</v>
+        <f t="shared" si="152"/>
+        <v>0.47752236554753114</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="91"/>
-        <v>0.48478333891056152</v>
+        <f t="shared" si="152"/>
+        <v>0.48674358795422074</v>
       </c>
       <c r="Q31" s="12">
-        <f t="shared" si="91"/>
-        <v>0.49359735921086806</v>
+        <f t="shared" si="152"/>
+        <v>0.49546809899718841</v>
       </c>
       <c r="R31" s="12">
-        <f t="shared" ref="R31:V31" si="92">R22/R15</f>
-        <v>0.50193961887498817</v>
+        <f t="shared" ref="R31:V31" si="153">R22/R15</f>
+        <v>0.50372564028744249</v>
       </c>
       <c r="S31" s="12">
-        <f t="shared" si="92"/>
-        <v>0.50983825887722467</v>
+        <f t="shared" si="153"/>
+        <v>0.51154406701849287</v>
       </c>
       <c r="T31" s="12">
-        <f t="shared" si="92"/>
-        <v>0.51731963869077768</v>
+        <f t="shared" si="153"/>
+        <v>0.51894947097447297</v>
       </c>
       <c r="U31" s="12">
-        <f t="shared" si="92"/>
-        <v>0.52440845235266043</v>
+        <f t="shared" si="153"/>
+        <v>0.52596629541637774</v>
       </c>
       <c r="V31" s="12">
-        <f t="shared" si="92"/>
-        <v>0.53112783686814902</v>
-      </c>
-    </row>
-    <row r="32" spans="1:174" x14ac:dyDescent="0.15">
+        <f t="shared" si="153"/>
+        <v>0.53261744238563147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:235" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="12">
-        <f t="shared" ref="B32:Q32" si="93">B25/B24</f>
+        <f t="shared" ref="B32:Q32" si="154">B25/B24</f>
         <v>0.22140402552773686</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.15603278845692919</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.14755359352530015</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.1658435585872628</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.10181285478850027</v>
       </c>
       <c r="G32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.16507655177615205</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.15</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.15</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.15</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.15</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.15</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.15</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.15</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.15</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.15</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="154"/>
         <v>0.15</v>
       </c>
       <c r="R32" s="12">
-        <f t="shared" ref="R32:V32" si="94">R25/R24</f>
+        <f t="shared" ref="R32:V32" si="155">R25/R24</f>
         <v>0.15</v>
       </c>
       <c r="S32" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="155"/>
         <v>0.15</v>
       </c>
       <c r="T32" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="155"/>
         <v>0.15</v>
       </c>
       <c r="U32" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="155"/>
         <v>0.15</v>
       </c>
       <c r="V32" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="155"/>
         <v>0.15</v>
       </c>
     </row>
@@ -3743,19 +3981,19 @@
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="20">
-        <f t="shared" ref="C34:V34" si="95">C15/B15-1</f>
+        <f t="shared" ref="C34:V34" si="156">C15/B15-1</f>
         <v>-8.8266723658901425E-2</v>
       </c>
       <c r="D34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>0.1318682606657291</v>
       </c>
       <c r="E34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>0.14278613662486661</v>
       </c>
       <c r="F34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>0.14029539688292858</v>
       </c>
       <c r="G34" s="20">
@@ -3764,62 +4002,62 @@
       </c>
       <c r="H34" s="20">
         <f>H15/G15-1</f>
-        <v>0.10012061671852601</v>
+        <v>0.14903576547914543</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" si="95"/>
-        <v>0.11393761669063385</v>
+        <f t="shared" si="156"/>
+        <v>0.11265299534136775</v>
       </c>
       <c r="J34" s="20">
-        <f t="shared" si="95"/>
-        <v>0.12740957779680251</v>
+        <f t="shared" si="156"/>
+        <v>0.12061717311525544</v>
       </c>
       <c r="K34" s="20">
-        <f t="shared" si="95"/>
-        <v>0.14030748087206724</v>
+        <f t="shared" si="156"/>
+        <v>0.12806452516461131</v>
       </c>
       <c r="L34" s="20">
-        <f t="shared" si="95"/>
-        <v>0.15244722409175582</v>
+        <f t="shared" si="156"/>
+        <v>0.13494380590137478</v>
       </c>
       <c r="M34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="N34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="O34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="R34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V34" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -3833,79 +4071,79 @@
         <v>-4.814876307488003E-3</v>
       </c>
       <c r="D35" s="11">
-        <f t="shared" ref="D35:V35" si="96">D18/C18-1</f>
+        <f t="shared" ref="D35:V35" si="157">D18/C18-1</f>
         <v>8.7504170837504169E-2</v>
       </c>
       <c r="E35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>0.12955434532484467</v>
       </c>
       <c r="F35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>0.14600027162841234</v>
       </c>
       <c r="G35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>0.14179900450343674</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="I35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="J35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="K35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="N35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="O35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Q35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="S35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="U35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V35" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="157"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -3914,83 +4152,83 @@
         <v>88</v>
       </c>
       <c r="C36" s="11">
-        <f t="shared" ref="C36:V37" si="97">C19/B19-1</f>
+        <f t="shared" ref="C36:V37" si="158">C19/B19-1</f>
         <v>-6.4659835804747656E-2</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>5.1983397972375389E-2</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>0.12987516978203217</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>4.2589730379529511E-2</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>7.604458353923027E-2</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="I36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000129E-2</v>
       </c>
     </row>
@@ -3999,83 +4237,83 @@
         <v>89</v>
       </c>
       <c r="C37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-1.0409889394925154E-2</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>4.9090510628972073E-2</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-6.8936703572174407E-3</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>2.7555742532604066E-2</v>
       </c>
       <c r="G37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>4.6264073694984642E-2</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="I37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="J37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="M37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="P37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="Q37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="R37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="U37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V37" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="158"/>
         <v>-2.0000000000000018E-2</v>
       </c>
     </row>
@@ -4088,79 +4326,79 @@
         <v>-3.466172381835031E-2</v>
       </c>
       <c r="D38" s="71">
-        <f t="shared" ref="D38:V38" si="98">D21/C21-1</f>
+        <f t="shared" ref="D38:V38" si="159">D21/C21-1</f>
         <v>6.518817204301075E-2</v>
       </c>
       <c r="E38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>0.11007961544239153</v>
       </c>
       <c r="F38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>8.1869604048824041E-2</v>
       </c>
       <c r="G38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>0.10016510731975781</v>
       </c>
       <c r="H38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>6.3772340715812392E-2</v>
       </c>
       <c r="I38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>6.5159069893109711E-2</v>
       </c>
       <c r="J38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>6.6499247793879723E-2</v>
       </c>
       <c r="K38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>6.7793370921910956E-2</v>
       </c>
       <c r="L38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>6.9042112641990228E-2</v>
       </c>
       <c r="M38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>4.6168373325539136E-4</v>
       </c>
       <c r="N38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>8.6128609147717583E-4</v>
       </c>
       <c r="O38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>1.2602006981434766E-3</v>
       </c>
       <c r="P38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>1.65811114532044E-3</v>
       </c>
       <c r="Q38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>2.0547042173573171E-3</v>
       </c>
       <c r="R38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>2.4496708682932855E-3</v>
       </c>
       <c r="S38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>2.8427071713483798E-3</v>
       </c>
       <c r="T38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>3.2335152344029616E-3</v>
       </c>
       <c r="U38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>3.6218040757478587E-3</v>
       </c>
       <c r="V38" s="71">
-        <f t="shared" si="98"/>
+        <f t="shared" si="159"/>
         <v>4.0072904548458244E-3</v>
       </c>
     </row>
@@ -4191,64 +4429,64 @@
         <v>67141</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40:V40" si="99">G40+H26</f>
-        <v>119163.23738941719</v>
+        <f t="shared" ref="H40:V40" si="160">G40+H26</f>
+        <v>123193.67199851414</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="99"/>
-        <v>179806.7828313043</v>
+        <f t="shared" si="160"/>
+        <v>188273.76413937678</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" si="99"/>
-        <v>251529.66745459504</v>
+        <f t="shared" si="160"/>
+        <v>264349.6196534487</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="99"/>
-        <v>337381.89209037845</v>
+        <f t="shared" si="160"/>
+        <v>353774.11652742891</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="99"/>
-        <v>441152.74673384381</v>
+        <f t="shared" si="160"/>
+        <v>459358.47249105317</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="99"/>
-        <v>554143.94748112164</v>
+        <f t="shared" si="160"/>
+        <v>574270.74575616897</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="99"/>
-        <v>676865.61640123453</v>
+        <f t="shared" si="160"/>
+        <v>699026.72418592137</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="99"/>
-        <v>809855.23823702196</v>
+        <f t="shared" si="160"/>
+        <v>834169.84648996044</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" si="99"/>
-        <v>953679.05232616968</v>
+        <f t="shared" si="160"/>
+        <v>980272.60863711569</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" si="99"/>
-        <v>1108933.5149313915</v>
+        <f t="shared" si="160"/>
+        <v>1137938.0414032165</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" si="99"/>
-        <v>1276246.8355109333</v>
+        <f t="shared" si="160"/>
+        <v>1307801.2626215518</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="99"/>
-        <v>1456280.5906374746</v>
+        <f t="shared" si="160"/>
+        <v>1490531.1078821847</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="99"/>
-        <v>1649731.4194592559</v>
+        <f t="shared" si="160"/>
+        <v>1686831.8436139978</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="99"/>
-        <v>1857332.8047923076</v>
+        <f t="shared" si="160"/>
+        <v>1897444.9666803952</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="99"/>
-        <v>2079856.9441374573</v>
+        <f t="shared" si="160"/>
+        <v>2123151.0948264934</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
@@ -4377,7 +4615,7 @@
         <v>92698</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>77</v>
       </c>
@@ -4398,7 +4636,7 @@
         <v>106061</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="31" t="s">
         <v>78</v>
       </c>
@@ -4419,7 +4657,7 @@
         <v>0.41750502069563744</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
         <v>79</v>
       </c>
@@ -4440,7 +4678,7 @@
         <v>0.15873886469143769</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="31" t="s">
         <v>80</v>
       </c>
@@ -4461,7 +4699,7 @@
         <v>0.78456768249468467</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="31" t="s">
         <v>81</v>
       </c>
@@ -4482,277 +4720,146 @@
         <v>0.47769099656950526</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="31"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="10">
-        <f>(D44/D28)/$C$2</f>
-        <v>2.7976845059570491E-2</v>
-      </c>
-      <c r="E56" s="10">
-        <f>(E44/E28)/$C$2</f>
-        <v>2.7161801077814747E-2</v>
-      </c>
-      <c r="F56" s="10">
-        <f>(F44/F28)/$C$2</f>
-        <v>3.1092840638572587E-2</v>
-      </c>
-      <c r="G56" s="10">
-        <f>(G44/G28)/$C$2</f>
-        <v>0.10792757992178563</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="52">
-        <f>B26/B18-1</f>
-        <v>0.84326747468039187</v>
-      </c>
-      <c r="C58" s="52">
-        <f>C26/C18-1</f>
-        <v>0.46863530196863534</v>
-      </c>
-      <c r="D58" s="52">
-        <f t="shared" ref="D58" si="100">D26/D18-1</f>
-        <v>0.95512771343100411</v>
-      </c>
-      <c r="E58" s="52">
-        <f>E26/E18-1</f>
-        <v>1.06607510824991</v>
-      </c>
-      <c r="F58" s="52">
-        <f>F26/F18-1</f>
-        <v>1.325195543967765</v>
-      </c>
-      <c r="G58" s="52">
-        <f>G26/G18-1</f>
-        <v>1.2980434895427888</v>
-      </c>
-      <c r="H58" s="52">
-        <f t="shared" ref="H58:J58" si="101">H26/H18-1</f>
-        <v>1.454353784902608</v>
-      </c>
-      <c r="I58" s="52">
-        <f t="shared" si="101"/>
-        <v>1.6009981107790181</v>
-      </c>
-      <c r="J58" s="52">
-        <f t="shared" si="101"/>
-        <v>1.796536653735767</v>
-      </c>
-      <c r="K58" s="52">
-        <f>K26/K18-1</f>
-        <v>2.0431379209748632</v>
-      </c>
-      <c r="L58" s="52">
-        <f>L26/L18-1</f>
-        <v>2.3438962250350177</v>
-      </c>
-      <c r="M58" s="74" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A59" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="73" t="str">
-        <f>ROUND($C$4/B18,0)&amp;"x"</f>
-        <v>132x</v>
-      </c>
-      <c r="C59" s="73" t="str">
-        <f t="shared" ref="C59:F59" si="102">ROUND($C$4/C18,0)&amp;"x"</f>
-        <v>132x</v>
-      </c>
-      <c r="D59" s="73" t="str">
-        <f t="shared" si="102"/>
-        <v>122x</v>
-      </c>
-      <c r="E59" s="73" t="str">
-        <f t="shared" si="102"/>
-        <v>108x</v>
-      </c>
-      <c r="F59" s="73" t="str">
-        <f t="shared" si="102"/>
-        <v>94x</v>
-      </c>
-      <c r="G59" s="73" t="str">
-        <f t="shared" ref="G59:J59" si="103">ROUND($C$4/G18,0)&amp;"x"</f>
-        <v>82x</v>
-      </c>
-      <c r="H59" s="73" t="str">
-        <f t="shared" si="103"/>
-        <v>75x</v>
-      </c>
-      <c r="I59" s="73" t="str">
-        <f t="shared" si="103"/>
-        <v>68x</v>
-      </c>
-      <c r="J59" s="73" t="str">
-        <f t="shared" si="103"/>
-        <v>62x</v>
-      </c>
-      <c r="K59" s="73" t="str">
-        <f>ROUND($C$4/K18,0)&amp;"x"</f>
-        <v>56x</v>
-      </c>
-      <c r="L59" s="73" t="str">
-        <f>ROUND($C$4/L18,0)&amp;"x"</f>
-        <v>51x</v>
-      </c>
-      <c r="M59" s="74" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C56" s="10">
         <f>C10/B10-1</f>
         <v>2.1188043889519559E-3</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D56" s="10">
         <f>D10/C10-1</f>
         <v>0.12776561202144521</v>
       </c>
-      <c r="E61" s="10">
-        <f t="shared" ref="E61:L61" si="104">E10/D10-1</f>
+      <c r="E56" s="10">
+        <f t="shared" ref="E56:L56" si="161">E10/D10-1</f>
         <v>0.20070304653498483</v>
       </c>
-      <c r="F61" s="10">
-        <f t="shared" si="104"/>
+      <c r="F56" s="10">
+        <f t="shared" si="161"/>
         <v>0.14763697197825176</v>
       </c>
-      <c r="G61" s="10">
-        <f t="shared" si="104"/>
+      <c r="G56" s="10">
+        <f t="shared" si="161"/>
         <v>0.12725947521865888</v>
       </c>
-      <c r="H61" s="10">
-        <f t="shared" si="104"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="I61" s="10">
-        <f t="shared" si="104"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="J61" s="10">
-        <f t="shared" si="104"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="K61" s="10">
-        <f t="shared" si="104"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="L61" s="10">
-        <f t="shared" si="104"/>
-        <v>0.10000000000000009</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+      <c r="H56" s="10">
+        <f t="shared" si="161"/>
+        <v>0.13563623432044492</v>
+      </c>
+      <c r="I56" s="10">
+        <f t="shared" si="161"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="J56" s="10">
+        <f t="shared" si="161"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="K56" s="10">
+        <f t="shared" si="161"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="L56" s="10">
+        <f t="shared" si="161"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="10">
-        <f t="shared" ref="C62:D63" si="105">C11/B11-1</f>
+      <c r="C57" s="10">
+        <f t="shared" ref="C57:D58" si="162">C11/B11-1</f>
         <v>5.5956145899219933E-2</v>
       </c>
-      <c r="D62" s="10">
-        <f t="shared" si="105"/>
+      <c r="D57" s="10">
+        <f t="shared" si="162"/>
         <v>9.4441338551233933E-2</v>
       </c>
-      <c r="E62" s="10">
-        <f t="shared" ref="E62:L62" si="106">E11/D11-1</f>
+      <c r="E57" s="10">
+        <f t="shared" ref="E57:L57" si="163">E11/D11-1</f>
         <v>0.17557558288028607</v>
       </c>
-      <c r="F62" s="10">
-        <f t="shared" si="106"/>
+      <c r="F57" s="10">
+        <f t="shared" si="163"/>
         <v>0.2100003103758652</v>
       </c>
-      <c r="G62" s="10">
-        <f t="shared" si="106"/>
+      <c r="G57" s="10">
+        <f t="shared" si="163"/>
         <v>0.24063101192766445</v>
       </c>
-      <c r="H62" s="10">
-        <f t="shared" si="106"/>
-        <v>0.25</v>
-      </c>
-      <c r="I62" s="10">
-        <f t="shared" si="106"/>
-        <v>0.25</v>
-      </c>
-      <c r="J62" s="10">
-        <f t="shared" si="106"/>
-        <v>0.25</v>
-      </c>
-      <c r="K62" s="10">
-        <f t="shared" si="106"/>
-        <v>0.25</v>
-      </c>
-      <c r="L62" s="10">
-        <f t="shared" si="106"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+      <c r="H57" s="10">
+        <f t="shared" si="163"/>
+        <v>0.2068271099532728</v>
+      </c>
+      <c r="I57" s="10">
+        <f t="shared" si="163"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J57" s="10">
+        <f t="shared" si="163"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" si="163"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="L57" s="10">
+        <f t="shared" si="163"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="10">
-        <f t="shared" si="105"/>
+      <c r="C58" s="10">
+        <f t="shared" si="162"/>
         <v>-6.1511708787386987E-2</v>
       </c>
-      <c r="D63" s="10">
-        <f t="shared" si="105"/>
+      <c r="D58" s="10">
+        <f t="shared" si="162"/>
         <v>-2.922647429404357E-2</v>
       </c>
-      <c r="E63" s="10">
-        <f t="shared" ref="E63:L63" si="107">E12/D12-1</f>
+      <c r="E58" s="10">
+        <f t="shared" ref="E58:L58" si="164">E12/D12-1</f>
         <v>7.5889448770804613E-2</v>
       </c>
-      <c r="F63" s="10">
-        <f t="shared" si="107"/>
+      <c r="F58" s="10">
+        <f t="shared" si="164"/>
         <v>8.0944270981171407E-2</v>
       </c>
-      <c r="G63" s="10">
-        <f t="shared" si="107"/>
+      <c r="G58" s="10">
+        <f t="shared" si="164"/>
         <v>5.5866777539498536E-2</v>
       </c>
-      <c r="H63" s="10">
-        <f t="shared" si="107"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="I63" s="10">
-        <f t="shared" si="107"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="J63" s="10">
-        <f t="shared" si="107"/>
-        <v>-5.0000000000000155E-2</v>
-      </c>
-      <c r="K63" s="10">
-        <f t="shared" si="107"/>
-        <v>-4.9999999999999933E-2</v>
-      </c>
-      <c r="L63" s="10">
-        <f t="shared" si="107"/>
-        <v>-5.0000000000000044E-2</v>
+      <c r="H58" s="10">
+        <f t="shared" si="164"/>
+        <v>0.10399162711653642</v>
+      </c>
+      <c r="I58" s="10">
+        <f t="shared" si="164"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="J58" s="10">
+        <f t="shared" si="164"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="K58" s="10">
+        <f t="shared" si="164"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="L58" s="10">
+        <f t="shared" si="164"/>
+        <v>-2.0000000000000129E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4770,13 +4877,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y127"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA28" sqref="AA28"/>
+      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4792,10 +4899,12 @@
     <col min="18" max="18" width="10.83203125" style="38"/>
     <col min="19" max="21" width="10.83203125" style="61"/>
     <col min="22" max="22" width="10.83203125" style="5"/>
-    <col min="23" max="16384" width="10.83203125" style="2"/>
+    <col min="23" max="25" width="10.83203125" style="2"/>
+    <col min="26" max="26" width="10.83203125" style="5"/>
+    <col min="27" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -4871,8 +4980,14 @@
       <c r="Y1" s="61" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z1" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="35" t="s">
         <v>42</v>
@@ -4934,20 +5049,26 @@
       <c r="U2" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="V2" s="80">
+      <c r="V2" s="78">
         <v>43738</v>
       </c>
-      <c r="W2" s="75">
+      <c r="W2" s="73">
         <v>43830</v>
       </c>
-      <c r="X2" s="75">
+      <c r="X2" s="73">
         <v>43921</v>
       </c>
-      <c r="Y2" s="75">
+      <c r="Y2" s="73">
         <v>44012</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z2" s="87">
+        <v>44104</v>
+      </c>
+      <c r="AA2" s="85">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -5023,8 +5144,22 @@
       <c r="Y3" s="3">
         <v>11752</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z3" s="88">
+        <v>12319</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>13353</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>X3*1.15</f>
+        <v>13504.449999999999</v>
+      </c>
+      <c r="AC3" s="3">
+        <f>Y3*1.15</f>
+        <v>13514.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
@@ -5100,8 +5235,22 @@
       <c r="Y4" s="3">
         <v>13371</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z4" s="88">
+        <v>12986</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>14601</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>X4*1.2</f>
+        <v>14737.199999999999</v>
+      </c>
+      <c r="AC4" s="3">
+        <f>Y4*1.2</f>
+        <v>16045.199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>86</v>
       </c>
@@ -5177,8 +5326,22 @@
       <c r="Y5" s="3">
         <v>12910</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z5" s="88">
+        <v>11849</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>15122</v>
+      </c>
+      <c r="AB5" s="3">
+        <f>X5*1.1</f>
+        <v>12096.7</v>
+      </c>
+      <c r="AC5" s="3">
+        <f>Y5*1.1</f>
+        <v>14201.000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -5219,8 +5382,9 @@
       <c r="T6" s="67"/>
       <c r="U6" s="67"/>
       <c r="V6" s="36"/>
-    </row>
-    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z6" s="88"/>
+    </row>
+    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
@@ -5242,8 +5406,9 @@
       <c r="T7" s="67"/>
       <c r="U7" s="67"/>
       <c r="V7" s="36"/>
-    </row>
-    <row r="8" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z7" s="88"/>
+    </row>
+    <row r="8" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -5312,7 +5477,7 @@
         <v>30085</v>
       </c>
       <c r="R8" s="41">
-        <f t="shared" ref="R8:Y8" si="5">SUM(R3:R6)</f>
+        <f t="shared" ref="R8:Z8" si="5">SUM(R3:R6)</f>
         <v>29084</v>
       </c>
       <c r="S8" s="42">
@@ -5340,11 +5505,27 @@
         <v>35021</v>
       </c>
       <c r="Y8" s="42">
-        <f t="shared" si="5"/>
+        <f>SUM(Y3:Y6)</f>
         <v>38033</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z8" s="41">
+        <f>SUM(Z3:Z6)</f>
+        <v>37154</v>
+      </c>
+      <c r="AA8" s="42">
+        <f>SUM(AA3:AA6)</f>
+        <v>43076</v>
+      </c>
+      <c r="AB8" s="42">
+        <f>SUM(AB3:AB6)</f>
+        <v>40338.35</v>
+      </c>
+      <c r="AC8" s="42">
+        <f>SUM(AC3:AC6)</f>
+        <v>43761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -5420,8 +5601,14 @@
       <c r="Y9" s="3">
         <v>12339</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z9" s="88">
+        <v>11002</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>14194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -5490,7 +5677,7 @@
         <v>20343</v>
       </c>
       <c r="R10" s="45">
-        <f t="shared" ref="R10:Y10" si="7">R8-R9</f>
+        <f t="shared" ref="R10:AA10" si="7">R8-R9</f>
         <v>19179</v>
       </c>
       <c r="S10" s="46">
@@ -5521,8 +5708,16 @@
         <f t="shared" si="7"/>
         <v>25694</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z10" s="45">
+        <f t="shared" si="7"/>
+        <v>26152</v>
+      </c>
+      <c r="AA10" s="46">
+        <f t="shared" si="7"/>
+        <v>28882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -5598,8 +5793,14 @@
       <c r="Y11" s="3">
         <v>5214</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z11" s="88">
+        <v>4926</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5675,8 +5876,14 @@
       <c r="Y12" s="3">
         <v>5417</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z12" s="88">
+        <v>4231</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>4947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -5753,8 +5960,14 @@
       <c r="Y13" s="3">
         <v>1656</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z13" s="88">
+        <v>1119</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -5854,109 +6067,125 @@
         <f t="shared" si="12"/>
         <v>12287</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z14" s="45">
+        <f t="shared" ref="Z14:AA14" si="13">SUM(Z11:Z13)</f>
+        <v>10276</v>
+      </c>
+      <c r="AA14" s="46">
+        <f t="shared" si="13"/>
+        <v>10985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="44">
-        <f t="shared" ref="B15:H15" si="13">B10-B14</f>
+        <f t="shared" ref="B15:H15" si="14">B10-B14</f>
         <v>6984</v>
       </c>
       <c r="C15" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8019</v>
       </c>
       <c r="D15" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6784</v>
       </c>
       <c r="E15" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6385</v>
       </c>
       <c r="F15" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5793</v>
       </c>
       <c r="G15" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6026</v>
       </c>
       <c r="H15" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5283</v>
       </c>
       <c r="I15" s="46">
-        <f t="shared" ref="I15:M15" si="14">I10-I14</f>
+        <f t="shared" ref="I15:M15" si="15">I10-I14</f>
         <v>4190</v>
       </c>
       <c r="J15" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6715</v>
       </c>
       <c r="K15" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7905</v>
       </c>
       <c r="L15" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6723</v>
       </c>
       <c r="M15" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7682</v>
       </c>
       <c r="N15" s="45">
-        <f t="shared" ref="N15:O15" si="15">N10-N14</f>
+        <f t="shared" ref="N15:O15" si="16">N10-N14</f>
         <v>7708</v>
       </c>
       <c r="O15" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8679</v>
       </c>
       <c r="P15" s="46">
-        <f t="shared" ref="P15:Q15" si="16">P10-P14</f>
+        <f t="shared" ref="P15:Q15" si="17">P10-P14</f>
         <v>8292</v>
       </c>
       <c r="Q15" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10379</v>
       </c>
       <c r="R15" s="45">
-        <f t="shared" ref="R15" si="17">R10-R14</f>
+        <f t="shared" ref="R15" si="18">R10-R14</f>
         <v>9955</v>
       </c>
       <c r="S15" s="46">
-        <f t="shared" ref="S15:T15" si="18">S10-S14</f>
+        <f t="shared" ref="S15:T15" si="19">S10-S14</f>
         <v>10258</v>
       </c>
       <c r="T15" s="46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10341</v>
       </c>
       <c r="U15" s="46">
-        <f t="shared" ref="U15:V15" si="19">U10-U14</f>
+        <f t="shared" ref="U15:V15" si="20">U10-U14</f>
         <v>12405</v>
       </c>
       <c r="V15" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12686</v>
       </c>
       <c r="W15" s="46">
-        <f t="shared" ref="W15:X15" si="20">W10-W14</f>
+        <f t="shared" ref="W15:X15" si="21">W10-W14</f>
         <v>13891</v>
       </c>
       <c r="X15" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12975</v>
       </c>
       <c r="Y15" s="46">
-        <f t="shared" ref="Y15" si="21">Y10-Y14</f>
+        <f t="shared" ref="Y15:AA15" si="22">Y10-Y14</f>
         <v>13407</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z15" s="45">
+        <f t="shared" si="22"/>
+        <v>15876</v>
+      </c>
+      <c r="AA15" s="46">
+        <f t="shared" si="22"/>
+        <v>17897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -6032,8 +6261,14 @@
       <c r="Y16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z16" s="88">
+        <v>248</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -6069,15 +6304,15 @@
         <v>4457</v>
       </c>
       <c r="J17" s="45">
-        <f t="shared" ref="J17:L17" si="22">J15+J16</f>
+        <f t="shared" ref="J17:L17" si="23">J15+J16</f>
         <v>6827</v>
       </c>
       <c r="K17" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8022</v>
       </c>
       <c r="L17" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7094</v>
       </c>
       <c r="M17" s="46">
@@ -6089,51 +6324,59 @@
         <v>7984</v>
       </c>
       <c r="O17" s="46">
-        <f t="shared" ref="O17" si="23">O15+O16</f>
+        <f t="shared" ref="O17" si="24">O15+O16</f>
         <v>9169</v>
       </c>
       <c r="P17" s="46">
-        <f t="shared" ref="P17:Q17" si="24">P15+P16</f>
+        <f t="shared" ref="P17:Q17" si="25">P15+P16</f>
         <v>8641</v>
       </c>
       <c r="Q17" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10680</v>
       </c>
       <c r="R17" s="45">
-        <f t="shared" ref="R17:Y17" si="25">R15+R16</f>
+        <f t="shared" ref="R17:AA17" si="26">R15+R16</f>
         <v>10221</v>
       </c>
       <c r="S17" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10385</v>
       </c>
       <c r="T17" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10486</v>
       </c>
       <c r="U17" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>12596</v>
       </c>
       <c r="V17" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>12686</v>
       </c>
       <c r="W17" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>14085</v>
       </c>
       <c r="X17" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>12843</v>
       </c>
       <c r="Y17" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>13422</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z17" s="45">
+        <f t="shared" si="26"/>
+        <v>16124</v>
+      </c>
+      <c r="AA17" s="46">
+        <f t="shared" si="26"/>
+        <v>18337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -6210,9 +6453,15 @@
       <c r="Y18" s="3">
         <v>2220</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76" t="s">
+      <c r="Z18" s="88">
+        <v>2231</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="74" t="s">
         <v>109</v>
       </c>
       <c r="B19" s="34"/>
@@ -6238,8 +6487,9 @@
       <c r="T19" s="62"/>
       <c r="U19" s="62"/>
       <c r="V19" s="36"/>
-    </row>
-    <row r="20" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z19" s="88"/>
+    </row>
+    <row r="20" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
@@ -6248,83 +6498,83 @@
         <v>5680</v>
       </c>
       <c r="C20" s="40">
-        <f t="shared" ref="C20:H20" si="26">C17-C18</f>
+        <f t="shared" ref="C20:H20" si="27">C17-C18</f>
         <v>6106</v>
       </c>
       <c r="D20" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4985</v>
       </c>
       <c r="E20" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5243</v>
       </c>
       <c r="F20" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4620</v>
       </c>
       <c r="G20" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4998</v>
       </c>
       <c r="H20" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3756</v>
       </c>
       <c r="I20" s="42">
-        <f t="shared" ref="I20:M20" si="27">I17-I18</f>
+        <f t="shared" ref="I20:M20" si="28">I17-I18</f>
         <v>4232</v>
       </c>
       <c r="J20" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5667</v>
       </c>
       <c r="K20" s="42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6267</v>
       </c>
       <c r="L20" s="42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5486</v>
       </c>
       <c r="M20" s="42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8069</v>
       </c>
       <c r="N20" s="41">
-        <f t="shared" ref="N20:O20" si="28">N17-N18</f>
+        <f t="shared" ref="N20:O20" si="29">N17-N18</f>
         <v>6576</v>
       </c>
       <c r="O20" s="42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7552.0220440881767</v>
       </c>
       <c r="P20" s="42">
-        <f t="shared" ref="P20:Q20" si="29">P17-P18</f>
+        <f t="shared" ref="P20:Q20" si="30">P17-P18</f>
         <v>7424</v>
       </c>
       <c r="Q20" s="42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8873</v>
       </c>
       <c r="R20" s="41">
-        <f t="shared" ref="R20" si="30">R17-R18</f>
+        <f t="shared" ref="R20" si="31">R17-R18</f>
         <v>8824</v>
       </c>
       <c r="S20" s="42">
-        <f t="shared" ref="S20:T20" si="31">S17-S18</f>
+        <f t="shared" ref="S20:T20" si="32">S17-S18</f>
         <v>8420</v>
       </c>
       <c r="T20" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8809</v>
       </c>
       <c r="U20" s="42">
-        <f t="shared" ref="U20:V20" si="32">U17-U18</f>
+        <f t="shared" ref="U20:V20" si="33">U17-U18</f>
         <v>13187</v>
       </c>
       <c r="V20" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>10678</v>
       </c>
       <c r="W20" s="42">
@@ -6339,109 +6589,125 @@
         <f>Y17-Y18</f>
         <v>11202</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z20" s="41">
+        <f>Z17-Z18</f>
+        <v>13893</v>
+      </c>
+      <c r="AA20" s="42">
+        <f>AA17-AA18</f>
+        <v>15463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="77">
+      <c r="B21" s="75">
         <f>B20/B22</f>
         <v>0.68015806490240693</v>
       </c>
-      <c r="C21" s="77">
-        <f t="shared" ref="C21:H21" si="33">C20/C22</f>
+      <c r="C21" s="75">
+        <f t="shared" ref="C21:H21" si="34">C20/C22</f>
         <v>0.73592864890924425</v>
       </c>
-      <c r="D21" s="77">
-        <f t="shared" si="33"/>
+      <c r="D21" s="75">
+        <f t="shared" si="34"/>
         <v>0.60519606652907609</v>
       </c>
-      <c r="E21" s="77">
-        <f t="shared" si="33"/>
+      <c r="E21" s="75">
+        <f t="shared" si="34"/>
         <v>0.65041558119340037</v>
       </c>
-      <c r="F21" s="78">
-        <f t="shared" si="33"/>
+      <c r="F21" s="76">
+        <f t="shared" si="34"/>
         <v>0.57277460947185721</v>
       </c>
-      <c r="G21" s="79">
-        <f t="shared" si="33"/>
+      <c r="G21" s="77">
+        <f t="shared" si="34"/>
         <v>0.62257100149476829</v>
       </c>
-      <c r="H21" s="79">
-        <f t="shared" si="33"/>
+      <c r="H21" s="77">
+        <f t="shared" si="34"/>
         <v>0.47038196618659989</v>
       </c>
-      <c r="I21" s="79">
-        <f t="shared" ref="I21:M21" si="34">I20/I22</f>
+      <c r="I21" s="77">
+        <f t="shared" ref="I21:M21" si="35">I20/I22</f>
         <v>0.53373691512170518</v>
       </c>
-      <c r="J21" s="78">
-        <f t="shared" si="34"/>
+      <c r="J21" s="76">
+        <f t="shared" si="35"/>
         <v>0.71952767902488568</v>
       </c>
-      <c r="K21" s="79">
-        <f t="shared" si="34"/>
+      <c r="K21" s="77">
+        <f t="shared" si="35"/>
         <v>0.80038314176245207</v>
       </c>
-      <c r="L21" s="79">
-        <f t="shared" si="34"/>
+      <c r="L21" s="77">
+        <f t="shared" si="35"/>
         <v>0.70216306156405994</v>
       </c>
-      <c r="M21" s="79">
-        <f t="shared" si="34"/>
+      <c r="M21" s="77">
+        <f t="shared" si="35"/>
         <v>1.033692031770433</v>
       </c>
-      <c r="N21" s="78">
-        <f t="shared" ref="N21:O21" si="35">N20/N22</f>
+      <c r="N21" s="76">
+        <f t="shared" ref="N21:O21" si="36">N20/N22</f>
         <v>0.84318502372098991</v>
       </c>
-      <c r="O21" s="79">
-        <f t="shared" si="35"/>
+      <c r="O21" s="77">
+        <f t="shared" si="36"/>
         <v>0.97950999274814221</v>
       </c>
-      <c r="P21" s="79">
-        <f t="shared" ref="P21:Q21" si="36">P20/P22</f>
+      <c r="P21" s="77">
+        <f t="shared" ref="P21:Q21" si="37">P20/P22</f>
         <v>0.95252758532204262</v>
       </c>
-      <c r="Q21" s="79">
-        <f t="shared" si="36"/>
+      <c r="Q21" s="77">
+        <f t="shared" si="37"/>
         <v>1.1412218649517685</v>
       </c>
-      <c r="R21" s="78">
-        <f t="shared" ref="R21" si="37">R20/R22</f>
+      <c r="R21" s="76">
+        <f t="shared" ref="R21" si="38">R20/R22</f>
         <v>1.1362348699459182</v>
       </c>
-      <c r="S21" s="79">
+      <c r="S21" s="77">
         <f>S20/S22</f>
         <v>1.0839340885684861</v>
       </c>
-      <c r="T21" s="79">
+      <c r="T21" s="77">
         <f>T20/T22</f>
         <v>1.1375258264462811</v>
       </c>
-      <c r="U21" s="79">
+      <c r="U21" s="77">
         <f>U20/U22</f>
         <v>1.7059508408796895</v>
       </c>
-      <c r="V21" s="78">
-        <f t="shared" ref="V21:W21" si="38">V20/V22</f>
+      <c r="V21" s="76">
+        <f t="shared" ref="V21:W21" si="39">V20/V22</f>
         <v>1.3849546044098573</v>
       </c>
-      <c r="W21" s="79">
-        <f t="shared" si="38"/>
+      <c r="W21" s="77">
+        <f t="shared" si="39"/>
         <v>1.5146274866727343</v>
       </c>
-      <c r="X21" s="79">
-        <f t="shared" ref="X21:Y21" si="39">X20/X22</f>
+      <c r="X21" s="77">
+        <f t="shared" ref="X21:Y21" si="40">X20/X22</f>
         <v>1.4009120521172638</v>
       </c>
-      <c r="Y21" s="79">
-        <f t="shared" si="39"/>
+      <c r="Y21" s="77">
+        <f t="shared" si="40"/>
         <v>1.4643137254901961</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z21" s="76">
+        <f t="shared" ref="Z21:AA21" si="41">Z20/Z22</f>
+        <v>1.8191698310855047</v>
+      </c>
+      <c r="AA21" s="77">
+        <f t="shared" si="41"/>
+        <v>2.0303308823529411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -6517,8 +6783,14 @@
       <c r="Y22" s="3">
         <v>7650</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z22" s="88">
+        <v>7637</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>7616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -6534,88 +6806,88 @@
       <c r="Q23" s="39"/>
       <c r="V23" s="38"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="52">
-        <f t="shared" ref="B24:R24" si="40">B10/B8</f>
+        <f t="shared" ref="B24:R24" si="42">B10/B8</f>
         <v>0.64342054221800782</v>
       </c>
       <c r="C24" s="52">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.61707593502077829</v>
       </c>
       <c r="D24" s="52">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.67044042523816094</v>
       </c>
       <c r="E24" s="52">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.66330027051397655</v>
       </c>
       <c r="F24" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.6463516364885421</v>
       </c>
       <c r="G24" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.58514035972432343</v>
       </c>
       <c r="H24" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.62388583118211483</v>
       </c>
       <c r="I24" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.61293295818375859</v>
       </c>
       <c r="J24" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.64228383801532285</v>
       </c>
       <c r="K24" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.61662665530860372</v>
       </c>
       <c r="L24" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.65276581078752371</v>
       </c>
       <c r="M24" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.66975200156219483</v>
       </c>
       <c r="N24" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.66264569239546822</v>
       </c>
       <c r="O24" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.6174009267584204</v>
       </c>
       <c r="P24" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.65438681531749876</v>
       </c>
       <c r="Q24" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.67618414492271894</v>
       </c>
       <c r="R24" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.65943474075092834</v>
       </c>
       <c r="S24" s="63">
-        <f t="shared" ref="S24:T24" si="41">S10/S8</f>
+        <f t="shared" ref="S24:T24" si="43">S10/S8</f>
         <v>0.61741246034923469</v>
       </c>
       <c r="T24" s="63">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.66733178502502366</v>
       </c>
       <c r="U24" s="63">
-        <f t="shared" ref="U24" si="42">U10/U8</f>
+        <f t="shared" ref="U24" si="44">U10/U8</f>
         <v>0.69119435299700449</v>
       </c>
       <c r="V24" s="53">
@@ -6634,89 +6906,97 @@
         <f>Y10/Y8</f>
         <v>0.67557121447164303</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z24" s="53">
+        <f>Z10/Z8</f>
+        <v>0.70388114334930285</v>
+      </c>
+      <c r="AA24" s="54">
+        <f>AA10/AA8</f>
+        <v>0.67048936762930633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="55">
-        <f t="shared" ref="B25:R25" si="43">B15/B8</f>
+        <f t="shared" ref="B25:R25" si="45">B15/B8</f>
         <v>0.30102150769363389</v>
       </c>
       <c r="C25" s="55">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.30294673214960333</v>
       </c>
       <c r="D25" s="55">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.31220948962216394</v>
       </c>
       <c r="E25" s="55">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.28787195671776378</v>
       </c>
       <c r="F25" s="56">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.28426321213013395</v>
       </c>
       <c r="G25" s="57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.253235837955959</v>
       </c>
       <c r="H25" s="57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.25731820174370462</v>
       </c>
       <c r="I25" s="57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.20325992044241778</v>
       </c>
       <c r="J25" s="56">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.30622947829259395</v>
       </c>
       <c r="K25" s="57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.30608688918144505</v>
       </c>
       <c r="L25" s="57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.28963467172152335</v>
       </c>
       <c r="M25" s="57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.30001952743604765</v>
       </c>
       <c r="N25" s="56">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.3141250305648382</v>
       </c>
       <c r="O25" s="57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.30012448993706342</v>
       </c>
       <c r="P25" s="57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.30918378761325926</v>
       </c>
       <c r="Q25" s="57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.3449891972743892</v>
       </c>
       <c r="R25" s="56">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.34228441754916794</v>
       </c>
       <c r="S25" s="64">
-        <f t="shared" ref="S25:T25" si="44">S15/S8</f>
+        <f t="shared" ref="S25:T25" si="46">S15/S8</f>
         <v>0.3159126605278556</v>
       </c>
       <c r="T25" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.3382617513329626</v>
       </c>
       <c r="U25" s="64">
-        <f t="shared" ref="U25" si="45">U15/U8</f>
+        <f t="shared" ref="U25" si="47">U15/U8</f>
         <v>0.3679152949550672</v>
       </c>
       <c r="V25" s="56">
@@ -6735,109 +7015,125 @@
         <f>Y15/Y8</f>
         <v>0.35250966266137301</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z25" s="56">
+        <f>Z15/Z8</f>
+        <v>0.42730257845723207</v>
+      </c>
+      <c r="AA25" s="57">
+        <f>AA15/AA8</f>
+        <v>0.41547497446373849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="55">
-        <f t="shared" ref="B26:R26" si="46">B18/B17</f>
+        <f t="shared" ref="B26:R26" si="48">B18/B17</f>
         <v>0.19272313814667424</v>
       </c>
       <c r="C26" s="55">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.24552082046212775</v>
       </c>
       <c r="D26" s="55">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.23507748964247352</v>
       </c>
       <c r="E26" s="55">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.21535468422627957</v>
       </c>
       <c r="F26" s="56">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.16198077271902775</v>
       </c>
       <c r="G26" s="57">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.14637062339880444</v>
       </c>
       <c r="H26" s="57">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.25416997617156473</v>
       </c>
       <c r="I26" s="57">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5.0482387256001793E-2</v>
       </c>
       <c r="J26" s="56">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.16991357843855281</v>
       </c>
       <c r="K26" s="57">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.21877337322363499</v>
       </c>
       <c r="L26" s="57">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.22667042571186918</v>
       </c>
       <c r="M26" s="57">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1.3948228198039708E-2</v>
       </c>
       <c r="N26" s="56">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.17635270541082165</v>
       </c>
       <c r="O26" s="57">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.17635270541082165</v>
       </c>
       <c r="P26" s="57">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.14084018053466035</v>
       </c>
       <c r="Q26" s="57">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.16919475655430713</v>
       </c>
       <c r="R26" s="56">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.13667938557871051</v>
       </c>
       <c r="S26" s="64">
-        <f t="shared" ref="S26:Y26" si="47">S18/S17</f>
+        <f t="shared" ref="S26:Y26" si="49">S18/S17</f>
         <v>0.18921521425132404</v>
       </c>
       <c r="T26" s="64">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.15992752241083349</v>
       </c>
       <c r="U26" s="64">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-4.6919657033979038E-2</v>
       </c>
       <c r="V26" s="56">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.15828472331704241</v>
       </c>
       <c r="W26" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.17294994675186368</v>
       </c>
       <c r="X26" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.16281242700303666</v>
       </c>
       <c r="Y26" s="57">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.16540008940545373</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z26" s="56">
+        <f t="shared" ref="Z26:AA26" si="50">Z18/Z17</f>
+        <v>0.13836516993301909</v>
+      </c>
+      <c r="AA26" s="57">
+        <f t="shared" si="50"/>
+        <v>0.15673228990565524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -6855,8 +7151,10 @@
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
       <c r="Y27" s="39"/>
-    </row>
-    <row r="28" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="39"/>
+    </row>
+    <row r="28" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
@@ -6865,67 +7163,67 @@
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="50">
-        <f t="shared" ref="F28:R28" si="48">(F8/B8)-1</f>
+        <f t="shared" ref="F28:R28" si="51">(F8/B8)-1</f>
         <v>-0.12163268824619633</v>
       </c>
       <c r="G28" s="51">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-0.10102002266717036</v>
       </c>
       <c r="H28" s="51">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-5.5133692300612047E-2</v>
       </c>
       <c r="I28" s="51">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-7.06041478809738E-2</v>
       </c>
       <c r="J28" s="50">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>7.600961774375592E-2</v>
       </c>
       <c r="K28" s="51">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>8.5308455202555145E-2</v>
       </c>
       <c r="L28" s="51">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.13058302079781803</v>
       </c>
       <c r="M28" s="51">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.24211700785873669</v>
       </c>
       <c r="N28" s="50">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.11902590295512594</v>
       </c>
       <c r="O28" s="51">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.11972430883605667</v>
       </c>
       <c r="P28" s="51">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.15539376184732046</v>
       </c>
       <c r="Q28" s="51">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.17496582698691654</v>
       </c>
       <c r="R28" s="50">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.18526367267095933</v>
       </c>
       <c r="S28" s="65">
-        <f t="shared" ref="S28:U28" si="49">(S8/O8)-1</f>
+        <f t="shared" ref="S28:U28" si="52">(S8/O8)-1</f>
         <v>0.12286465177398154</v>
       </c>
       <c r="T28" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.13990081658525666</v>
       </c>
       <c r="U28" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.12072461359481479</v>
       </c>
       <c r="V28" s="50">
@@ -6944,8 +7242,24 @@
         <f>(Y8/U8)-1</f>
         <v>0.12800664353293589</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z28" s="50">
+        <f>(Z8/V8)-1</f>
+        <v>0.12400544546967174</v>
+      </c>
+      <c r="AA28" s="51">
+        <f>(AA8/W8)-1</f>
+        <v>0.16718148810491518</v>
+      </c>
+      <c r="AB28" s="51">
+        <f>(AB8/X8)-1</f>
+        <v>0.15183318580280392</v>
+      </c>
+      <c r="AC28" s="51">
+        <f>(AC8/Y8)-1</f>
+        <v>0.15060605263849824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
@@ -6955,173 +7269,197 @@
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
       <c r="M29" s="54">
-        <f t="shared" ref="M29:R31" si="50">M11/I11-1</f>
+        <f t="shared" ref="M29:R31" si="53">M11/I11-1</f>
         <v>0.11697393515575327</v>
       </c>
       <c r="N29" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.1506761107533805</v>
       </c>
       <c r="O29" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.14435009797517973</v>
       </c>
       <c r="P29" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.10730253353204167</v>
       </c>
       <c r="Q29" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.1192373363688104</v>
       </c>
       <c r="R29" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.11275881365416907</v>
       </c>
       <c r="S29" s="63">
-        <f t="shared" ref="S29:Y31" si="51">S11/O11-1</f>
+        <f t="shared" ref="S29:AA31" si="54">S11/O11-1</f>
         <v>0.1615296803652968</v>
       </c>
       <c r="T29" s="63">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.16177658142664875</v>
       </c>
       <c r="U29" s="63">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.14747012458682929</v>
       </c>
       <c r="V29" s="53">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.14785013829519733</v>
       </c>
       <c r="W29" s="54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.13095823095823089</v>
       </c>
       <c r="X29" s="54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.13229842446709927</v>
       </c>
       <c r="Y29" s="54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.15532904941280745</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z29" s="53">
+        <f t="shared" si="54"/>
+        <v>7.9079956188389922E-2</v>
+      </c>
+      <c r="AA29" s="54">
+        <f t="shared" si="54"/>
+        <v>6.4305887464696898E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M30" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>7.3536768384192097E-2</v>
       </c>
       <c r="N30" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.1845866998135488</v>
       </c>
       <c r="O30" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.11841137533709234</v>
       </c>
       <c r="P30" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.11957644628099184</v>
       </c>
       <c r="Q30" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.1090400745573159</v>
       </c>
       <c r="R30" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>7.5026232948583349E-2</v>
       </c>
       <c r="S30" s="63">
-        <f t="shared" ref="S30:U30" si="52">S12/O12-1</f>
+        <f t="shared" ref="S30:U30" si="55">S12/O12-1</f>
         <v>5.6992547128451587E-3</v>
       </c>
       <c r="T30" s="63">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>5.3056516724336866E-2</v>
       </c>
       <c r="U30" s="63">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>4.2436974789916038E-2</v>
       </c>
       <c r="V30" s="53">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>5.8321132259638864E-2</v>
       </c>
       <c r="W30" s="54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>7.5196163905841384E-2</v>
       </c>
       <c r="X30" s="54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>7.5794085432639546E-2</v>
       </c>
       <c r="Y30" s="54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>9.1696896412736706E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z30" s="53">
+        <f t="shared" si="54"/>
+        <v>-2.44408577357621E-2</v>
+      </c>
+      <c r="AA30" s="54">
+        <f t="shared" si="54"/>
+        <v>2.8380295965944047E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M31" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.27671022290545744</v>
       </c>
       <c r="N31" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.11578947368421044</v>
       </c>
       <c r="O31" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.26166097838452784</v>
       </c>
       <c r="P31" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>4.991680532445919E-3</v>
       </c>
       <c r="Q31" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-0.23479831426851294</v>
       </c>
       <c r="R31" s="53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-1.4579759862778707E-2</v>
       </c>
       <c r="S31" s="63">
-        <f t="shared" ref="S31:U31" si="53">S13/O13-1</f>
+        <f t="shared" ref="S31:U31" si="56">S13/O13-1</f>
         <v>2.0739404869251521E-2</v>
       </c>
       <c r="T31" s="63">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-2.4006622516556275E-2</v>
       </c>
       <c r="U31" s="63">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.12116443745082606</v>
       </c>
       <c r="V31" s="53">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-7.6588337684943442E-2</v>
       </c>
       <c r="W31" s="54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-9.7173144876324669E-3</v>
       </c>
       <c r="X31" s="54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>7.9728583545377374E-2</v>
       </c>
       <c r="Y31" s="54">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.16210526315789475</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z31" s="53">
+        <f t="shared" si="54"/>
+        <v>5.4665409990575009E-2</v>
+      </c>
+      <c r="AA31" s="54">
+        <f t="shared" si="54"/>
+        <v>1.605709188224802E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
@@ -7133,7 +7471,7 @@
       <c r="Q32" s="39"/>
       <c r="V32" s="38"/>
     </row>
-    <row r="33" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>26</v>
       </c>
@@ -7149,59 +7487,67 @@
       <c r="K33" s="48"/>
       <c r="L33" s="48"/>
       <c r="M33" s="42">
-        <f t="shared" ref="M33:S33" si="54">M34-M35</f>
+        <f t="shared" ref="M33:S33" si="57">M34-M35</f>
         <v>46787</v>
       </c>
       <c r="N33" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>52996</v>
       </c>
       <c r="O33" s="42">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>53520</v>
       </c>
       <c r="P33" s="42">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>55113</v>
       </c>
       <c r="Q33" s="42">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>57528</v>
       </c>
       <c r="R33" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>59750</v>
       </c>
       <c r="S33" s="42">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>54493</v>
       </c>
       <c r="T33" s="42">
-        <f t="shared" ref="T33:X33" si="55">T34-T35</f>
+        <f t="shared" ref="T33:X33" si="58">T34-T35</f>
         <v>58518</v>
       </c>
       <c r="U33" s="42">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>61641</v>
       </c>
       <c r="V33" s="41">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>67141</v>
       </c>
       <c r="W33" s="42">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>64645</v>
       </c>
       <c r="X33" s="42">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>71016</v>
       </c>
       <c r="Y33" s="42">
-        <f t="shared" ref="Y33" si="56">Y34-Y35</f>
+        <f t="shared" ref="Y33:AA33" si="59">Y34-Y35</f>
         <v>73200</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z33" s="41">
+        <f t="shared" si="59"/>
+        <v>74425</v>
+      </c>
+      <c r="AA33" s="42">
+        <f t="shared" si="59"/>
+        <v>71445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -7268,8 +7614,16 @@
         <f>13576+122951</f>
         <v>136527</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z34" s="88">
+        <f>17205+120772</f>
+        <v>137977</v>
+      </c>
+      <c r="AA34" s="3">
+        <f>14432+117536</f>
+        <v>131968</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -7336,8 +7690,16 @@
         <f>3749+59578</f>
         <v>63327</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z35" s="88">
+        <f>6497+57055</f>
+        <v>63552</v>
+      </c>
+      <c r="AA35" s="3">
+        <f>5387+55136</f>
+        <v>60523</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
@@ -7359,8 +7721,9 @@
       <c r="T36" s="62"/>
       <c r="U36" s="62"/>
       <c r="V36" s="36"/>
-    </row>
-    <row r="37" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z36" s="88"/>
+    </row>
+    <row r="37" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -7427,8 +7790,16 @@
         <f>43351+7038</f>
         <v>50389</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z37" s="88">
+        <f>43890+6923</f>
+        <v>50813</v>
+      </c>
+      <c r="AA37" s="3">
+        <f>44219+6555</f>
+        <v>50774</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
@@ -7483,8 +7854,14 @@
       <c r="Y38" s="3">
         <v>301311</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z38" s="88">
+        <v>301001</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>304137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -7538,8 +7915,14 @@
       <c r="Y39" s="3">
         <v>183007</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z39" s="88">
+        <v>177609</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>173901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -7561,8 +7944,9 @@
       <c r="T40" s="37"/>
       <c r="U40" s="37"/>
       <c r="V40" s="36"/>
-    </row>
-    <row r="41" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z40" s="88"/>
+    </row>
+    <row r="41" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>76</v>
       </c>
@@ -7578,59 +7962,67 @@
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="46">
-        <f t="shared" ref="M41:R41" si="57">M38-M37-M34</f>
+        <f t="shared" ref="M41:R41" si="60">M38-M37-M34</f>
         <v>72103</v>
       </c>
       <c r="N41" s="45">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>65639</v>
       </c>
       <c r="O41" s="46">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>68834</v>
       </c>
       <c r="P41" s="46">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>69101</v>
       </c>
       <c r="Q41" s="46">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>81344</v>
       </c>
       <c r="R41" s="45">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>78305</v>
       </c>
       <c r="S41" s="46">
-        <f t="shared" ref="S41:T41" si="58">S38-S37-S34</f>
+        <f t="shared" ref="S41:T41" si="61">S38-S37-S34</f>
         <v>81138</v>
       </c>
       <c r="T41" s="46">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>81699</v>
       </c>
       <c r="U41" s="46">
-        <f t="shared" ref="U41:V41" si="59">U38-U37-U34</f>
+        <f t="shared" ref="U41:V41" si="62">U38-U37-U34</f>
         <v>102961</v>
       </c>
       <c r="V41" s="45">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>92698</v>
       </c>
       <c r="W41" s="46">
-        <f t="shared" ref="W41:X41" si="60">W38-W37-W34</f>
+        <f t="shared" ref="W41:X41" si="63">W38-W37-W34</f>
         <v>99167</v>
       </c>
       <c r="X41" s="46">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>98904</v>
       </c>
       <c r="Y41" s="46">
-        <f t="shared" ref="Y41" si="61">Y38-Y37-Y34</f>
+        <f t="shared" ref="Y41:AA41" si="64">Y38-Y37-Y34</f>
         <v>114395</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z41" s="45">
+        <f t="shared" si="64"/>
+        <v>112211</v>
+      </c>
+      <c r="AA41" s="46">
+        <f t="shared" si="64"/>
+        <v>121395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -7646,59 +8038,67 @@
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="46">
-        <f t="shared" ref="M42:R42" si="62">M38-M39</f>
+        <f t="shared" ref="M42:R42" si="65">M38-M39</f>
         <v>87711</v>
       </c>
       <c r="N42" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>89647</v>
       </c>
       <c r="O42" s="46">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>78360</v>
       </c>
       <c r="P42" s="46">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>79239</v>
       </c>
       <c r="Q42" s="46">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>82718</v>
       </c>
       <c r="R42" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>85967</v>
       </c>
       <c r="S42" s="46">
-        <f t="shared" ref="S42:T42" si="63">S38-S39</f>
+        <f t="shared" ref="S42:T42" si="66">S38-S39</f>
         <v>92128</v>
       </c>
       <c r="T42" s="46">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>94864</v>
       </c>
       <c r="U42" s="46">
-        <f t="shared" ref="U42:V42" si="64">U38-U39</f>
+        <f t="shared" ref="U42:V42" si="67">U38-U39</f>
         <v>102330</v>
       </c>
       <c r="V42" s="45">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>106061</v>
       </c>
       <c r="W42" s="46">
-        <f t="shared" ref="W42:X42" si="65">W38-W39</f>
+        <f t="shared" ref="W42:X42" si="68">W38-W39</f>
         <v>110109</v>
       </c>
       <c r="X42" s="46">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>114501</v>
       </c>
       <c r="Y42" s="46">
-        <f t="shared" ref="Y42" si="66">Y38-Y39</f>
+        <f t="shared" ref="Y42:AA42" si="69">Y38-Y39</f>
         <v>118304</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z42" s="45">
+        <f t="shared" si="69"/>
+        <v>123392</v>
+      </c>
+      <c r="AA42" s="46">
+        <f t="shared" si="69"/>
+        <v>130236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -7721,8 +8121,9 @@
       <c r="U43" s="37"/>
       <c r="V43" s="36"/>
       <c r="W43" s="37"/>
-    </row>
-    <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z43" s="88"/>
+    </row>
+    <row r="44" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>90</v>
       </c>
@@ -7738,287 +8139,327 @@
       <c r="K44" s="48"/>
       <c r="L44" s="48"/>
       <c r="M44" s="42">
-        <f t="shared" ref="M44:R44" si="67">SUM(J20:M20)</f>
+        <f t="shared" ref="M44:R44" si="70">SUM(J20:M20)</f>
         <v>25489</v>
       </c>
       <c r="N44" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>26398</v>
       </c>
       <c r="O44" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>27683.022044088175</v>
       </c>
       <c r="P44" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>29621.022044088175</v>
       </c>
       <c r="Q44" s="42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>30425.022044088175</v>
       </c>
       <c r="R44" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>32673.022044088175</v>
       </c>
       <c r="S44" s="42">
-        <f t="shared" ref="S44:Y44" si="68">SUM(P20:S20)</f>
+        <f t="shared" ref="S44:AA44" si="71">SUM(P20:S20)</f>
         <v>33541</v>
       </c>
       <c r="T44" s="42">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>34926</v>
       </c>
       <c r="U44" s="42">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>39240</v>
       </c>
       <c r="V44" s="41">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>41094</v>
       </c>
       <c r="W44" s="42">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>44323</v>
       </c>
       <c r="X44" s="42">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>46266</v>
       </c>
       <c r="Y44" s="42">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>44281</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z44" s="41">
+        <f t="shared" si="71"/>
+        <v>47496</v>
+      </c>
+      <c r="AA44" s="42">
+        <f t="shared" si="71"/>
+        <v>51310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A45" s="31" t="s">
         <v>78</v>
       </c>
       <c r="M45" s="54">
-        <f t="shared" ref="M45:S45" si="69">M44/M42</f>
+        <f t="shared" ref="M45:S45" si="72">M44/M42</f>
         <v>0.29060209095780459</v>
       </c>
       <c r="N45" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0.29446607248429951</v>
       </c>
       <c r="O45" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0.35328001587657193</v>
       </c>
       <c r="P45" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0.37381872618392681</v>
       </c>
       <c r="Q45" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0.36781621949380033</v>
       </c>
       <c r="R45" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0.38006469975790913</v>
       </c>
       <c r="S45" s="54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0.36406955540118097</v>
       </c>
       <c r="T45" s="54">
-        <f t="shared" ref="T45:V45" si="70">T44/T42</f>
+        <f t="shared" ref="T45:V45" si="73">T44/T42</f>
         <v>0.36816916849384385</v>
       </c>
       <c r="U45" s="54">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0.38346525945470539</v>
       </c>
       <c r="V45" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0.38745627516240655</v>
       </c>
       <c r="W45" s="54">
-        <f t="shared" ref="W45:X45" si="71">W44/W42</f>
+        <f t="shared" ref="W45:X45" si="74">W44/W42</f>
         <v>0.40253748558246827</v>
       </c>
       <c r="X45" s="54">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.40406634003196479</v>
       </c>
       <c r="Y45" s="54">
-        <f t="shared" ref="Y45" si="72">Y44/Y42</f>
+        <f t="shared" ref="Y45:AA45" si="75">Y44/Y42</f>
         <v>0.37429841763592103</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z45" s="53">
+        <f t="shared" si="75"/>
+        <v>0.38491960580912865</v>
+      </c>
+      <c r="AA45" s="54">
+        <f t="shared" si="75"/>
+        <v>0.39397708774839524</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
         <v>79</v>
       </c>
       <c r="M46" s="54">
-        <f t="shared" ref="M46:R46" si="73">M44/M38</f>
+        <f t="shared" ref="M46:R46" si="76">M44/M38</f>
         <v>0.10182891751094635</v>
       </c>
       <c r="N46" s="53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.10597478090864201</v>
       </c>
       <c r="O46" s="54">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.10813553764638764</v>
       </c>
       <c r="P46" s="54">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.12065736870140235</v>
       </c>
       <c r="Q46" s="54">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.1175401086509773</v>
       </c>
       <c r="R46" s="53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.12682691122971587</v>
       </c>
       <c r="S46" s="54">
-        <f t="shared" ref="S46:T46" si="74">S44/S38</f>
+        <f t="shared" ref="S46:T46" si="77">S44/S38</f>
         <v>0.12957246995468574</v>
       </c>
       <c r="T46" s="54">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.13265674317554249</v>
       </c>
       <c r="U46" s="54">
-        <f t="shared" ref="U46:V46" si="75">U44/U38</f>
+        <f t="shared" ref="U46:V46" si="78">U44/U38</f>
         <v>0.13693658482111698</v>
       </c>
       <c r="V46" s="53">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0.14731408291659945</v>
       </c>
       <c r="W46" s="54">
-        <f t="shared" ref="W46:X46" si="76">W44/W38</f>
+        <f t="shared" ref="W46:X46" si="79">W44/W38</f>
         <v>0.15673246249920436</v>
       </c>
       <c r="X46" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.16208149266594032</v>
       </c>
       <c r="Y46" s="54">
-        <f t="shared" ref="Y46" si="77">Y44/Y38</f>
+        <f t="shared" ref="Y46:AA46" si="80">Y44/Y38</f>
         <v>0.14696111326835065</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z46" s="53">
+        <f t="shared" si="80"/>
+        <v>0.15779349570267209</v>
+      </c>
+      <c r="AA46" s="54">
+        <f t="shared" si="80"/>
+        <v>0.16870686565593795</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
         <v>80</v>
       </c>
       <c r="M47" s="54">
-        <f t="shared" ref="M47:R47" si="78">M44/(M42-M37)</f>
+        <f t="shared" ref="M47:R47" si="81">M44/(M42-M37)</f>
         <v>0.59998116893816356</v>
       </c>
       <c r="N47" s="53">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.59108822212270484</v>
       </c>
       <c r="O47" s="54">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.81490159383262706</v>
       </c>
       <c r="P47" s="54">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.84359132070994147</v>
       </c>
       <c r="Q47" s="54">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.78048899605172062</v>
       </c>
       <c r="R47" s="53">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.76818051969266632</v>
       </c>
       <c r="S47" s="54">
-        <f t="shared" ref="S47:T47" si="79">S44/(S42-S37)</f>
+        <f t="shared" ref="S47:T47" si="82">S44/(S42-S37)</f>
         <v>0.79728541206113768</v>
       </c>
       <c r="T47" s="54">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.77786191536748328</v>
       </c>
       <c r="U47" s="54">
-        <f t="shared" ref="U47:V47" si="80">U44/(U42-U37)</f>
+        <f t="shared" ref="U47:V47" si="83">U44/(U42-U37)</f>
         <v>0.74666057769151728</v>
       </c>
       <c r="V47" s="53">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.72810063784549961</v>
       </c>
       <c r="W47" s="54">
-        <f t="shared" ref="W47:X47" si="81">W44/(W42-W37)</f>
+        <f t="shared" ref="W47:X47" si="84">W44/(W42-W37)</f>
         <v>0.72977689964600312</v>
       </c>
       <c r="X47" s="54">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.70546796377054677</v>
       </c>
       <c r="Y47" s="54">
-        <f t="shared" ref="Y47" si="82">Y44/(Y42-Y37)</f>
+        <f t="shared" ref="Y47:AA47" si="85">Y44/(Y42-Y37)</f>
         <v>0.65200618420083933</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z47" s="53">
+        <f t="shared" si="85"/>
+        <v>0.65440416649444055</v>
+      </c>
+      <c r="AA47" s="54">
+        <f t="shared" si="85"/>
+        <v>0.64571744985024293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A48" s="31" t="s">
         <v>81</v>
       </c>
       <c r="M48" s="54">
-        <f t="shared" ref="M48:R48" si="83">M44/M41</f>
+        <f t="shared" ref="M48:R48" si="86">M44/M41</f>
         <v>0.35350817580405808</v>
       </c>
       <c r="N48" s="53">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.40216944194762261</v>
       </c>
       <c r="O48" s="54">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.40217075927722018</v>
       </c>
       <c r="P48" s="54">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.42866271174206128</v>
       </c>
       <c r="Q48" s="54">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.37402908689132786</v>
       </c>
       <c r="R48" s="53">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.41725333049087765</v>
       </c>
       <c r="S48" s="54">
-        <f t="shared" ref="S48:T48" si="84">S44/S41</f>
+        <f t="shared" ref="S48:T48" si="87">S44/S41</f>
         <v>0.41338213907170501</v>
       </c>
       <c r="T48" s="54">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.42749605258326295</v>
       </c>
       <c r="U48" s="54">
-        <f t="shared" ref="U48:V48" si="85">U44/U41</f>
+        <f t="shared" ref="U48:V48" si="88">U44/U41</f>
         <v>0.38111517953399832</v>
       </c>
       <c r="V48" s="53">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.44331053528662973</v>
       </c>
       <c r="W48" s="54">
-        <f t="shared" ref="W48:X48" si="86">W44/W41</f>
+        <f t="shared" ref="W48:X48" si="89">W44/W41</f>
         <v>0.44695311948531263</v>
       </c>
       <c r="X48" s="54">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.46778694491628248</v>
       </c>
       <c r="Y48" s="54">
-        <f t="shared" ref="Y48" si="87">Y44/Y41</f>
+        <f t="shared" ref="Y48:AA48" si="90">Y44/Y41</f>
         <v>0.38708859652956862</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z48" s="53">
+        <f t="shared" si="90"/>
+        <v>0.42327401056937375</v>
+      </c>
+      <c r="AA48" s="54">
+        <f t="shared" si="90"/>
+        <v>0.42266979694386098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.15">
       <c r="M49" s="39"/>
       <c r="O49" s="39"/>
       <c r="P49" s="39"/>
@@ -8026,260 +8467,309 @@
       <c r="V49" s="38"/>
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="AA49" s="39"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F50" s="53">
-        <f t="shared" ref="F50:N50" si="88">F3/B3-1</f>
+        <f t="shared" ref="F50:N50" si="91">F3/B3-1</f>
         <v>-2.8351309707241867E-2</v>
       </c>
       <c r="G50" s="54">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>-1.9349164467898028E-2</v>
       </c>
       <c r="H50" s="54">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>9.9117237107015921E-3</v>
       </c>
       <c r="I50" s="54">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>4.6239303407896726E-2</v>
       </c>
       <c r="J50" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>2.0615287028227014E-2</v>
       </c>
       <c r="K50" s="54">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>7.3094170403587455E-2</v>
       </c>
       <c r="L50" s="54">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0.18187394571384763</v>
       </c>
       <c r="M50" s="54">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0.22657483139618306</v>
       </c>
       <c r="N50" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0.27998756991920448</v>
       </c>
       <c r="O50" s="54">
-        <f t="shared" ref="O50:P52" si="89">O3/K3-1</f>
+        <f t="shared" ref="O50:P52" si="92">O3/K3-1</f>
         <v>0.24710962529600233</v>
       </c>
       <c r="P50" s="54">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>0.1685480731802258</v>
       </c>
       <c r="Q50" s="54">
-        <f t="shared" ref="Q50:Y50" si="90">Q3/M3-1</f>
+        <f t="shared" ref="Q50:AC50" si="93">Q3/M3-1</f>
         <v>0.13102480112306969</v>
       </c>
       <c r="R50" s="53">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.18608885651857254</v>
       </c>
       <c r="S50" s="63">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.12811348151457613</v>
       </c>
       <c r="T50" s="63">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.13724183877415053</v>
       </c>
       <c r="U50" s="63">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.14263549855192381</v>
       </c>
       <c r="V50" s="53">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.13366083307747423</v>
       </c>
       <c r="W50" s="54">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.17089108910891082</v>
       </c>
       <c r="X50" s="54">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.14655340753759027</v>
       </c>
       <c r="Y50" s="54">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>6.3818231193989217E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z50" s="53">
+        <f t="shared" si="93"/>
+        <v>0.11212422135957389</v>
+      </c>
+      <c r="AA50" s="54">
+        <f t="shared" si="93"/>
+        <v>0.12912227295788936</v>
+      </c>
+      <c r="AB50" s="54">
+        <f t="shared" si="93"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AC50" s="54">
+        <f t="shared" si="93"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F51" s="53">
-        <f t="shared" ref="F51:N51" si="91">F4/B4-1</f>
+        <f t="shared" ref="F51:N51" si="94">F4/B4-1</f>
         <v>7.61643835616439E-2</v>
       </c>
       <c r="G51" s="54">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>4.9991723224631635E-2</v>
       </c>
       <c r="H51" s="54">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>3.2695239708622648E-2</v>
       </c>
       <c r="I51" s="54">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>6.5914866581956888E-2</v>
       </c>
       <c r="J51" s="53">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>3.4792939579090243E-2</v>
       </c>
       <c r="K51" s="54">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>6.5426454359136077E-2</v>
       </c>
       <c r="L51" s="54">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.1040026246719159</v>
       </c>
       <c r="M51" s="54">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.1655490984950081</v>
       </c>
       <c r="N51" s="53">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.13531244874528459</v>
       </c>
       <c r="O51" s="54">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>0.1534477656111275</v>
       </c>
       <c r="P51" s="54">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>0.17325408618127791</v>
       </c>
       <c r="Q51" s="54">
-        <f t="shared" ref="Q51:Y51" si="92">Q4/M4-1</f>
+        <f t="shared" ref="Q51:AC51" si="95">Q4/M4-1</f>
         <v>0.22807466121196618</v>
       </c>
       <c r="R51" s="53">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.23764807859000281</v>
       </c>
       <c r="S51" s="63">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.2030788967286723</v>
       </c>
       <c r="T51" s="63">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.22201114488348539</v>
       </c>
       <c r="U51" s="63">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.18582136164896945</v>
       </c>
       <c r="V51" s="53">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.26590405042605347</v>
       </c>
       <c r="W51" s="54">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.26562166773299212</v>
       </c>
       <c r="X51" s="54">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.27277438076484617</v>
       </c>
       <c r="Y51" s="54">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.17382143797735061</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z51" s="53">
+        <f t="shared" si="95"/>
+        <v>0.19741816505301979</v>
+      </c>
+      <c r="AA51" s="54">
+        <f t="shared" si="95"/>
+        <v>0.23017945909512183</v>
+      </c>
+      <c r="AB51" s="54">
+        <f t="shared" si="95"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AC51" s="54">
+        <f t="shared" si="95"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F52" s="53">
-        <f t="shared" ref="F52:N52" si="93">F5/B5-1</f>
+        <f t="shared" ref="F52:N52" si="96">F5/B5-1</f>
         <v>-0.16509433962264153</v>
       </c>
       <c r="G52" s="54">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>-4.6830296642071945E-2</v>
       </c>
       <c r="H52" s="54">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>1.8144946098836545E-2</v>
       </c>
       <c r="I52" s="54">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>-3.7433733636265232E-2</v>
       </c>
       <c r="J52" s="53">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>1.4923782112781225E-3</v>
       </c>
       <c r="K52" s="54">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>-6.090047393364928E-2</v>
       </c>
       <c r="L52" s="54">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>-8.0092252856693524E-2</v>
       </c>
       <c r="M52" s="54">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>3.7990333820388855E-2</v>
       </c>
       <c r="N52" s="53">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>-1.8094731240021478E-3</v>
       </c>
       <c r="O52" s="54">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>2.3635293128101642E-2</v>
       </c>
       <c r="P52" s="54">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>0.13014245014245018</v>
       </c>
       <c r="Q52" s="54">
-        <f t="shared" ref="Q52:Y52" si="94">Q5/M5-1</f>
+        <f t="shared" ref="Q52:AC52" si="97">Q5/M5-1</f>
         <v>0.17065511640498099</v>
       </c>
       <c r="R52" s="53">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.14587332053742808</v>
       </c>
       <c r="S52" s="63">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>6.7625308134757534E-2</v>
       </c>
       <c r="T52" s="63">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>7.6938590299485687E-2</v>
       </c>
       <c r="U52" s="63">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>4.328924243825738E-2</v>
       </c>
       <c r="V52" s="53">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>3.6013400335008328E-2</v>
       </c>
       <c r="W52" s="54">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>1.677826521973369E-2</v>
       </c>
       <c r="X52" s="54">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>2.9681647940074996E-2</v>
       </c>
       <c r="Y52" s="54">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.14460501817537019</v>
+      </c>
+      <c r="Z52" s="53">
+        <f t="shared" si="97"/>
+        <v>6.4313302793496785E-2</v>
+      </c>
+      <c r="AA52" s="54">
+        <f t="shared" si="97"/>
+        <v>0.14465218378623868</v>
+      </c>
+      <c r="AB52" s="54">
+        <f t="shared" si="97"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AC52" s="54">
+        <f t="shared" si="97"/>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.15">
@@ -8298,7 +8788,7 @@
       <c r="P80" s="37"/>
       <c r="Q80" s="37"/>
     </row>
-    <row r="81" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="48"/>
       <c r="C81" s="48"/>
       <c r="D81" s="48"/>
@@ -8320,8 +8810,9 @@
       <c r="T81" s="66"/>
       <c r="U81" s="66"/>
       <c r="V81" s="60"/>
-    </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="Z81" s="60"/>
+    </row>
+    <row r="82" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
@@ -8339,7 +8830,7 @@
       <c r="P82" s="37"/>
       <c r="Q82" s="37"/>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
@@ -8357,7 +8848,7 @@
       <c r="P83" s="37"/>
       <c r="Q83" s="37"/>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
@@ -8375,7 +8866,7 @@
       <c r="P84" s="37"/>
       <c r="Q84" s="37"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
@@ -8393,7 +8884,7 @@
       <c r="P85" s="37"/>
       <c r="Q85" s="37"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
@@ -8411,7 +8902,7 @@
       <c r="P86" s="37"/>
       <c r="Q86" s="37"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
@@ -8429,7 +8920,7 @@
       <c r="P87" s="37"/>
       <c r="Q87" s="37"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
@@ -8447,7 +8938,7 @@
       <c r="P88" s="37"/>
       <c r="Q88" s="37"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D89" s="34"/>
       <c r="E89" s="34"/>
       <c r="F89" s="36"/>
@@ -8463,7 +8954,7 @@
       <c r="P89" s="37"/>
       <c r="Q89" s="37"/>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D90" s="34"/>
       <c r="E90" s="34"/>
       <c r="F90" s="36"/>
@@ -8479,7 +8970,7 @@
       <c r="P90" s="37"/>
       <c r="Q90" s="37"/>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D91" s="34"/>
       <c r="E91" s="34"/>
       <c r="F91" s="36"/>
@@ -8495,7 +8986,7 @@
       <c r="P91" s="37"/>
       <c r="Q91" s="37"/>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D92" s="34"/>
       <c r="E92" s="34"/>
       <c r="F92" s="36"/>
@@ -8511,7 +9002,7 @@
       <c r="P92" s="37"/>
       <c r="Q92" s="37"/>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
@@ -8529,7 +9020,7 @@
       <c r="P93" s="37"/>
       <c r="Q93" s="37"/>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
@@ -8547,7 +9038,7 @@
       <c r="P94" s="37"/>
       <c r="Q94" s="37"/>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
@@ -8565,7 +9056,7 @@
       <c r="P95" s="37"/>
       <c r="Q95" s="37"/>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
@@ -8583,7 +9074,7 @@
       <c r="P96" s="37"/>
       <c r="Q96" s="37"/>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
       <c r="D97" s="34"/>
@@ -8601,7 +9092,7 @@
       <c r="P97" s="37"/>
       <c r="Q97" s="37"/>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
@@ -8619,7 +9110,7 @@
       <c r="P98" s="37"/>
       <c r="Q98" s="37"/>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
@@ -8637,7 +9128,7 @@
       <c r="P99" s="37"/>
       <c r="Q99" s="37"/>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
       <c r="D100" s="34"/>
@@ -8655,7 +9146,7 @@
       <c r="P100" s="37"/>
       <c r="Q100" s="37"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
       <c r="D101" s="34"/>
@@ -8673,7 +9164,7 @@
       <c r="P101" s="37"/>
       <c r="Q101" s="37"/>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
       <c r="D102" s="34"/>
@@ -8691,7 +9182,7 @@
       <c r="P102" s="37"/>
       <c r="Q102" s="37"/>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
@@ -8709,7 +9200,7 @@
       <c r="P103" s="37"/>
       <c r="Q103" s="37"/>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
       <c r="D104" s="34"/>
@@ -8727,7 +9218,7 @@
       <c r="P104" s="37"/>
       <c r="Q104" s="37"/>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D105" s="34"/>
       <c r="E105" s="34"/>
       <c r="F105" s="36"/>
@@ -8743,7 +9234,7 @@
       <c r="P105" s="37"/>
       <c r="Q105" s="37"/>
     </row>
-    <row r="106" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="48"/>
       <c r="C106" s="48"/>
       <c r="D106" s="48"/>
@@ -8765,8 +9256,9 @@
       <c r="T106" s="66"/>
       <c r="U106" s="66"/>
       <c r="V106" s="60"/>
-    </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="Z106" s="60"/>
+    </row>
+    <row r="107" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
       <c r="D107" s="34"/>
@@ -8784,7 +9276,7 @@
       <c r="P107" s="37"/>
       <c r="Q107" s="37"/>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
@@ -8802,7 +9294,7 @@
       <c r="P108" s="37"/>
       <c r="Q108" s="37"/>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
@@ -8820,7 +9312,7 @@
       <c r="P109" s="37"/>
       <c r="Q109" s="37"/>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B110" s="34"/>
       <c r="C110" s="34"/>
       <c r="D110" s="34"/>
@@ -8838,7 +9330,7 @@
       <c r="P110" s="37"/>
       <c r="Q110" s="37"/>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
@@ -8856,7 +9348,7 @@
       <c r="P111" s="37"/>
       <c r="Q111" s="37"/>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B112" s="34"/>
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
@@ -8874,7 +9366,7 @@
       <c r="P112" s="37"/>
       <c r="Q112" s="37"/>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
@@ -8892,7 +9384,7 @@
       <c r="P113" s="37"/>
       <c r="Q113" s="37"/>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B114" s="34"/>
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
@@ -8910,7 +9402,7 @@
       <c r="P114" s="37"/>
       <c r="Q114" s="37"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
@@ -8928,7 +9420,7 @@
       <c r="P115" s="37"/>
       <c r="Q115" s="37"/>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
       <c r="D116" s="34"/>
@@ -8946,7 +9438,7 @@
       <c r="P116" s="37"/>
       <c r="Q116" s="37"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
@@ -8964,7 +9456,7 @@
       <c r="P117" s="37"/>
       <c r="Q117" s="37"/>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B118" s="34"/>
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
@@ -8982,7 +9474,7 @@
       <c r="P118" s="37"/>
       <c r="Q118" s="37"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B119" s="34"/>
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
@@ -9000,7 +9492,7 @@
       <c r="P119" s="37"/>
       <c r="Q119" s="37"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B120" s="34"/>
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
@@ -9018,7 +9510,7 @@
       <c r="P120" s="37"/>
       <c r="Q120" s="37"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
       <c r="D121" s="34"/>
@@ -9036,7 +9528,7 @@
       <c r="P121" s="37"/>
       <c r="Q121" s="37"/>
     </row>
-    <row r="122" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B122" s="48"/>
       <c r="C122" s="48"/>
       <c r="D122" s="48"/>
@@ -9058,8 +9550,9 @@
       <c r="T122" s="66"/>
       <c r="U122" s="66"/>
       <c r="V122" s="60"/>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="Z122" s="60"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.15">
       <c r="D123" s="34"/>
       <c r="E123" s="34"/>
       <c r="F123" s="36"/>
@@ -9075,7 +9568,7 @@
       <c r="P123" s="37"/>
       <c r="Q123" s="37"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.15">
       <c r="D124" s="34"/>
       <c r="E124" s="34"/>
       <c r="F124" s="36"/>
@@ -9091,7 +9584,7 @@
       <c r="P124" s="37"/>
       <c r="Q124" s="37"/>
     </row>
-    <row r="125" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B125" s="47"/>
       <c r="C125" s="47"/>
       <c r="D125" s="48"/>
@@ -9113,8 +9606,9 @@
       <c r="T125" s="66"/>
       <c r="U125" s="66"/>
       <c r="V125" s="60"/>
-    </row>
-    <row r="126" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z125" s="60"/>
+    </row>
+    <row r="126" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
       <c r="B126" s="35"/>
       <c r="C126" s="35"/>
@@ -9137,8 +9631,9 @@
       <c r="T126" s="66"/>
       <c r="U126" s="66"/>
       <c r="V126" s="60"/>
-    </row>
-    <row r="127" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z126" s="60"/>
+    </row>
+    <row r="127" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
       <c r="B127" s="35"/>
       <c r="C127" s="35"/>
@@ -9161,6 +9656,7 @@
       <c r="T127" s="66"/>
       <c r="U127" s="66"/>
       <c r="V127" s="60"/>
+      <c r="Z127" s="60"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9196,174 +9692,174 @@
       <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="81"/>
     </row>
     <row r="5" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="83"/>
+      <c r="C5" s="81"/>
     </row>
     <row r="6" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>131</v>
+        <v>116</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="83" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>129</v>
+      <c r="C8" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>148</v>
+      <c r="B9" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="81"/>
     </row>
     <row r="12" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
-      <c r="C12" s="83"/>
+      <c r="C12" s="81"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>128</v>
+      <c r="C13" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>132</v>
+      <c r="C14" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="85" t="s">
-        <v>134</v>
+      <c r="C15" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>136</v>
+      <c r="C16" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="81"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="14"/>
-      <c r="C19" s="83"/>
+      <c r="C19" s="81"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="85" t="s">
-        <v>138</v>
+      <c r="C20" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="85" t="s">
-        <v>141</v>
+      <c r="C21" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="85" t="s">
-        <v>143</v>
+      <c r="C22" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="84" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="85" t="s">
-        <v>145</v>
+      <c r="C23" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="84" t="s">
-        <v>150</v>
+      <c r="B27" s="82" t="s">
+        <v>145</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1044F-E582-F945-9ADF-4943D950C5B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD658C2-46AB-E540-867B-256D4AF89CD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14700" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-54640" yWindow="-5940" windowWidth="28500" windowHeight="26740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="147">
   <si>
     <t>Revenue</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Expected return on invested capital (innovation grade)</t>
-  </si>
-  <si>
     <t>Market Cap</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>G&amp;A y/y</t>
   </si>
   <si>
-    <t>NI 12M</t>
-  </si>
-  <si>
     <t>Q119</t>
   </si>
   <si>
@@ -385,18 +379,9 @@
     <t>OE y/y</t>
   </si>
   <si>
-    <t>http://www.worldgovernmentbonds.com/country/united-states/</t>
-  </si>
-  <si>
     <t>Microsoft Office</t>
   </si>
   <si>
-    <t>Net present value on future net income (terminal value)</t>
-  </si>
-  <si>
-    <t>Risk-free rate + market premium (opportunity cost)</t>
-  </si>
-  <si>
     <t>Productivity and office applications</t>
   </si>
   <si>
@@ -485,6 +470,15 @@
   </si>
   <si>
     <t>Q221</t>
+  </si>
+  <si>
+    <t>Net Income TTM</t>
+  </si>
+  <si>
+    <t>Revenue TTM</t>
+  </si>
+  <si>
+    <t>Revenue TTM y/y</t>
   </si>
 </sst>
 </file>
@@ -592,7 +586,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -733,9 +727,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -770,6 +761,15 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" customBuiltin="1"/>
@@ -857,7 +857,7 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>239184</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1166,11 +1166,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1193,10 +1193,10 @@
         <v>68</v>
       </c>
       <c r="C2" s="21">
-        <v>242.2</v>
-      </c>
-      <c r="D2" s="79">
-        <v>44232</v>
+        <v>232.38</v>
+      </c>
+      <c r="D2" s="78">
+        <v>44253</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>38</v>
@@ -1218,8 +1218,8 @@
         <f>Reports!AA22</f>
         <v>7616</v>
       </c>
-      <c r="D3" s="80" t="s">
-        <v>148</v>
+      <c r="D3" s="79" t="s">
+        <v>143</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>35</v>
@@ -1227,9 +1227,7 @@
       <c r="F3" s="13">
         <v>0.02</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>69</v>
-      </c>
+      <c r="G3" s="22"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -1237,11 +1235,11 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="19">
         <f>C2*C3</f>
-        <v>1844595.2</v>
+        <v>1769806.08</v>
       </c>
       <c r="D4" s="70"/>
       <c r="E4" s="6" t="s">
@@ -1251,13 +1249,9 @@
         <f>5%</f>
         <v>0.05</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>118</v>
-      </c>
+      <c r="G4" s="22"/>
       <c r="I4" s="10"/>
-      <c r="L4" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
@@ -1268,8 +1262,8 @@
         <f>Reports!AA33</f>
         <v>71445</v>
       </c>
-      <c r="D5" s="80" t="s">
-        <v>148</v>
+      <c r="D5" s="79" t="s">
+        <v>143</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>37</v>
@@ -1278,9 +1272,7 @@
         <f>NPV(F4,H26:IA26)</f>
         <v>3102766.525616121</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>117</v>
-      </c>
+      <c r="G5" s="22"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -1288,11 +1280,11 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="19">
         <f>C4-C5</f>
-        <v>1773150.2</v>
+        <v>1698361.08</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="14" t="s">
@@ -1309,23 +1301,23 @@
         <v>66</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="24">
         <f>C6/C3</f>
-        <v>232.81909138655462</v>
+        <v>222.99909138655462</v>
       </c>
       <c r="D7" s="70"/>
       <c r="E7" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="26">
         <f>F6/C3</f>
         <v>416.78197552732684</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="88">
         <f>F7/C2-1</f>
-        <v>0.72081740514998693</v>
+        <v>0.79353634360670822</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -1468,7 +1460,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="4">
         <f>SUM(Reports!B4:E4)</f>
@@ -1517,7 +1509,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="4">
         <f>SUM(Reports!B5:E5)</f>
@@ -4063,7 +4055,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="11">
@@ -4149,7 +4141,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="11">
         <f t="shared" ref="C36:V37" si="158">C19/B19-1</f>
@@ -4234,7 +4226,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="11">
         <f t="shared" si="158"/>
@@ -4319,7 +4311,7 @@
     </row>
     <row r="38" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" s="71">
         <f>C21/B21-1</f>
@@ -4533,7 +4525,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="3">
         <f>Reports!M37</f>
@@ -4554,7 +4546,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="3">
         <f>Reports!M38</f>
@@ -4575,7 +4567,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46" s="3">
         <f>Reports!M39</f>
@@ -4596,7 +4588,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="33">
         <f>D45-D44-D41</f>
@@ -4617,7 +4609,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="33">
         <f>D45-D46</f>
@@ -4638,7 +4630,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="10">
         <f>D26/D49</f>
@@ -4659,7 +4651,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D52" s="10">
         <f>D26/D45</f>
@@ -4680,7 +4672,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="10">
         <f>D26/(D49-D44)</f>
@@ -4701,7 +4693,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D54" s="10">
         <f>D26/D48</f>
@@ -4729,7 +4721,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="10">
         <f>C10/B10-1</f>
@@ -4774,7 +4766,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="10">
         <f t="shared" ref="C57:D58" si="162">C11/B11-1</f>
@@ -4819,7 +4811,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="10">
         <f t="shared" si="162"/>
@@ -4868,22 +4860,21 @@
     <hyperlink ref="A7" r:id="rId2" display="Bill Gates (Technology Advisor)" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A1" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L4" r:id="rId5" xr:uid="{96DB7DB3-5DAF-D749-AE4E-16370F5C5188}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC127"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
+      <selection pane="bottomRight" activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4957,34 +4948,34 @@
         <v>58</v>
       </c>
       <c r="R1" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="U1" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="61" t="s">
-        <v>94</v>
-      </c>
       <c r="V1" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="W1" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="Y1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="X1" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z1" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA1" s="84" t="s">
-        <v>148</v>
+      <c r="Z1" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA1" s="83" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
@@ -5038,33 +5029,33 @@
         <v>59</v>
       </c>
       <c r="R2" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="61" t="s">
+      <c r="U2" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="U2" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="V2" s="78">
+      <c r="V2" s="77">
         <v>43738</v>
       </c>
-      <c r="W2" s="73">
+      <c r="W2" s="72">
         <v>43830</v>
       </c>
-      <c r="X2" s="73">
+      <c r="X2" s="72">
         <v>43921</v>
       </c>
-      <c r="Y2" s="73">
+      <c r="Y2" s="72">
         <v>44012</v>
       </c>
-      <c r="Z2" s="87">
+      <c r="Z2" s="86">
         <v>44104</v>
       </c>
-      <c r="AA2" s="85">
+      <c r="AA2" s="84">
         <v>44196</v>
       </c>
     </row>
@@ -5144,7 +5135,7 @@
       <c r="Y3" s="3">
         <v>11752</v>
       </c>
-      <c r="Z3" s="88">
+      <c r="Z3" s="87">
         <v>12319</v>
       </c>
       <c r="AA3" s="3">
@@ -5161,7 +5152,7 @@
     </row>
     <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="34">
         <v>5475</v>
@@ -5235,7 +5226,7 @@
       <c r="Y4" s="3">
         <v>13371</v>
       </c>
-      <c r="Z4" s="88">
+      <c r="Z4" s="87">
         <v>12986</v>
       </c>
       <c r="AA4" s="3">
@@ -5252,7 +5243,7 @@
     </row>
     <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="34">
         <v>11236</v>
@@ -5326,7 +5317,7 @@
       <c r="Y5" s="3">
         <v>12910</v>
       </c>
-      <c r="Z5" s="88">
+      <c r="Z5" s="87">
         <v>11849</v>
       </c>
       <c r="AA5" s="3">
@@ -5382,7 +5373,7 @@
       <c r="T6" s="67"/>
       <c r="U6" s="67"/>
       <c r="V6" s="36"/>
-      <c r="Z6" s="88"/>
+      <c r="Z6" s="87"/>
     </row>
     <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="34"/>
@@ -5406,7 +5397,7 @@
       <c r="T7" s="67"/>
       <c r="U7" s="67"/>
       <c r="V7" s="36"/>
-      <c r="Z7" s="88"/>
+      <c r="Z7" s="87"/>
     </row>
     <row r="8" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
@@ -5477,7 +5468,7 @@
         <v>30085</v>
       </c>
       <c r="R8" s="41">
-        <f t="shared" ref="R8:Z8" si="5">SUM(R3:R6)</f>
+        <f t="shared" ref="R8:X8" si="5">SUM(R3:R6)</f>
         <v>29084</v>
       </c>
       <c r="S8" s="42">
@@ -5601,7 +5592,7 @@
       <c r="Y9" s="3">
         <v>12339</v>
       </c>
-      <c r="Z9" s="88">
+      <c r="Z9" s="87">
         <v>11002</v>
       </c>
       <c r="AA9" s="3">
@@ -5793,7 +5784,7 @@
       <c r="Y11" s="3">
         <v>5214</v>
       </c>
-      <c r="Z11" s="88">
+      <c r="Z11" s="87">
         <v>4926</v>
       </c>
       <c r="AA11" s="3">
@@ -5876,7 +5867,7 @@
       <c r="Y12" s="3">
         <v>5417</v>
       </c>
-      <c r="Z12" s="88">
+      <c r="Z12" s="87">
         <v>4231</v>
       </c>
       <c r="AA12" s="3">
@@ -5960,7 +5951,7 @@
       <c r="Y13" s="3">
         <v>1656</v>
       </c>
-      <c r="Z13" s="88">
+      <c r="Z13" s="87">
         <v>1119</v>
       </c>
       <c r="AA13" s="3">
@@ -6261,7 +6252,7 @@
       <c r="Y16" s="3">
         <v>15</v>
       </c>
-      <c r="Z16" s="88">
+      <c r="Z16" s="87">
         <v>248</v>
       </c>
       <c r="AA16" s="3">
@@ -6453,7 +6444,7 @@
       <c r="Y18" s="3">
         <v>2220</v>
       </c>
-      <c r="Z18" s="88">
+      <c r="Z18" s="87">
         <v>2231</v>
       </c>
       <c r="AA18" s="3">
@@ -6461,8 +6452,8 @@
       </c>
     </row>
     <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="74" t="s">
-        <v>109</v>
+      <c r="A19" s="73" t="s">
+        <v>107</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -6487,7 +6478,7 @@
       <c r="T19" s="62"/>
       <c r="U19" s="62"/>
       <c r="V19" s="36"/>
-      <c r="Z19" s="88"/>
+      <c r="Z19" s="87"/>
     </row>
     <row r="20" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
@@ -6602,107 +6593,107 @@
       <c r="A21" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="74">
         <f>B20/B22</f>
         <v>0.68015806490240693</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="74">
         <f t="shared" ref="C21:H21" si="34">C20/C22</f>
         <v>0.73592864890924425</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="74">
         <f t="shared" si="34"/>
         <v>0.60519606652907609</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="74">
         <f t="shared" si="34"/>
         <v>0.65041558119340037</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="75">
         <f t="shared" si="34"/>
         <v>0.57277460947185721</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="76">
         <f t="shared" si="34"/>
         <v>0.62257100149476829</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="76">
         <f t="shared" si="34"/>
         <v>0.47038196618659989</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="76">
         <f t="shared" ref="I21:M21" si="35">I20/I22</f>
         <v>0.53373691512170518</v>
       </c>
-      <c r="J21" s="76">
+      <c r="J21" s="75">
         <f t="shared" si="35"/>
         <v>0.71952767902488568</v>
       </c>
-      <c r="K21" s="77">
+      <c r="K21" s="76">
         <f t="shared" si="35"/>
         <v>0.80038314176245207</v>
       </c>
-      <c r="L21" s="77">
+      <c r="L21" s="76">
         <f t="shared" si="35"/>
         <v>0.70216306156405994</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="76">
         <f t="shared" si="35"/>
         <v>1.033692031770433</v>
       </c>
-      <c r="N21" s="76">
+      <c r="N21" s="75">
         <f t="shared" ref="N21:O21" si="36">N20/N22</f>
         <v>0.84318502372098991</v>
       </c>
-      <c r="O21" s="77">
+      <c r="O21" s="76">
         <f t="shared" si="36"/>
         <v>0.97950999274814221</v>
       </c>
-      <c r="P21" s="77">
+      <c r="P21" s="76">
         <f t="shared" ref="P21:Q21" si="37">P20/P22</f>
         <v>0.95252758532204262</v>
       </c>
-      <c r="Q21" s="77">
+      <c r="Q21" s="76">
         <f t="shared" si="37"/>
         <v>1.1412218649517685</v>
       </c>
-      <c r="R21" s="76">
+      <c r="R21" s="75">
         <f t="shared" ref="R21" si="38">R20/R22</f>
         <v>1.1362348699459182</v>
       </c>
-      <c r="S21" s="77">
+      <c r="S21" s="76">
         <f>S20/S22</f>
         <v>1.0839340885684861</v>
       </c>
-      <c r="T21" s="77">
+      <c r="T21" s="76">
         <f>T20/T22</f>
         <v>1.1375258264462811</v>
       </c>
-      <c r="U21" s="77">
+      <c r="U21" s="76">
         <f>U20/U22</f>
         <v>1.7059508408796895</v>
       </c>
-      <c r="V21" s="76">
+      <c r="V21" s="75">
         <f t="shared" ref="V21:W21" si="39">V20/V22</f>
         <v>1.3849546044098573</v>
       </c>
-      <c r="W21" s="77">
+      <c r="W21" s="76">
         <f t="shared" si="39"/>
         <v>1.5146274866727343</v>
       </c>
-      <c r="X21" s="77">
+      <c r="X21" s="76">
         <f t="shared" ref="X21:Y21" si="40">X20/X22</f>
         <v>1.4009120521172638</v>
       </c>
-      <c r="Y21" s="77">
+      <c r="Y21" s="76">
         <f t="shared" si="40"/>
         <v>1.4643137254901961</v>
       </c>
-      <c r="Z21" s="76">
+      <c r="Z21" s="75">
         <f t="shared" ref="Z21:AA21" si="41">Z20/Z22</f>
         <v>1.8191698310855047</v>
       </c>
-      <c r="AA21" s="77">
+      <c r="AA21" s="76">
         <f t="shared" si="41"/>
         <v>2.0303308823529411</v>
       </c>
@@ -6783,7 +6774,7 @@
       <c r="Y22" s="3">
         <v>7650</v>
       </c>
-      <c r="Z22" s="88">
+      <c r="Z22" s="87">
         <v>7637</v>
       </c>
       <c r="AA22" s="3">
@@ -6891,27 +6882,27 @@
         <v>0.69119435299700449</v>
       </c>
       <c r="V24" s="53">
-        <f>V10/V8</f>
+        <f t="shared" ref="V24:AA24" si="45">V10/V8</f>
         <v>0.6851913477537438</v>
       </c>
       <c r="W24" s="54">
-        <f>W10/W8</f>
+        <f t="shared" si="45"/>
         <v>0.66514929821709212</v>
       </c>
       <c r="X24" s="54">
-        <f>X10/X8</f>
+        <f t="shared" si="45"/>
         <v>0.68661660146769077</v>
       </c>
       <c r="Y24" s="54">
-        <f>Y10/Y8</f>
+        <f t="shared" si="45"/>
         <v>0.67557121447164303</v>
       </c>
       <c r="Z24" s="53">
-        <f>Z10/Z8</f>
+        <f t="shared" si="45"/>
         <v>0.70388114334930285</v>
       </c>
       <c r="AA24" s="54">
-        <f>AA10/AA8</f>
+        <f t="shared" si="45"/>
         <v>0.67048936762930633</v>
       </c>
     </row>
@@ -6920,107 +6911,107 @@
         <v>17</v>
       </c>
       <c r="B25" s="55">
-        <f t="shared" ref="B25:R25" si="45">B15/B8</f>
+        <f t="shared" ref="B25:R25" si="46">B15/B8</f>
         <v>0.30102150769363389</v>
       </c>
       <c r="C25" s="55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.30294673214960333</v>
       </c>
       <c r="D25" s="55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.31220948962216394</v>
       </c>
       <c r="E25" s="55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.28787195671776378</v>
       </c>
       <c r="F25" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.28426321213013395</v>
       </c>
       <c r="G25" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.253235837955959</v>
       </c>
       <c r="H25" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.25731820174370462</v>
       </c>
       <c r="I25" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.20325992044241778</v>
       </c>
       <c r="J25" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.30622947829259395</v>
       </c>
       <c r="K25" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.30608688918144505</v>
       </c>
       <c r="L25" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.28963467172152335</v>
       </c>
       <c r="M25" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.30001952743604765</v>
       </c>
       <c r="N25" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.3141250305648382</v>
       </c>
       <c r="O25" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.30012448993706342</v>
       </c>
       <c r="P25" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.30918378761325926</v>
       </c>
       <c r="Q25" s="57">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.3449891972743892</v>
       </c>
       <c r="R25" s="56">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.34228441754916794</v>
       </c>
       <c r="S25" s="64">
-        <f t="shared" ref="S25:T25" si="46">S15/S8</f>
+        <f t="shared" ref="S25:T25" si="47">S15/S8</f>
         <v>0.3159126605278556</v>
       </c>
       <c r="T25" s="64">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.3382617513329626</v>
       </c>
       <c r="U25" s="64">
-        <f t="shared" ref="U25" si="47">U15/U8</f>
+        <f t="shared" ref="U25" si="48">U15/U8</f>
         <v>0.3679152949550672</v>
       </c>
       <c r="V25" s="56">
-        <f>V15/V8</f>
+        <f t="shared" ref="V25:AA25" si="49">V15/V8</f>
         <v>0.38378460142187265</v>
       </c>
       <c r="W25" s="57">
-        <f>W15/W8</f>
+        <f t="shared" si="49"/>
         <v>0.37638866309001245</v>
       </c>
       <c r="X25" s="57">
-        <f>X15/X8</f>
+        <f t="shared" si="49"/>
         <v>0.37049199051997372</v>
       </c>
       <c r="Y25" s="57">
-        <f>Y15/Y8</f>
+        <f t="shared" si="49"/>
         <v>0.35250966266137301</v>
       </c>
       <c r="Z25" s="56">
-        <f>Z15/Z8</f>
+        <f t="shared" si="49"/>
         <v>0.42730257845723207</v>
       </c>
       <c r="AA25" s="57">
-        <f>AA15/AA8</f>
+        <f t="shared" si="49"/>
         <v>0.41547497446373849</v>
       </c>
     </row>
@@ -7029,107 +7020,107 @@
         <v>24</v>
       </c>
       <c r="B26" s="55">
-        <f t="shared" ref="B26:R26" si="48">B18/B17</f>
+        <f t="shared" ref="B26:R26" si="50">B18/B17</f>
         <v>0.19272313814667424</v>
       </c>
       <c r="C26" s="55">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.24552082046212775</v>
       </c>
       <c r="D26" s="55">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.23507748964247352</v>
       </c>
       <c r="E26" s="55">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.21535468422627957</v>
       </c>
       <c r="F26" s="56">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.16198077271902775</v>
       </c>
       <c r="G26" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.14637062339880444</v>
       </c>
       <c r="H26" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.25416997617156473</v>
       </c>
       <c r="I26" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>5.0482387256001793E-2</v>
       </c>
       <c r="J26" s="56">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.16991357843855281</v>
       </c>
       <c r="K26" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.21877337322363499</v>
       </c>
       <c r="L26" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.22667042571186918</v>
       </c>
       <c r="M26" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-1.3948228198039708E-2</v>
       </c>
       <c r="N26" s="56">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.17635270541082165</v>
       </c>
       <c r="O26" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.17635270541082165</v>
       </c>
       <c r="P26" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.14084018053466035</v>
       </c>
       <c r="Q26" s="57">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.16919475655430713</v>
       </c>
       <c r="R26" s="56">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.13667938557871051</v>
       </c>
       <c r="S26" s="64">
-        <f t="shared" ref="S26:Y26" si="49">S18/S17</f>
+        <f t="shared" ref="S26:Y26" si="51">S18/S17</f>
         <v>0.18921521425132404</v>
       </c>
       <c r="T26" s="64">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.15992752241083349</v>
       </c>
       <c r="U26" s="64">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-4.6919657033979038E-2</v>
       </c>
       <c r="V26" s="56">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.15828472331704241</v>
       </c>
       <c r="W26" s="57">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.17294994675186368</v>
       </c>
       <c r="X26" s="57">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.16281242700303666</v>
       </c>
       <c r="Y26" s="57">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.16540008940545373</v>
       </c>
       <c r="Z26" s="56">
-        <f t="shared" ref="Z26:AA26" si="50">Z18/Z17</f>
+        <f t="shared" ref="Z26:AA26" si="52">Z18/Z17</f>
         <v>0.13836516993301909</v>
       </c>
       <c r="AA26" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.15673228990565524</v>
       </c>
     </row>
@@ -7163,105 +7154,105 @@
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="50">
-        <f t="shared" ref="F28:R28" si="51">(F8/B8)-1</f>
+        <f t="shared" ref="F28:R28" si="53">(F8/B8)-1</f>
         <v>-0.12163268824619633</v>
       </c>
       <c r="G28" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-0.10102002266717036</v>
       </c>
       <c r="H28" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-5.5133692300612047E-2</v>
       </c>
       <c r="I28" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-7.06041478809738E-2</v>
       </c>
       <c r="J28" s="50">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>7.600961774375592E-2</v>
       </c>
       <c r="K28" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>8.5308455202555145E-2</v>
       </c>
       <c r="L28" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.13058302079781803</v>
       </c>
       <c r="M28" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.24211700785873669</v>
       </c>
       <c r="N28" s="50">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.11902590295512594</v>
       </c>
       <c r="O28" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.11972430883605667</v>
       </c>
       <c r="P28" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.15539376184732046</v>
       </c>
       <c r="Q28" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.17496582698691654</v>
       </c>
       <c r="R28" s="50">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.18526367267095933</v>
       </c>
       <c r="S28" s="65">
-        <f t="shared" ref="S28:U28" si="52">(S8/O8)-1</f>
+        <f t="shared" ref="S28:U28" si="54">(S8/O8)-1</f>
         <v>0.12286465177398154</v>
       </c>
       <c r="T28" s="65">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.13990081658525666</v>
       </c>
       <c r="U28" s="65">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.12072461359481479</v>
       </c>
       <c r="V28" s="50">
-        <f>(V8/R8)-1</f>
+        <f t="shared" ref="V28:AC28" si="55">(V8/R8)-1</f>
         <v>0.13653555219364599</v>
       </c>
       <c r="W28" s="51">
-        <f>(W8/S8)-1</f>
+        <f t="shared" si="55"/>
         <v>0.13658341289150311</v>
       </c>
       <c r="X28" s="51">
-        <f>(X8/T8)-1</f>
+        <f t="shared" si="55"/>
         <v>0.14556278826338698</v>
       </c>
       <c r="Y28" s="51">
-        <f>(Y8/U8)-1</f>
+        <f t="shared" si="55"/>
         <v>0.12800664353293589</v>
       </c>
       <c r="Z28" s="50">
-        <f>(Z8/V8)-1</f>
+        <f t="shared" si="55"/>
         <v>0.12400544546967174</v>
       </c>
       <c r="AA28" s="51">
-        <f>(AA8/W8)-1</f>
+        <f t="shared" si="55"/>
         <v>0.16718148810491518</v>
       </c>
       <c r="AB28" s="51">
-        <f>(AB8/X8)-1</f>
+        <f t="shared" si="55"/>
         <v>0.15183318580280392</v>
       </c>
       <c r="AC28" s="51">
-        <f>(AC8/Y8)-1</f>
+        <f t="shared" si="55"/>
         <v>0.15060605263849824</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
@@ -7269,193 +7260,193 @@
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
       <c r="M29" s="54">
-        <f t="shared" ref="M29:R31" si="53">M11/I11-1</f>
+        <f t="shared" ref="M29:R31" si="56">M11/I11-1</f>
         <v>0.11697393515575327</v>
       </c>
       <c r="N29" s="53">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.1506761107533805</v>
       </c>
       <c r="O29" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.14435009797517973</v>
       </c>
       <c r="P29" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.10730253353204167</v>
       </c>
       <c r="Q29" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.1192373363688104</v>
       </c>
       <c r="R29" s="53">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.11275881365416907</v>
       </c>
       <c r="S29" s="63">
-        <f t="shared" ref="S29:AA31" si="54">S11/O11-1</f>
+        <f t="shared" ref="S29:AA31" si="57">S11/O11-1</f>
         <v>0.1615296803652968</v>
       </c>
       <c r="T29" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.16177658142664875</v>
       </c>
       <c r="U29" s="63">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.14747012458682929</v>
       </c>
       <c r="V29" s="53">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.14785013829519733</v>
       </c>
       <c r="W29" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.13095823095823089</v>
       </c>
       <c r="X29" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.13229842446709927</v>
       </c>
       <c r="Y29" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.15532904941280745</v>
       </c>
       <c r="Z29" s="53">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>7.9079956188389922E-2</v>
       </c>
       <c r="AA29" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>6.4305887464696898E-2</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M30" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>7.3536768384192097E-2</v>
       </c>
       <c r="N30" s="53">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.1845866998135488</v>
       </c>
       <c r="O30" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.11841137533709234</v>
       </c>
       <c r="P30" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.11957644628099184</v>
       </c>
       <c r="Q30" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.1090400745573159</v>
       </c>
       <c r="R30" s="53">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>7.5026232948583349E-2</v>
       </c>
       <c r="S30" s="63">
-        <f t="shared" ref="S30:U30" si="55">S12/O12-1</f>
+        <f t="shared" ref="S30:U30" si="58">S12/O12-1</f>
         <v>5.6992547128451587E-3</v>
       </c>
       <c r="T30" s="63">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>5.3056516724336866E-2</v>
       </c>
       <c r="U30" s="63">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>4.2436974789916038E-2</v>
       </c>
       <c r="V30" s="53">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>5.8321132259638864E-2</v>
       </c>
       <c r="W30" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>7.5196163905841384E-2</v>
       </c>
       <c r="X30" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>7.5794085432639546E-2</v>
       </c>
       <c r="Y30" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>9.1696896412736706E-2</v>
       </c>
       <c r="Z30" s="53">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-2.44408577357621E-2</v>
       </c>
       <c r="AA30" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>2.8380295965944047E-3</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M31" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.27671022290545744</v>
       </c>
       <c r="N31" s="53">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.11578947368421044</v>
       </c>
       <c r="O31" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.26166097838452784</v>
       </c>
       <c r="P31" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>4.991680532445919E-3</v>
       </c>
       <c r="Q31" s="54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-0.23479831426851294</v>
       </c>
       <c r="R31" s="53">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-1.4579759862778707E-2</v>
       </c>
       <c r="S31" s="63">
-        <f t="shared" ref="S31:U31" si="56">S13/O13-1</f>
+        <f t="shared" ref="S31:U31" si="59">S13/O13-1</f>
         <v>2.0739404869251521E-2</v>
       </c>
       <c r="T31" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-2.4006622516556275E-2</v>
       </c>
       <c r="U31" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.12116443745082606</v>
       </c>
       <c r="V31" s="53">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-7.6588337684943442E-2</v>
       </c>
       <c r="W31" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-9.7173144876324669E-3</v>
       </c>
       <c r="X31" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>7.9728583545377374E-2</v>
       </c>
       <c r="Y31" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.16210526315789475</v>
       </c>
       <c r="Z31" s="53">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>5.4665409990575009E-2</v>
       </c>
       <c r="AA31" s="54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1.605709188224802E-2</v>
       </c>
     </row>
@@ -7487,63 +7478,63 @@
       <c r="K33" s="48"/>
       <c r="L33" s="48"/>
       <c r="M33" s="42">
-        <f t="shared" ref="M33:S33" si="57">M34-M35</f>
+        <f t="shared" ref="M33:S33" si="60">M34-M35</f>
         <v>46787</v>
       </c>
       <c r="N33" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>52996</v>
       </c>
       <c r="O33" s="42">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>53520</v>
       </c>
       <c r="P33" s="42">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>55113</v>
       </c>
       <c r="Q33" s="42">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>57528</v>
       </c>
       <c r="R33" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>59750</v>
       </c>
       <c r="S33" s="42">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>54493</v>
       </c>
       <c r="T33" s="42">
-        <f t="shared" ref="T33:X33" si="58">T34-T35</f>
+        <f t="shared" ref="T33:X33" si="61">T34-T35</f>
         <v>58518</v>
       </c>
       <c r="U33" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>61641</v>
       </c>
       <c r="V33" s="41">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>67141</v>
       </c>
       <c r="W33" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>64645</v>
       </c>
       <c r="X33" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>71016</v>
       </c>
       <c r="Y33" s="42">
-        <f t="shared" ref="Y33:AA33" si="59">Y34-Y35</f>
+        <f t="shared" ref="Y33:AA33" si="62">Y34-Y35</f>
         <v>73200</v>
       </c>
       <c r="Z33" s="41">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>74425</v>
       </c>
       <c r="AA33" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>71445</v>
       </c>
     </row>
@@ -7614,7 +7605,7 @@
         <f>13576+122951</f>
         <v>136527</v>
       </c>
-      <c r="Z34" s="88">
+      <c r="Z34" s="87">
         <f>17205+120772</f>
         <v>137977</v>
       </c>
@@ -7690,7 +7681,7 @@
         <f>3749+59578</f>
         <v>63327</v>
       </c>
-      <c r="Z35" s="88">
+      <c r="Z35" s="87">
         <f>6497+57055</f>
         <v>63552</v>
       </c>
@@ -7721,11 +7712,11 @@
       <c r="T36" s="62"/>
       <c r="U36" s="62"/>
       <c r="V36" s="36"/>
-      <c r="Z36" s="88"/>
+      <c r="Z36" s="87"/>
     </row>
     <row r="37" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -7790,7 +7781,7 @@
         <f>43351+7038</f>
         <v>50389</v>
       </c>
-      <c r="Z37" s="88">
+      <c r="Z37" s="87">
         <f>43890+6923</f>
         <v>50813</v>
       </c>
@@ -7801,7 +7792,7 @@
     </row>
     <row r="38" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -7854,7 +7845,7 @@
       <c r="Y38" s="3">
         <v>301311</v>
       </c>
-      <c r="Z38" s="88">
+      <c r="Z38" s="87">
         <v>301001</v>
       </c>
       <c r="AA38" s="3">
@@ -7863,7 +7854,7 @@
     </row>
     <row r="39" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -7915,7 +7906,7 @@
       <c r="Y39" s="3">
         <v>183007</v>
       </c>
-      <c r="Z39" s="88">
+      <c r="Z39" s="87">
         <v>177609</v>
       </c>
       <c r="AA39" s="3">
@@ -7944,11 +7935,11 @@
       <c r="T40" s="37"/>
       <c r="U40" s="37"/>
       <c r="V40" s="36"/>
-      <c r="Z40" s="88"/>
+      <c r="Z40" s="87"/>
     </row>
     <row r="41" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
@@ -7962,69 +7953,69 @@
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="46">
-        <f t="shared" ref="M41:R41" si="60">M38-M37-M34</f>
+        <f t="shared" ref="M41:R41" si="63">M38-M37-M34</f>
         <v>72103</v>
       </c>
       <c r="N41" s="45">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>65639</v>
       </c>
       <c r="O41" s="46">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>68834</v>
       </c>
       <c r="P41" s="46">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>69101</v>
       </c>
       <c r="Q41" s="46">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>81344</v>
       </c>
       <c r="R41" s="45">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>78305</v>
       </c>
       <c r="S41" s="46">
-        <f t="shared" ref="S41:T41" si="61">S38-S37-S34</f>
+        <f t="shared" ref="S41:T41" si="64">S38-S37-S34</f>
         <v>81138</v>
       </c>
       <c r="T41" s="46">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>81699</v>
       </c>
       <c r="U41" s="46">
-        <f t="shared" ref="U41:V41" si="62">U38-U37-U34</f>
+        <f t="shared" ref="U41:V41" si="65">U38-U37-U34</f>
         <v>102961</v>
       </c>
       <c r="V41" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>92698</v>
       </c>
       <c r="W41" s="46">
-        <f t="shared" ref="W41:X41" si="63">W38-W37-W34</f>
+        <f t="shared" ref="W41:X41" si="66">W38-W37-W34</f>
         <v>99167</v>
       </c>
       <c r="X41" s="46">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>98904</v>
       </c>
       <c r="Y41" s="46">
-        <f t="shared" ref="Y41:AA41" si="64">Y38-Y37-Y34</f>
+        <f t="shared" ref="Y41:AA41" si="67">Y38-Y37-Y34</f>
         <v>114395</v>
       </c>
       <c r="Z41" s="45">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>112211</v>
       </c>
       <c r="AA41" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>121395</v>
       </c>
     </row>
     <row r="42" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -8038,63 +8029,63 @@
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="46">
-        <f t="shared" ref="M42:R42" si="65">M38-M39</f>
+        <f t="shared" ref="M42:R42" si="68">M38-M39</f>
         <v>87711</v>
       </c>
       <c r="N42" s="45">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>89647</v>
       </c>
       <c r="O42" s="46">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>78360</v>
       </c>
       <c r="P42" s="46">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>79239</v>
       </c>
       <c r="Q42" s="46">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>82718</v>
       </c>
       <c r="R42" s="45">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>85967</v>
       </c>
       <c r="S42" s="46">
-        <f t="shared" ref="S42:T42" si="66">S38-S39</f>
+        <f t="shared" ref="S42:T42" si="69">S38-S39</f>
         <v>92128</v>
       </c>
       <c r="T42" s="46">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>94864</v>
       </c>
       <c r="U42" s="46">
-        <f t="shared" ref="U42:V42" si="67">U38-U39</f>
+        <f t="shared" ref="U42:V42" si="70">U38-U39</f>
         <v>102330</v>
       </c>
       <c r="V42" s="45">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>106061</v>
       </c>
       <c r="W42" s="46">
-        <f t="shared" ref="W42:X42" si="68">W38-W39</f>
+        <f t="shared" ref="W42:X42" si="71">W38-W39</f>
         <v>110109</v>
       </c>
       <c r="X42" s="46">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>114501</v>
       </c>
       <c r="Y42" s="46">
-        <f t="shared" ref="Y42:AA42" si="69">Y38-Y39</f>
+        <f t="shared" ref="Y42:AA42" si="72">Y38-Y39</f>
         <v>118304</v>
       </c>
       <c r="Z42" s="45">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>123392</v>
       </c>
       <c r="AA42" s="46">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>130236</v>
       </c>
     </row>
@@ -8121,11 +8112,11 @@
       <c r="U43" s="37"/>
       <c r="V43" s="36"/>
       <c r="W43" s="37"/>
-      <c r="Z43" s="88"/>
+      <c r="Z43" s="87"/>
     </row>
     <row r="44" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -8139,323 +8130,323 @@
       <c r="K44" s="48"/>
       <c r="L44" s="48"/>
       <c r="M44" s="42">
-        <f t="shared" ref="M44:R44" si="70">SUM(J20:M20)</f>
+        <f t="shared" ref="M44:R44" si="73">SUM(J20:M20)</f>
         <v>25489</v>
       </c>
       <c r="N44" s="41">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>26398</v>
       </c>
       <c r="O44" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>27683.022044088175</v>
       </c>
       <c r="P44" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>29621.022044088175</v>
       </c>
       <c r="Q44" s="42">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>30425.022044088175</v>
       </c>
       <c r="R44" s="41">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>32673.022044088175</v>
       </c>
       <c r="S44" s="42">
-        <f t="shared" ref="S44:AA44" si="71">SUM(P20:S20)</f>
+        <f t="shared" ref="S44:AA44" si="74">SUM(P20:S20)</f>
         <v>33541</v>
       </c>
       <c r="T44" s="42">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>34926</v>
       </c>
       <c r="U44" s="42">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>39240</v>
       </c>
       <c r="V44" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>41094</v>
       </c>
       <c r="W44" s="42">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>44323</v>
       </c>
       <c r="X44" s="42">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>46266</v>
       </c>
       <c r="Y44" s="42">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>44281</v>
       </c>
       <c r="Z44" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>47496</v>
       </c>
       <c r="AA44" s="42">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>51310</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A45" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M45" s="54">
-        <f t="shared" ref="M45:S45" si="72">M44/M42</f>
+        <f t="shared" ref="M45:S45" si="75">M44/M42</f>
         <v>0.29060209095780459</v>
       </c>
       <c r="N45" s="53">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.29446607248429951</v>
       </c>
       <c r="O45" s="54">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.35328001587657193</v>
       </c>
       <c r="P45" s="54">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.37381872618392681</v>
       </c>
       <c r="Q45" s="54">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.36781621949380033</v>
       </c>
       <c r="R45" s="53">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.38006469975790913</v>
       </c>
       <c r="S45" s="54">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.36406955540118097</v>
       </c>
       <c r="T45" s="54">
-        <f t="shared" ref="T45:V45" si="73">T44/T42</f>
+        <f t="shared" ref="T45:V45" si="76">T44/T42</f>
         <v>0.36816916849384385</v>
       </c>
       <c r="U45" s="54">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.38346525945470539</v>
       </c>
       <c r="V45" s="53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.38745627516240655</v>
       </c>
       <c r="W45" s="54">
-        <f t="shared" ref="W45:X45" si="74">W44/W42</f>
+        <f t="shared" ref="W45:X45" si="77">W44/W42</f>
         <v>0.40253748558246827</v>
       </c>
       <c r="X45" s="54">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.40406634003196479</v>
       </c>
       <c r="Y45" s="54">
-        <f t="shared" ref="Y45:AA45" si="75">Y44/Y42</f>
+        <f t="shared" ref="Y45:AA45" si="78">Y44/Y42</f>
         <v>0.37429841763592103</v>
       </c>
       <c r="Z45" s="53">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0.38491960580912865</v>
       </c>
       <c r="AA45" s="54">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0.39397708774839524</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M46" s="54">
-        <f t="shared" ref="M46:R46" si="76">M44/M38</f>
+        <f t="shared" ref="M46:R46" si="79">M44/M38</f>
         <v>0.10182891751094635</v>
       </c>
       <c r="N46" s="53">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.10597478090864201</v>
       </c>
       <c r="O46" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.10813553764638764</v>
       </c>
       <c r="P46" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.12065736870140235</v>
       </c>
       <c r="Q46" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.1175401086509773</v>
       </c>
       <c r="R46" s="53">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.12682691122971587</v>
       </c>
       <c r="S46" s="54">
-        <f t="shared" ref="S46:T46" si="77">S44/S38</f>
+        <f t="shared" ref="S46:T46" si="80">S44/S38</f>
         <v>0.12957246995468574</v>
       </c>
       <c r="T46" s="54">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.13265674317554249</v>
       </c>
       <c r="U46" s="54">
-        <f t="shared" ref="U46:V46" si="78">U44/U38</f>
+        <f t="shared" ref="U46:V46" si="81">U44/U38</f>
         <v>0.13693658482111698</v>
       </c>
       <c r="V46" s="53">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.14731408291659945</v>
       </c>
       <c r="W46" s="54">
-        <f t="shared" ref="W46:X46" si="79">W44/W38</f>
+        <f t="shared" ref="W46:X46" si="82">W44/W38</f>
         <v>0.15673246249920436</v>
       </c>
       <c r="X46" s="54">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.16208149266594032</v>
       </c>
       <c r="Y46" s="54">
-        <f t="shared" ref="Y46:AA46" si="80">Y44/Y38</f>
+        <f t="shared" ref="Y46:AA46" si="83">Y44/Y38</f>
         <v>0.14696111326835065</v>
       </c>
       <c r="Z46" s="53">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.15779349570267209</v>
       </c>
       <c r="AA46" s="54">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.16870686565593795</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M47" s="54">
-        <f t="shared" ref="M47:R47" si="81">M44/(M42-M37)</f>
+        <f t="shared" ref="M47:R47" si="84">M44/(M42-M37)</f>
         <v>0.59998116893816356</v>
       </c>
       <c r="N47" s="53">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.59108822212270484</v>
       </c>
       <c r="O47" s="54">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.81490159383262706</v>
       </c>
       <c r="P47" s="54">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.84359132070994147</v>
       </c>
       <c r="Q47" s="54">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.78048899605172062</v>
       </c>
       <c r="R47" s="53">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.76818051969266632</v>
       </c>
       <c r="S47" s="54">
-        <f t="shared" ref="S47:T47" si="82">S44/(S42-S37)</f>
+        <f t="shared" ref="S47:T47" si="85">S44/(S42-S37)</f>
         <v>0.79728541206113768</v>
       </c>
       <c r="T47" s="54">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.77786191536748328</v>
       </c>
       <c r="U47" s="54">
-        <f t="shared" ref="U47:V47" si="83">U44/(U42-U37)</f>
+        <f t="shared" ref="U47:V47" si="86">U44/(U42-U37)</f>
         <v>0.74666057769151728</v>
       </c>
       <c r="V47" s="53">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.72810063784549961</v>
       </c>
       <c r="W47" s="54">
-        <f t="shared" ref="W47:X47" si="84">W44/(W42-W37)</f>
+        <f t="shared" ref="W47:X47" si="87">W44/(W42-W37)</f>
         <v>0.72977689964600312</v>
       </c>
       <c r="X47" s="54">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.70546796377054677</v>
       </c>
       <c r="Y47" s="54">
-        <f t="shared" ref="Y47:AA47" si="85">Y44/(Y42-Y37)</f>
+        <f t="shared" ref="Y47:AA47" si="88">Y44/(Y42-Y37)</f>
         <v>0.65200618420083933</v>
       </c>
       <c r="Z47" s="53">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.65440416649444055</v>
       </c>
       <c r="AA47" s="54">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.64571744985024293</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A48" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M48" s="54">
-        <f t="shared" ref="M48:R48" si="86">M44/M41</f>
+        <f t="shared" ref="M48:R48" si="89">M44/M41</f>
         <v>0.35350817580405808</v>
       </c>
       <c r="N48" s="53">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.40216944194762261</v>
       </c>
       <c r="O48" s="54">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.40217075927722018</v>
       </c>
       <c r="P48" s="54">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.42866271174206128</v>
       </c>
       <c r="Q48" s="54">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.37402908689132786</v>
       </c>
       <c r="R48" s="53">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.41725333049087765</v>
       </c>
       <c r="S48" s="54">
-        <f t="shared" ref="S48:T48" si="87">S44/S41</f>
+        <f t="shared" ref="S48:T48" si="90">S44/S41</f>
         <v>0.41338213907170501</v>
       </c>
       <c r="T48" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.42749605258326295</v>
       </c>
       <c r="U48" s="54">
-        <f t="shared" ref="U48:V48" si="88">U44/U41</f>
+        <f t="shared" ref="U48:V48" si="91">U44/U41</f>
         <v>0.38111517953399832</v>
       </c>
       <c r="V48" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0.44331053528662973</v>
       </c>
       <c r="W48" s="54">
-        <f t="shared" ref="W48:X48" si="89">W44/W41</f>
+        <f t="shared" ref="W48:X48" si="92">W44/W41</f>
         <v>0.44695311948531263</v>
       </c>
       <c r="X48" s="54">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>0.46778694491628248</v>
       </c>
       <c r="Y48" s="54">
-        <f t="shared" ref="Y48:AA48" si="90">Y44/Y41</f>
+        <f t="shared" ref="Y48:AA48" si="93">Y44/Y41</f>
         <v>0.38708859652956862</v>
       </c>
       <c r="Z48" s="53">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.42327401056937375</v>
       </c>
       <c r="AA48" s="54">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.42266979694386098</v>
       </c>
     </row>
@@ -8469,370 +8460,522 @@
       <c r="X49" s="39"/>
       <c r="AA49" s="39"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="89"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8">
+        <f>SUM(B8:E8)</f>
+        <v>93580</v>
+      </c>
+      <c r="F50" s="89">
+        <f>SUM(C8:F8)</f>
+        <v>90758</v>
+      </c>
+      <c r="G50" s="8">
+        <f>SUM(D8:G8)</f>
+        <v>88084</v>
+      </c>
+      <c r="H50" s="8">
+        <f>SUM(E8:H8)</f>
+        <v>86886</v>
+      </c>
+      <c r="I50" s="8">
+        <f>SUM(F8:I8)</f>
+        <v>85320</v>
+      </c>
+      <c r="J50" s="89">
+        <f>SUM(G8:J8)</f>
+        <v>86869</v>
+      </c>
+      <c r="K50" s="8">
+        <f>SUM(H8:K8)</f>
+        <v>88899</v>
+      </c>
+      <c r="L50" s="8">
+        <f>SUM(I8:L8)</f>
+        <v>91580</v>
+      </c>
+      <c r="M50" s="8">
+        <f>SUM(J8:M8)</f>
+        <v>96571</v>
+      </c>
+      <c r="N50" s="89">
+        <f>SUM(K8:N8)</f>
+        <v>99181</v>
+      </c>
+      <c r="O50" s="8">
+        <f>SUM(L8:O8)</f>
+        <v>102273</v>
+      </c>
+      <c r="P50" s="8">
+        <f>SUM(M8:P8)</f>
+        <v>105880</v>
+      </c>
+      <c r="Q50" s="8">
+        <f>SUM(N8:Q8)</f>
+        <v>110360</v>
+      </c>
+      <c r="R50" s="89">
+        <f>SUM(O8:R8)</f>
+        <v>114906</v>
+      </c>
+      <c r="S50" s="8">
+        <f>SUM(P8:S8)</f>
+        <v>118459</v>
+      </c>
+      <c r="T50" s="8">
+        <f>SUM(Q8:T8)</f>
+        <v>122211</v>
+      </c>
+      <c r="U50" s="8">
+        <f>SUM(R8:U8)</f>
+        <v>125843</v>
+      </c>
+      <c r="V50" s="89">
+        <f>SUM(S8:V8)</f>
+        <v>129814</v>
+      </c>
+      <c r="W50" s="8">
+        <f>SUM(T8:W8)</f>
+        <v>134249</v>
+      </c>
+      <c r="X50" s="8">
+        <f>SUM(U8:X8)</f>
+        <v>138699</v>
+      </c>
+      <c r="Y50" s="8">
+        <f>SUM(V8:Y8)</f>
+        <v>143015</v>
+      </c>
+      <c r="Z50" s="89">
+        <f>SUM(W8:Z8)</f>
+        <v>147114</v>
+      </c>
+      <c r="AA50" s="8">
+        <f>SUM(X8:AA8)</f>
+        <v>153284</v>
+      </c>
+      <c r="AB50" s="8">
+        <f>SUM(Y8:AB8)</f>
+        <v>158601.35</v>
+      </c>
+      <c r="AC50" s="8">
+        <f>SUM(Z8:AC8)</f>
+        <v>164329.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="90" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="92"/>
+      <c r="I51" s="90">
+        <f>I50/E50-1</f>
+        <v>-8.8266723658901425E-2</v>
+      </c>
+      <c r="J51" s="92">
+        <f>J50/F50-1</f>
+        <v>-4.285021706075498E-2</v>
+      </c>
+      <c r="K51" s="90">
+        <f>K50/G50-1</f>
+        <v>9.2525316743108377E-3</v>
+      </c>
+      <c r="L51" s="90">
+        <f>L50/H50-1</f>
+        <v>5.402481412425475E-2</v>
+      </c>
+      <c r="M51" s="90">
+        <f>M50/I50-1</f>
+        <v>0.1318682606657291</v>
+      </c>
+      <c r="N51" s="92">
+        <f>N50/J50-1</f>
+        <v>0.14173065190113854</v>
+      </c>
+      <c r="O51" s="90">
+        <f>O50/K50-1</f>
+        <v>0.15044038740593257</v>
+      </c>
+      <c r="P51" s="90">
+        <f>P50/L50-1</f>
+        <v>0.15614763048700597</v>
+      </c>
+      <c r="Q51" s="90">
+        <f>Q50/M50-1</f>
+        <v>0.14278613662486661</v>
+      </c>
+      <c r="R51" s="92">
+        <f>R50/N50-1</f>
+        <v>0.15854851231586697</v>
+      </c>
+      <c r="S51" s="90">
+        <f>S50/O50-1</f>
+        <v>0.15826268907727359</v>
+      </c>
+      <c r="T51" s="90">
+        <f>T50/P50-1</f>
+        <v>0.15424064979221752</v>
+      </c>
+      <c r="U51" s="90">
+        <f>U50/Q50-1</f>
+        <v>0.14029539688292858</v>
+      </c>
+      <c r="V51" s="92">
+        <f>V50/R50-1</f>
+        <v>0.12974083163629402</v>
+      </c>
+      <c r="W51" s="90">
+        <f>W50/S50-1</f>
+        <v>0.13329506411501035</v>
+      </c>
+      <c r="X51" s="90">
+        <f>X50/T50-1</f>
+        <v>0.13491420575889235</v>
+      </c>
+      <c r="Y51" s="90">
+        <f>Y50/U50-1</f>
+        <v>0.13645574247276371</v>
+      </c>
+      <c r="Z51" s="92">
+        <f>Z50/V50-1</f>
+        <v>0.13326759825596612</v>
+      </c>
+      <c r="AA51" s="90">
+        <f>AA50/W50-1</f>
+        <v>0.1417887656518857</v>
+      </c>
+      <c r="AB51" s="90">
+        <f>AB50/X50-1</f>
+        <v>0.14349310377147639</v>
+      </c>
+      <c r="AC51" s="90">
+        <f>AC50/Y50-1</f>
+        <v>0.14903576547914565</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="M52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="AA52" s="39"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="53">
+        <f t="shared" ref="F53:N53" si="94">F3/B3-1</f>
+        <v>-2.8351309707241867E-2</v>
+      </c>
+      <c r="G53" s="54">
+        <f t="shared" si="94"/>
+        <v>-1.9349164467898028E-2</v>
+      </c>
+      <c r="H53" s="54">
+        <f t="shared" si="94"/>
+        <v>9.9117237107015921E-3</v>
+      </c>
+      <c r="I53" s="54">
+        <f t="shared" si="94"/>
+        <v>4.6239303407896726E-2</v>
+      </c>
+      <c r="J53" s="53">
+        <f t="shared" si="94"/>
+        <v>2.0615287028227014E-2</v>
+      </c>
+      <c r="K53" s="54">
+        <f t="shared" si="94"/>
+        <v>7.3094170403587455E-2</v>
+      </c>
+      <c r="L53" s="54">
+        <f t="shared" si="94"/>
+        <v>0.18187394571384763</v>
+      </c>
+      <c r="M53" s="54">
+        <f t="shared" si="94"/>
+        <v>0.22657483139618306</v>
+      </c>
+      <c r="N53" s="53">
+        <f t="shared" si="94"/>
+        <v>0.27998756991920448</v>
+      </c>
+      <c r="O53" s="54">
+        <f t="shared" ref="O53:P55" si="95">O3/K3-1</f>
+        <v>0.24710962529600233</v>
+      </c>
+      <c r="P53" s="54">
+        <f t="shared" si="95"/>
+        <v>0.1685480731802258</v>
+      </c>
+      <c r="Q53" s="54">
+        <f t="shared" ref="Q53:AC53" si="96">Q3/M3-1</f>
+        <v>0.13102480112306969</v>
+      </c>
+      <c r="R53" s="53">
+        <f t="shared" si="96"/>
+        <v>0.18608885651857254</v>
+      </c>
+      <c r="S53" s="63">
+        <f t="shared" si="96"/>
+        <v>0.12811348151457613</v>
+      </c>
+      <c r="T53" s="63">
+        <f t="shared" si="96"/>
+        <v>0.13724183877415053</v>
+      </c>
+      <c r="U53" s="63">
+        <f t="shared" si="96"/>
+        <v>0.14263549855192381</v>
+      </c>
+      <c r="V53" s="53">
+        <f t="shared" si="96"/>
+        <v>0.13366083307747423</v>
+      </c>
+      <c r="W53" s="54">
+        <f t="shared" si="96"/>
+        <v>0.17089108910891082</v>
+      </c>
+      <c r="X53" s="54">
+        <f t="shared" si="96"/>
+        <v>0.14655340753759027</v>
+      </c>
+      <c r="Y53" s="54">
+        <f t="shared" si="96"/>
+        <v>6.3818231193989217E-2</v>
+      </c>
+      <c r="Z53" s="53">
+        <f t="shared" si="96"/>
+        <v>0.11212422135957389</v>
+      </c>
+      <c r="AA53" s="54">
+        <f t="shared" si="96"/>
+        <v>0.12912227295788936</v>
+      </c>
+      <c r="AB53" s="54">
+        <f t="shared" si="96"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AC53" s="54">
+        <f t="shared" si="96"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="53">
-        <f t="shared" ref="F50:N50" si="91">F3/B3-1</f>
-        <v>-2.8351309707241867E-2</v>
-      </c>
-      <c r="G50" s="54">
-        <f t="shared" si="91"/>
-        <v>-1.9349164467898028E-2</v>
-      </c>
-      <c r="H50" s="54">
-        <f t="shared" si="91"/>
-        <v>9.9117237107015921E-3</v>
-      </c>
-      <c r="I50" s="54">
-        <f t="shared" si="91"/>
-        <v>4.6239303407896726E-2</v>
-      </c>
-      <c r="J50" s="53">
-        <f t="shared" si="91"/>
-        <v>2.0615287028227014E-2</v>
-      </c>
-      <c r="K50" s="54">
-        <f t="shared" si="91"/>
-        <v>7.3094170403587455E-2</v>
-      </c>
-      <c r="L50" s="54">
-        <f t="shared" si="91"/>
-        <v>0.18187394571384763</v>
-      </c>
-      <c r="M50" s="54">
-        <f t="shared" si="91"/>
-        <v>0.22657483139618306</v>
-      </c>
-      <c r="N50" s="53">
-        <f t="shared" si="91"/>
-        <v>0.27998756991920448</v>
-      </c>
-      <c r="O50" s="54">
-        <f t="shared" ref="O50:P52" si="92">O3/K3-1</f>
-        <v>0.24710962529600233</v>
-      </c>
-      <c r="P50" s="54">
-        <f t="shared" si="92"/>
-        <v>0.1685480731802258</v>
-      </c>
-      <c r="Q50" s="54">
-        <f t="shared" ref="Q50:AC50" si="93">Q3/M3-1</f>
-        <v>0.13102480112306969</v>
-      </c>
-      <c r="R50" s="53">
-        <f t="shared" si="93"/>
-        <v>0.18608885651857254</v>
-      </c>
-      <c r="S50" s="63">
-        <f t="shared" si="93"/>
-        <v>0.12811348151457613</v>
-      </c>
-      <c r="T50" s="63">
-        <f t="shared" si="93"/>
-        <v>0.13724183877415053</v>
-      </c>
-      <c r="U50" s="63">
-        <f t="shared" si="93"/>
-        <v>0.14263549855192381</v>
-      </c>
-      <c r="V50" s="53">
-        <f t="shared" si="93"/>
-        <v>0.13366083307747423</v>
-      </c>
-      <c r="W50" s="54">
-        <f t="shared" si="93"/>
-        <v>0.17089108910891082</v>
-      </c>
-      <c r="X50" s="54">
-        <f t="shared" si="93"/>
-        <v>0.14655340753759027</v>
-      </c>
-      <c r="Y50" s="54">
-        <f t="shared" si="93"/>
-        <v>6.3818231193989217E-2</v>
-      </c>
-      <c r="Z50" s="53">
-        <f t="shared" si="93"/>
-        <v>0.11212422135957389</v>
-      </c>
-      <c r="AA50" s="54">
-        <f t="shared" si="93"/>
-        <v>0.12912227295788936</v>
-      </c>
-      <c r="AB50" s="54">
-        <f t="shared" si="93"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AC50" s="54">
-        <f t="shared" si="93"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+      <c r="F54" s="53">
+        <f t="shared" ref="F54:N54" si="97">F4/B4-1</f>
+        <v>7.61643835616439E-2</v>
+      </c>
+      <c r="G54" s="54">
+        <f t="shared" si="97"/>
+        <v>4.9991723224631635E-2</v>
+      </c>
+      <c r="H54" s="54">
+        <f t="shared" si="97"/>
+        <v>3.2695239708622648E-2</v>
+      </c>
+      <c r="I54" s="54">
+        <f t="shared" si="97"/>
+        <v>6.5914866581956888E-2</v>
+      </c>
+      <c r="J54" s="53">
+        <f t="shared" si="97"/>
+        <v>3.4792939579090243E-2</v>
+      </c>
+      <c r="K54" s="54">
+        <f t="shared" si="97"/>
+        <v>6.5426454359136077E-2</v>
+      </c>
+      <c r="L54" s="54">
+        <f t="shared" si="97"/>
+        <v>0.1040026246719159</v>
+      </c>
+      <c r="M54" s="54">
+        <f t="shared" si="97"/>
+        <v>0.1655490984950081</v>
+      </c>
+      <c r="N54" s="53">
+        <f t="shared" si="97"/>
+        <v>0.13531244874528459</v>
+      </c>
+      <c r="O54" s="54">
+        <f t="shared" si="95"/>
+        <v>0.1534477656111275</v>
+      </c>
+      <c r="P54" s="54">
+        <f t="shared" si="95"/>
+        <v>0.17325408618127791</v>
+      </c>
+      <c r="Q54" s="54">
+        <f t="shared" ref="Q54:AC54" si="98">Q4/M4-1</f>
+        <v>0.22807466121196618</v>
+      </c>
+      <c r="R54" s="53">
+        <f t="shared" si="98"/>
+        <v>0.23764807859000281</v>
+      </c>
+      <c r="S54" s="63">
+        <f t="shared" si="98"/>
+        <v>0.2030788967286723</v>
+      </c>
+      <c r="T54" s="63">
+        <f t="shared" si="98"/>
+        <v>0.22201114488348539</v>
+      </c>
+      <c r="U54" s="63">
+        <f t="shared" si="98"/>
+        <v>0.18582136164896945</v>
+      </c>
+      <c r="V54" s="53">
+        <f t="shared" si="98"/>
+        <v>0.26590405042605347</v>
+      </c>
+      <c r="W54" s="54">
+        <f t="shared" si="98"/>
+        <v>0.26562166773299212</v>
+      </c>
+      <c r="X54" s="54">
+        <f t="shared" si="98"/>
+        <v>0.27277438076484617</v>
+      </c>
+      <c r="Y54" s="54">
+        <f t="shared" si="98"/>
+        <v>0.17382143797735061</v>
+      </c>
+      <c r="Z54" s="53">
+        <f t="shared" si="98"/>
+        <v>0.19741816505301979</v>
+      </c>
+      <c r="AA54" s="54">
+        <f t="shared" si="98"/>
+        <v>0.23017945909512183</v>
+      </c>
+      <c r="AB54" s="54">
+        <f t="shared" si="98"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AC54" s="54">
+        <f t="shared" si="98"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="53">
-        <f t="shared" ref="F51:N51" si="94">F4/B4-1</f>
-        <v>7.61643835616439E-2</v>
-      </c>
-      <c r="G51" s="54">
-        <f t="shared" si="94"/>
-        <v>4.9991723224631635E-2</v>
-      </c>
-      <c r="H51" s="54">
-        <f t="shared" si="94"/>
-        <v>3.2695239708622648E-2</v>
-      </c>
-      <c r="I51" s="54">
-        <f t="shared" si="94"/>
-        <v>6.5914866581956888E-2</v>
-      </c>
-      <c r="J51" s="53">
-        <f t="shared" si="94"/>
-        <v>3.4792939579090243E-2</v>
-      </c>
-      <c r="K51" s="54">
-        <f t="shared" si="94"/>
-        <v>6.5426454359136077E-2</v>
-      </c>
-      <c r="L51" s="54">
-        <f t="shared" si="94"/>
-        <v>0.1040026246719159</v>
-      </c>
-      <c r="M51" s="54">
-        <f t="shared" si="94"/>
-        <v>0.1655490984950081</v>
-      </c>
-      <c r="N51" s="53">
-        <f t="shared" si="94"/>
-        <v>0.13531244874528459</v>
-      </c>
-      <c r="O51" s="54">
-        <f t="shared" si="92"/>
-        <v>0.1534477656111275</v>
-      </c>
-      <c r="P51" s="54">
-        <f t="shared" si="92"/>
-        <v>0.17325408618127791</v>
-      </c>
-      <c r="Q51" s="54">
-        <f t="shared" ref="Q51:AC51" si="95">Q4/M4-1</f>
-        <v>0.22807466121196618</v>
-      </c>
-      <c r="R51" s="53">
+      <c r="F55" s="53">
+        <f t="shared" ref="F55:N55" si="99">F5/B5-1</f>
+        <v>-0.16509433962264153</v>
+      </c>
+      <c r="G55" s="54">
+        <f t="shared" si="99"/>
+        <v>-4.6830296642071945E-2</v>
+      </c>
+      <c r="H55" s="54">
+        <f t="shared" si="99"/>
+        <v>1.8144946098836545E-2</v>
+      </c>
+      <c r="I55" s="54">
+        <f t="shared" si="99"/>
+        <v>-3.7433733636265232E-2</v>
+      </c>
+      <c r="J55" s="53">
+        <f t="shared" si="99"/>
+        <v>1.4923782112781225E-3</v>
+      </c>
+      <c r="K55" s="54">
+        <f t="shared" si="99"/>
+        <v>-6.090047393364928E-2</v>
+      </c>
+      <c r="L55" s="54">
+        <f t="shared" si="99"/>
+        <v>-8.0092252856693524E-2</v>
+      </c>
+      <c r="M55" s="54">
+        <f t="shared" si="99"/>
+        <v>3.7990333820388855E-2</v>
+      </c>
+      <c r="N55" s="53">
+        <f t="shared" si="99"/>
+        <v>-1.8094731240021478E-3</v>
+      </c>
+      <c r="O55" s="54">
         <f t="shared" si="95"/>
-        <v>0.23764807859000281</v>
-      </c>
-      <c r="S51" s="63">
+        <v>2.3635293128101642E-2</v>
+      </c>
+      <c r="P55" s="54">
         <f t="shared" si="95"/>
-        <v>0.2030788967286723</v>
-      </c>
-      <c r="T51" s="63">
-        <f t="shared" si="95"/>
-        <v>0.22201114488348539</v>
-      </c>
-      <c r="U51" s="63">
-        <f t="shared" si="95"/>
-        <v>0.18582136164896945</v>
-      </c>
-      <c r="V51" s="53">
-        <f t="shared" si="95"/>
-        <v>0.26590405042605347</v>
-      </c>
-      <c r="W51" s="54">
-        <f t="shared" si="95"/>
-        <v>0.26562166773299212</v>
-      </c>
-      <c r="X51" s="54">
-        <f t="shared" si="95"/>
-        <v>0.27277438076484617</v>
-      </c>
-      <c r="Y51" s="54">
-        <f t="shared" si="95"/>
-        <v>0.17382143797735061</v>
-      </c>
-      <c r="Z51" s="53">
-        <f t="shared" si="95"/>
-        <v>0.19741816505301979</v>
-      </c>
-      <c r="AA51" s="54">
-        <f t="shared" si="95"/>
-        <v>0.23017945909512183</v>
-      </c>
-      <c r="AB51" s="54">
-        <f t="shared" si="95"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AC51" s="54">
-        <f t="shared" si="95"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52" s="53">
-        <f t="shared" ref="F52:N52" si="96">F5/B5-1</f>
-        <v>-0.16509433962264153</v>
-      </c>
-      <c r="G52" s="54">
-        <f t="shared" si="96"/>
-        <v>-4.6830296642071945E-2</v>
-      </c>
-      <c r="H52" s="54">
-        <f t="shared" si="96"/>
-        <v>1.8144946098836545E-2</v>
-      </c>
-      <c r="I52" s="54">
-        <f t="shared" si="96"/>
-        <v>-3.7433733636265232E-2</v>
-      </c>
-      <c r="J52" s="53">
-        <f t="shared" si="96"/>
-        <v>1.4923782112781225E-3</v>
-      </c>
-      <c r="K52" s="54">
-        <f t="shared" si="96"/>
-        <v>-6.090047393364928E-2</v>
-      </c>
-      <c r="L52" s="54">
-        <f t="shared" si="96"/>
-        <v>-8.0092252856693524E-2</v>
-      </c>
-      <c r="M52" s="54">
-        <f t="shared" si="96"/>
-        <v>3.7990333820388855E-2</v>
-      </c>
-      <c r="N52" s="53">
-        <f t="shared" si="96"/>
-        <v>-1.8094731240021478E-3</v>
-      </c>
-      <c r="O52" s="54">
-        <f t="shared" si="92"/>
-        <v>2.3635293128101642E-2</v>
-      </c>
-      <c r="P52" s="54">
-        <f t="shared" si="92"/>
         <v>0.13014245014245018</v>
       </c>
-      <c r="Q52" s="54">
-        <f t="shared" ref="Q52:AC52" si="97">Q5/M5-1</f>
+      <c r="Q55" s="54">
+        <f t="shared" ref="Q55:AC55" si="100">Q5/M5-1</f>
         <v>0.17065511640498099</v>
       </c>
-      <c r="R52" s="53">
-        <f t="shared" si="97"/>
+      <c r="R55" s="53">
+        <f t="shared" si="100"/>
         <v>0.14587332053742808</v>
       </c>
-      <c r="S52" s="63">
-        <f t="shared" si="97"/>
+      <c r="S55" s="63">
+        <f t="shared" si="100"/>
         <v>6.7625308134757534E-2</v>
       </c>
-      <c r="T52" s="63">
-        <f t="shared" si="97"/>
+      <c r="T55" s="63">
+        <f t="shared" si="100"/>
         <v>7.6938590299485687E-2</v>
       </c>
-      <c r="U52" s="63">
-        <f t="shared" si="97"/>
+      <c r="U55" s="63">
+        <f t="shared" si="100"/>
         <v>4.328924243825738E-2</v>
       </c>
-      <c r="V52" s="53">
-        <f t="shared" si="97"/>
+      <c r="V55" s="53">
+        <f t="shared" si="100"/>
         <v>3.6013400335008328E-2</v>
       </c>
-      <c r="W52" s="54">
-        <f t="shared" si="97"/>
+      <c r="W55" s="54">
+        <f t="shared" si="100"/>
         <v>1.677826521973369E-2</v>
       </c>
-      <c r="X52" s="54">
-        <f t="shared" si="97"/>
+      <c r="X55" s="54">
+        <f t="shared" si="100"/>
         <v>2.9681647940074996E-2</v>
       </c>
-      <c r="Y52" s="54">
-        <f t="shared" si="97"/>
+      <c r="Y55" s="54">
+        <f t="shared" si="100"/>
         <v>0.14460501817537019</v>
       </c>
-      <c r="Z52" s="53">
-        <f t="shared" si="97"/>
+      <c r="Z55" s="53">
+        <f t="shared" si="100"/>
         <v>6.4313302793496785E-2</v>
       </c>
-      <c r="AA52" s="54">
-        <f t="shared" si="97"/>
+      <c r="AA55" s="54">
+        <f t="shared" si="100"/>
         <v>0.14465218378623868</v>
       </c>
-      <c r="AB52" s="54">
-        <f t="shared" si="97"/>
+      <c r="AB55" s="54">
+        <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AC52" s="54">
-        <f t="shared" si="97"/>
+      <c r="AC55" s="54">
+        <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="80" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-    </row>
-    <row r="81" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="59"/>
-      <c r="S81" s="66"/>
-      <c r="T81" s="66"/>
-      <c r="U81" s="66"/>
-      <c r="V81" s="60"/>
-      <c r="Z81" s="60"/>
-    </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-    </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
       <c r="D83" s="34"/>
       <c r="E83" s="34"/>
       <c r="F83" s="36"/>
@@ -8848,23 +8991,29 @@
       <c r="P83" s="37"/>
       <c r="Q83" s="37"/>
     </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
+    <row r="84" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="58"/>
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="66"/>
+      <c r="T84" s="66"/>
+      <c r="U84" s="66"/>
+      <c r="V84" s="60"/>
+      <c r="Z84" s="60"/>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B85" s="34"/>
@@ -8939,6 +9088,8 @@
       <c r="Q88" s="37"/>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
       <c r="D89" s="34"/>
       <c r="E89" s="34"/>
       <c r="F89" s="36"/>
@@ -8955,6 +9106,8 @@
       <c r="Q89" s="37"/>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="34"/>
       <c r="F90" s="36"/>
@@ -8971,6 +9124,8 @@
       <c r="Q90" s="37"/>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="34"/>
       <c r="E91" s="34"/>
       <c r="F91" s="36"/>
@@ -9003,8 +9158,6 @@
       <c r="Q92" s="37"/>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
       <c r="D93" s="34"/>
       <c r="E93" s="34"/>
       <c r="F93" s="36"/>
@@ -9021,8 +9174,6 @@
       <c r="Q93" s="37"/>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
       <c r="D94" s="34"/>
       <c r="E94" s="34"/>
       <c r="F94" s="36"/>
@@ -9039,8 +9190,6 @@
       <c r="Q94" s="37"/>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
       <c r="D95" s="34"/>
       <c r="E95" s="34"/>
       <c r="F95" s="36"/>
@@ -9219,6 +9368,8 @@
       <c r="Q104" s="37"/>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
       <c r="D105" s="34"/>
       <c r="E105" s="34"/>
       <c r="F105" s="36"/>
@@ -9234,29 +9385,23 @@
       <c r="P105" s="37"/>
       <c r="Q105" s="37"/>
     </row>
-    <row r="106" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="58"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="43"/>
-      <c r="M106" s="43"/>
-      <c r="N106" s="58"/>
-      <c r="O106" s="43"/>
-      <c r="P106" s="43"/>
-      <c r="Q106" s="43"/>
-      <c r="R106" s="59"/>
-      <c r="S106" s="66"/>
-      <c r="T106" s="66"/>
-      <c r="U106" s="66"/>
-      <c r="V106" s="60"/>
-      <c r="Z106" s="60"/>
+    <row r="106" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="36"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="37"/>
+      <c r="Q106" s="37"/>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B107" s="34"/>
@@ -9277,8 +9422,6 @@
       <c r="Q107" s="37"/>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
       <c r="D108" s="34"/>
       <c r="E108" s="34"/>
       <c r="F108" s="36"/>
@@ -9294,23 +9437,29 @@
       <c r="P108" s="37"/>
       <c r="Q108" s="37"/>
     </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="37"/>
-      <c r="M109" s="37"/>
-      <c r="N109" s="36"/>
-      <c r="O109" s="37"/>
-      <c r="P109" s="37"/>
-      <c r="Q109" s="37"/>
+    <row r="109" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="58"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="58"/>
+      <c r="O109" s="43"/>
+      <c r="P109" s="43"/>
+      <c r="Q109" s="43"/>
+      <c r="R109" s="59"/>
+      <c r="S109" s="66"/>
+      <c r="T109" s="66"/>
+      <c r="U109" s="66"/>
+      <c r="V109" s="60"/>
+      <c r="Z109" s="60"/>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B110" s="34"/>
@@ -9366,7 +9515,7 @@
       <c r="P112" s="37"/>
       <c r="Q112" s="37"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
@@ -9384,7 +9533,7 @@
       <c r="P113" s="37"/>
       <c r="Q113" s="37"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B114" s="34"/>
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
@@ -9402,7 +9551,7 @@
       <c r="P114" s="37"/>
       <c r="Q114" s="37"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
@@ -9420,7 +9569,7 @@
       <c r="P115" s="37"/>
       <c r="Q115" s="37"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
       <c r="D116" s="34"/>
@@ -9438,7 +9587,7 @@
       <c r="P116" s="37"/>
       <c r="Q116" s="37"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
@@ -9456,7 +9605,7 @@
       <c r="P117" s="37"/>
       <c r="Q117" s="37"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B118" s="34"/>
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
@@ -9474,7 +9623,7 @@
       <c r="P118" s="37"/>
       <c r="Q118" s="37"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B119" s="34"/>
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
@@ -9492,7 +9641,7 @@
       <c r="P119" s="37"/>
       <c r="Q119" s="37"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B120" s="34"/>
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
@@ -9510,7 +9659,7 @@
       <c r="P120" s="37"/>
       <c r="Q120" s="37"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
       <c r="D121" s="34"/>
@@ -9528,31 +9677,27 @@
       <c r="P121" s="37"/>
       <c r="Q121" s="37"/>
     </row>
-    <row r="122" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="48"/>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="58"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="58"/>
-      <c r="K122" s="43"/>
-      <c r="L122" s="43"/>
-      <c r="M122" s="43"/>
-      <c r="N122" s="58"/>
-      <c r="O122" s="43"/>
-      <c r="P122" s="43"/>
-      <c r="Q122" s="43"/>
-      <c r="R122" s="59"/>
-      <c r="S122" s="66"/>
-      <c r="T122" s="66"/>
-      <c r="U122" s="66"/>
-      <c r="V122" s="60"/>
-      <c r="Z122" s="60"/>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="37"/>
+      <c r="L122" s="37"/>
+      <c r="M122" s="37"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="37"/>
+      <c r="P122" s="37"/>
+      <c r="Q122" s="37"/>
+    </row>
+    <row r="123" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
       <c r="D123" s="34"/>
       <c r="E123" s="34"/>
       <c r="F123" s="36"/>
@@ -9568,7 +9713,9 @@
       <c r="P123" s="37"/>
       <c r="Q123" s="37"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
       <c r="D124" s="34"/>
       <c r="E124" s="34"/>
       <c r="F124" s="36"/>
@@ -9584,9 +9731,9 @@
       <c r="P124" s="37"/>
       <c r="Q124" s="37"/>
     </row>
-    <row r="125" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="47"/>
-      <c r="C125" s="47"/>
+    <row r="125" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
       <c r="D125" s="48"/>
       <c r="E125" s="48"/>
       <c r="F125" s="58"/>
@@ -9608,10 +9755,7 @@
       <c r="V125" s="60"/>
       <c r="Z125" s="60"/>
     </row>
-    <row r="126" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="2"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
+    <row r="126" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D126" s="34"/>
       <c r="E126" s="34"/>
       <c r="F126" s="36"/>
@@ -9623,20 +9767,11 @@
       <c r="L126" s="37"/>
       <c r="M126" s="37"/>
       <c r="N126" s="36"/>
-      <c r="O126" s="43"/>
-      <c r="P126" s="43"/>
-      <c r="Q126" s="43"/>
-      <c r="R126" s="59"/>
-      <c r="S126" s="66"/>
-      <c r="T126" s="66"/>
-      <c r="U126" s="66"/>
-      <c r="V126" s="60"/>
-      <c r="Z126" s="60"/>
-    </row>
-    <row r="127" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="2"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
+      <c r="O126" s="37"/>
+      <c r="P126" s="37"/>
+      <c r="Q126" s="37"/>
+    </row>
+    <row r="127" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D127" s="34"/>
       <c r="E127" s="34"/>
       <c r="F127" s="36"/>
@@ -9648,15 +9783,83 @@
       <c r="L127" s="37"/>
       <c r="M127" s="37"/>
       <c r="N127" s="36"/>
-      <c r="O127" s="43"/>
-      <c r="P127" s="43"/>
-      <c r="Q127" s="43"/>
-      <c r="R127" s="59"/>
-      <c r="S127" s="66"/>
-      <c r="T127" s="66"/>
-      <c r="U127" s="66"/>
-      <c r="V127" s="60"/>
-      <c r="Z127" s="60"/>
+      <c r="O127" s="37"/>
+      <c r="P127" s="37"/>
+      <c r="Q127" s="37"/>
+    </row>
+    <row r="128" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="47"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="58"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="43"/>
+      <c r="J128" s="58"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43"/>
+      <c r="M128" s="43"/>
+      <c r="N128" s="58"/>
+      <c r="O128" s="43"/>
+      <c r="P128" s="43"/>
+      <c r="Q128" s="43"/>
+      <c r="R128" s="59"/>
+      <c r="S128" s="66"/>
+      <c r="T128" s="66"/>
+      <c r="U128" s="66"/>
+      <c r="V128" s="60"/>
+      <c r="Z128" s="60"/>
+    </row>
+    <row r="129" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="37"/>
+      <c r="L129" s="37"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="36"/>
+      <c r="O129" s="43"/>
+      <c r="P129" s="43"/>
+      <c r="Q129" s="43"/>
+      <c r="R129" s="59"/>
+      <c r="S129" s="66"/>
+      <c r="T129" s="66"/>
+      <c r="U129" s="66"/>
+      <c r="V129" s="60"/>
+      <c r="Z129" s="60"/>
+    </row>
+    <row r="130" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="36"/>
+      <c r="O130" s="43"/>
+      <c r="P130" s="43"/>
+      <c r="Q130" s="43"/>
+      <c r="R130" s="59"/>
+      <c r="S130" s="66"/>
+      <c r="T130" s="66"/>
+      <c r="U130" s="66"/>
+      <c r="V130" s="60"/>
+      <c r="Z130" s="60"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9692,174 +9895,174 @@
       <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="81"/>
+      <c r="C4" s="80"/>
     </row>
     <row r="5" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="81"/>
+      <c r="C5" s="80"/>
     </row>
     <row r="6" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>126</v>
+        <v>113</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="82" t="s">
         <v>120</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>124</v>
+        <v>98</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>143</v>
+      <c r="B9" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="81"/>
+        <v>84</v>
+      </c>
+      <c r="C11" s="80"/>
     </row>
     <row r="12" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
-      <c r="C12" s="81"/>
+      <c r="C12" s="80"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>123</v>
+        <v>99</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>127</v>
+        <v>100</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>131</v>
+        <v>102</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="81"/>
+        <v>85</v>
+      </c>
+      <c r="C18" s="80"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="14"/>
-      <c r="C19" s="81"/>
+      <c r="C19" s="80"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="83" t="s">
-        <v>133</v>
+        <v>103</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="83" t="s">
-        <v>136</v>
+        <v>104</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="83" t="s">
-        <v>138</v>
+        <v>105</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="83" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="82" t="s">
-        <v>145</v>
+      <c r="B27" s="81" t="s">
+        <v>140</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
